--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1204">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -3565,6 +3565,69 @@
   </si>
   <si>
     <t>SYS_PID</t>
+  </si>
+  <si>
+    <t>Wisnu Andra Isdianto</t>
+  </si>
+  <si>
+    <t>khamim</t>
+  </si>
+  <si>
+    <t>Khamim</t>
+  </si>
+  <si>
+    <t>Slamet Riadi</t>
+  </si>
+  <si>
+    <t>Adythia Adikara</t>
+  </si>
+  <si>
+    <t>Agus Sopyan Hadi</t>
+  </si>
+  <si>
+    <t>Rafi Artman Siddiq</t>
+  </si>
+  <si>
+    <t>Azis Purwandana</t>
+  </si>
+  <si>
+    <t>Heryanto</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>Riza</t>
+  </si>
+  <si>
+    <t>wisnu.andra</t>
+  </si>
+  <si>
+    <t>riza</t>
+  </si>
+  <si>
+    <t>slametr</t>
+  </si>
+  <si>
+    <t>adythiaa</t>
+  </si>
+  <si>
+    <t>aguss</t>
+  </si>
+  <si>
+    <t>azisp</t>
+  </si>
+  <si>
+    <t>heryanto</t>
+  </si>
+  <si>
+    <t>imran</t>
+  </si>
+  <si>
+    <t>rafi.artman</t>
+  </si>
+  <si>
+    <t>Zaire Dite Biscaya</t>
   </si>
 </sst>
 </file>
@@ -3625,7 +3688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3633,6 +3696,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3937,15 +4001,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F502"/>
+  <dimension ref="A1:F512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
@@ -10611,7 +10675,7 @@
         <v>488</v>
       </c>
       <c r="D445" s="1" t="str">
-        <f t="shared" ref="D445:D502" si="7">IF(EXACT(B445, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B445, "', null);"))</f>
+        <f t="shared" ref="D445:D507" si="7">IF(EXACT(B445, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B445, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tjhang Linawati', null);</v>
       </c>
       <c r="F445" s="3">
@@ -11383,7 +11447,7 @@
         <v>25000000000495</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B497" s="1" t="s">
         <v>262</v>
       </c>
@@ -11398,7 +11462,7 @@
         <v>25000000000496</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B498" s="1" t="s">
         <v>1084</v>
       </c>
@@ -11413,22 +11477,22 @@
         <v>25000000000497</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
-        <v>512</v>
+        <v>1203</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D499" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zaire Dite', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zaire Dite Biscaya', null);</v>
       </c>
       <c r="F499" s="3">
         <v>25000000000498</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="s">
         <v>264</v>
       </c>
@@ -11443,7 +11507,7 @@
         <v>25000000000499</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B501" s="1" t="s">
         <v>1044</v>
       </c>
@@ -11458,7 +11522,7 @@
         <v>25000000000500</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B502" s="1" t="s">
         <v>682</v>
       </c>
@@ -11471,6 +11535,159 @@
       </c>
       <c r="F502" s="3">
         <v>25000000000501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44491</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D503" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adythia Adikara', null);</v>
+      </c>
+      <c r="F503" s="3">
+        <v>25000000000502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B504" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D504" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Sopyan Hadi', null);</v>
+      </c>
+      <c r="F504" s="3">
+        <v>25000000000503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B505" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D505" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Azis Purwandana', null);</v>
+      </c>
+      <c r="F505" s="3">
+        <v>25000000000504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B506" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D506" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heryanto', null);</v>
+      </c>
+      <c r="F506" s="3">
+        <v>25000000000505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B507" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D507" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imran', null);</v>
+      </c>
+      <c r="F507" s="3">
+        <v>25000000000506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B508" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D508" s="1" t="str">
+        <f t="shared" ref="D508:D512" si="8">IF(EXACT(B508, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B508, "', null);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khamim', null);</v>
+      </c>
+      <c r="F508" s="3">
+        <v>25000000000507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B509" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D509" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rafi Artman Siddiq', null);</v>
+      </c>
+      <c r="F509" s="3">
+        <v>25000000000508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B510" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D510" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riza', null);</v>
+      </c>
+      <c r="F510" s="3">
+        <v>25000000000509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B511" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D511" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Slamet Riadi', null);</v>
+      </c>
+      <c r="F511" s="3">
+        <v>25000000000510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B512" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D512" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Andra Isdianto', null);</v>
+      </c>
+      <c r="F512" s="3">
+        <v>25000000000511</v>
       </c>
     </row>
   </sheetData>
@@ -11483,7 +11700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B486"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" workbookViewId="0">
+    <sheetView topLeftCell="A483" workbookViewId="0">
       <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="MAIN" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Pindahan dari DB ERP Live" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1275">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -3597,9 +3597,6 @@
     <t>Imran</t>
   </si>
   <si>
-    <t>Riza</t>
-  </si>
-  <si>
     <t>wisnu.andra</t>
   </si>
   <si>
@@ -3628,6 +3625,222 @@
   </si>
   <si>
     <t>Zaire Dite Biscaya</t>
+  </si>
+  <si>
+    <t>Ronny Anindika Arnold</t>
+  </si>
+  <si>
+    <t>Wawan Kusworo</t>
+  </si>
+  <si>
+    <t>Agus Budi Setiawan</t>
+  </si>
+  <si>
+    <t>Samta Harahap</t>
+  </si>
+  <si>
+    <t>novizan</t>
+  </si>
+  <si>
+    <t>Yusuf Fathurahman</t>
+  </si>
+  <si>
+    <t>Muhammad Sholikhun</t>
+  </si>
+  <si>
+    <t>Vingky Hendriek Yomerlin</t>
+  </si>
+  <si>
+    <t>Restu Dwi</t>
+  </si>
+  <si>
+    <t>Nikko Septian</t>
+  </si>
+  <si>
+    <t>Dian Setiawan</t>
+  </si>
+  <si>
+    <t>Muhammad Syarifudin</t>
+  </si>
+  <si>
+    <t>Oqi Suhaqi Yunus</t>
+  </si>
+  <si>
+    <t>Idris Affandi</t>
+  </si>
+  <si>
+    <t>Wardah Laily Khoiriyah</t>
+  </si>
+  <si>
+    <t>Indra Wijaya</t>
+  </si>
+  <si>
+    <t>Nadia Rizkiah</t>
+  </si>
+  <si>
+    <t>Istikaro Fauziah</t>
+  </si>
+  <si>
+    <t>Bagus Isdiantara</t>
+  </si>
+  <si>
+    <t>cahyana</t>
+  </si>
+  <si>
+    <t>Ahmad Yunadi</t>
+  </si>
+  <si>
+    <t>Muhammad Lukbani</t>
+  </si>
+  <si>
+    <t>Wahyu Teluk Naga</t>
+  </si>
+  <si>
+    <t>Denny Achmad</t>
+  </si>
+  <si>
+    <t>Irma Maulidawati</t>
+  </si>
+  <si>
+    <t>Wulanraniasih</t>
+  </si>
+  <si>
+    <t>Ahmad Choerul</t>
+  </si>
+  <si>
+    <t>Ferdian Kriswantoro</t>
+  </si>
+  <si>
+    <t>Zeinurani</t>
+  </si>
+  <si>
+    <t>Yogi Perbangkara</t>
+  </si>
+  <si>
+    <t>Rizal Amri</t>
+  </si>
+  <si>
+    <t>Gilang Setiawan</t>
+  </si>
+  <si>
+    <t>Fabrian Danang Destiyara</t>
+  </si>
+  <si>
+    <t>Asep mulyana</t>
+  </si>
+  <si>
+    <t>Dede Hartanto</t>
+  </si>
+  <si>
+    <t>ronny.anindika</t>
+  </si>
+  <si>
+    <t>wawan.kusworo</t>
+  </si>
+  <si>
+    <t>agus.budi</t>
+  </si>
+  <si>
+    <t>samta.harahap</t>
+  </si>
+  <si>
+    <t>fuzi.mafrozi</t>
+  </si>
+  <si>
+    <t>yusuf.fathurahman</t>
+  </si>
+  <si>
+    <t>muhammad.sholikhun</t>
+  </si>
+  <si>
+    <t>vingky</t>
+  </si>
+  <si>
+    <t>restu.dwi</t>
+  </si>
+  <si>
+    <t>nikkon.septian</t>
+  </si>
+  <si>
+    <t>dian.setiawan</t>
+  </si>
+  <si>
+    <t>muhammad.syarifudin</t>
+  </si>
+  <si>
+    <t>oqi.suhaqi</t>
+  </si>
+  <si>
+    <t>Idris.affandi</t>
+  </si>
+  <si>
+    <t>wardah</t>
+  </si>
+  <si>
+    <t>indra.wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadiah.rizkiah </t>
+  </si>
+  <si>
+    <t>istikaro.fauziah</t>
+  </si>
+  <si>
+    <t>bagus.isdiantara</t>
+  </si>
+  <si>
+    <t>ahmad.yunadi</t>
+  </si>
+  <si>
+    <t>muhammad.lukbani</t>
+  </si>
+  <si>
+    <t>wahyu.teluk</t>
+  </si>
+  <si>
+    <t>denny.achmad</t>
+  </si>
+  <si>
+    <t>irma.maulidawati</t>
+  </si>
+  <si>
+    <t>wulanraniasih</t>
+  </si>
+  <si>
+    <t>ahmad.choerul</t>
+  </si>
+  <si>
+    <t>ferdian.kriswantoro</t>
+  </si>
+  <si>
+    <t>zeinurani</t>
+  </si>
+  <si>
+    <t>yogi.perbangkara</t>
+  </si>
+  <si>
+    <t>rizal.amri</t>
+  </si>
+  <si>
+    <t>gilang.setiawan</t>
+  </si>
+  <si>
+    <t>fabrian.danang</t>
+  </si>
+  <si>
+    <t>asep.mulyana</t>
+  </si>
+  <si>
+    <t>dede.hartanto</t>
+  </si>
+  <si>
+    <t>Fuzi Mafrozi</t>
+  </si>
+  <si>
+    <t>Novizan</t>
+  </si>
+  <si>
+    <t>Cahyana</t>
   </si>
 </sst>
 </file>
@@ -3656,7 +3869,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3675,6 +3888,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3688,7 +3913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3696,7 +3921,8 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4001,10 +4227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F512"/>
+  <dimension ref="A1:F548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="B500" sqref="B500"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4012,7 +4238,8 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -5509,14 +5736,14 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>985</v>
+        <v>60</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>986</v>
       </c>
       <c r="D101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deny Adi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deny Adi Purnama', null);</v>
       </c>
       <c r="F101" s="3">
         <v>25000000000100</v>
@@ -11479,7 +11706,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>513</v>
@@ -11538,14 +11765,14 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A503" s="5">
+      <c r="A503" s="6">
         <v>44491</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D503" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11560,7 +11787,7 @@
         <v>1188</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D504" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11575,7 +11802,7 @@
         <v>1190</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D505" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11590,7 +11817,7 @@
         <v>1191</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D506" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11605,7 +11832,7 @@
         <v>1192</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D507" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11623,7 +11850,7 @@
         <v>1184</v>
       </c>
       <c r="D508" s="1" t="str">
-        <f t="shared" ref="D508:D512" si="8">IF(EXACT(B508, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B508, "', null);"))</f>
+        <f>IF(EXACT(B508, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B508, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khamim', null);</v>
       </c>
       <c r="F508" s="3">
@@ -11635,10 +11862,10 @@
         <v>1189</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D509" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(EXACT(B509, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B509, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rafi Artman Siddiq', null);</v>
       </c>
       <c r="F509" s="3">
@@ -11647,14 +11874,14 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B510" s="1" t="s">
-        <v>1193</v>
+        <v>204</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D510" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riza', null);</v>
+        <f>IF(EXACT(B510, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B510, "', null);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riza Emir Subekti', null);</v>
       </c>
       <c r="F510" s="3">
         <v>25000000000509</v>
@@ -11665,10 +11892,10 @@
         <v>1186</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D511" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(EXACT(B511, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B511, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Slamet Riadi', null);</v>
       </c>
       <c r="F511" s="3">
@@ -11680,14 +11907,557 @@
         <v>1183</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D512" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(EXACT(B512, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B512, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Andra Isdianto', null);</v>
       </c>
       <c r="F512" s="3">
         <v>25000000000511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" s="6">
+        <v>45069</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D513" s="1" t="str">
+        <f t="shared" ref="D513:D548" si="8">IF(EXACT(B513, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B513, "', null);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Budi Setiawan', null);</v>
+      </c>
+      <c r="F513" s="3">
+        <v>25000000000512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B514" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D514" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Choerul', null);</v>
+      </c>
+      <c r="F514" s="3">
+        <v>25000000000513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B515" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D515" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Yunadi', null);</v>
+      </c>
+      <c r="F515" s="3">
+        <v>25000000000514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B516" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D516" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Asep mulyana', null);</v>
+      </c>
+      <c r="F516" s="3">
+        <v>25000000000515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B517" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D517" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bagus Isdiantara', null);</v>
+      </c>
+      <c r="F517" s="3">
+        <v>25000000000516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B518" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D518" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyana', null);</v>
+      </c>
+      <c r="F518" s="3">
+        <v>25000000000517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B519" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D519" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dede Hartanto', null);</v>
+      </c>
+      <c r="F519" s="3">
+        <v>25000000000518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B520" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D520" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Denny Achmad', null);</v>
+      </c>
+      <c r="F520" s="3">
+        <v>25000000000519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B521" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D521" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Setiawan', null);</v>
+      </c>
+      <c r="F521" s="3">
+        <v>25000000000520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B522" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D522" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fabrian Danang Destiyara', null);</v>
+      </c>
+      <c r="F522" s="3">
+        <v>25000000000521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B523" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D523" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ferdian Kriswantoro', null);</v>
+      </c>
+      <c r="F523" s="3">
+        <v>25000000000522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B524" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D524" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuzi Mafrozi', null);</v>
+      </c>
+      <c r="F524" s="3">
+        <v>25000000000523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B525" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D525" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gilang Setiawan', null);</v>
+      </c>
+      <c r="F525" s="3">
+        <v>25000000000524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B526" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D526" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idris Affandi', null);</v>
+      </c>
+      <c r="F526" s="3">
+        <v>25000000000525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B527" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D527" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Wijaya', null);</v>
+      </c>
+      <c r="F527" s="3">
+        <v>25000000000526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B528" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D528" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irma Maulidawati', null);</v>
+      </c>
+      <c r="F528" s="3">
+        <v>25000000000527</v>
+      </c>
+    </row>
+    <row r="529" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B529" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D529" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Istikaro Fauziah', null);</v>
+      </c>
+      <c r="F529" s="3">
+        <v>25000000000528</v>
+      </c>
+    </row>
+    <row r="530" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B530" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D530" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Lukbani', null);</v>
+      </c>
+      <c r="F530" s="3">
+        <v>25000000000529</v>
+      </c>
+    </row>
+    <row r="531" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B531" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D531" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Sholikhun', null);</v>
+      </c>
+      <c r="F531" s="3">
+        <v>25000000000530</v>
+      </c>
+    </row>
+    <row r="532" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B532" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D532" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Syarifudin', null);</v>
+      </c>
+      <c r="F532" s="3">
+        <v>25000000000531</v>
+      </c>
+    </row>
+    <row r="533" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B533" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D533" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nadia Rizkiah', null);</v>
+      </c>
+      <c r="F533" s="3">
+        <v>25000000000532</v>
+      </c>
+    </row>
+    <row r="534" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B534" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D534" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nikko Septian', null);</v>
+      </c>
+      <c r="F534" s="3">
+        <v>25000000000533</v>
+      </c>
+    </row>
+    <row r="535" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B535" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D535" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novizan', null);</v>
+      </c>
+      <c r="F535" s="3">
+        <v>25000000000534</v>
+      </c>
+    </row>
+    <row r="536" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B536" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D536" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Oqi Suhaqi Yunus', null);</v>
+      </c>
+      <c r="F536" s="3">
+        <v>25000000000535</v>
+      </c>
+    </row>
+    <row r="537" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B537" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D537" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Restu Dwi', null);</v>
+      </c>
+      <c r="F537" s="3">
+        <v>25000000000536</v>
+      </c>
+    </row>
+    <row r="538" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B538" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D538" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizal Amri', null);</v>
+      </c>
+      <c r="F538" s="3">
+        <v>25000000000537</v>
+      </c>
+    </row>
+    <row r="539" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B539" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D539" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ronny Anindika Arnold', null);</v>
+      </c>
+      <c r="F539" s="3">
+        <v>25000000000538</v>
+      </c>
+    </row>
+    <row r="540" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B540" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D540" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Samta Harahap', null);</v>
+      </c>
+      <c r="F540" s="3">
+        <v>25000000000539</v>
+      </c>
+    </row>
+    <row r="541" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B541" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D541" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vingky Hendriek Yomerlin', null);</v>
+      </c>
+      <c r="F541" s="3">
+        <v>25000000000540</v>
+      </c>
+    </row>
+    <row r="542" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B542" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D542" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Teluk Naga', null);</v>
+      </c>
+      <c r="F542" s="3">
+        <v>25000000000541</v>
+      </c>
+    </row>
+    <row r="543" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B543" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D543" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wardah Laily Khoiriyah', null);</v>
+      </c>
+      <c r="F543" s="3">
+        <v>25000000000542</v>
+      </c>
+    </row>
+    <row r="544" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B544" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D544" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wawan Kusworo', null);</v>
+      </c>
+      <c r="F544" s="3">
+        <v>25000000000543</v>
+      </c>
+    </row>
+    <row r="545" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B545" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D545" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wulanraniasih', null);</v>
+      </c>
+      <c r="F545" s="3">
+        <v>25000000000544</v>
+      </c>
+    </row>
+    <row r="546" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B546" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D546" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogi Perbangkara', null);</v>
+      </c>
+      <c r="F546" s="3">
+        <v>25000000000545</v>
+      </c>
+    </row>
+    <row r="547" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B547" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D547" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusuf Fathurahman', null);</v>
+      </c>
+      <c r="F547" s="3">
+        <v>25000000000546</v>
+      </c>
+    </row>
+    <row r="548" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B548" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D548" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zeinurani', null);</v>
+      </c>
+      <c r="F548" s="3">
+        <v>25000000000547</v>
       </c>
     </row>
   </sheetData>
@@ -14141,10 +14911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A517" sqref="A517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18257,6 +19027,374 @@
         <v>1154</v>
       </c>
     </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="1291">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -3489,9 +3489,6 @@
     <t>Satria Budi Raharja</t>
   </si>
   <si>
-    <t>Eka Bagus</t>
-  </si>
-  <si>
     <t>Eko Kurniawan</t>
   </si>
   <si>
@@ -3540,9 +3537,6 @@
     <t>Elieser Ferdy P.</t>
   </si>
   <si>
-    <t>Frando J. Siahan</t>
-  </si>
-  <si>
     <t>Ganda Yuharis R.</t>
   </si>
   <si>
@@ -3841,6 +3835,60 @@
   </si>
   <si>
     <t>Cahyana</t>
+  </si>
+  <si>
+    <t>Abdul Samad</t>
+  </si>
+  <si>
+    <t>Dionesius Sostenist Duka</t>
+  </si>
+  <si>
+    <t>Eka Bagus Dwi Putra</t>
+  </si>
+  <si>
+    <t>Frando Judi Siahaan</t>
+  </si>
+  <si>
+    <t>Ilham Akbar</t>
+  </si>
+  <si>
+    <t>M. Fikri Caesarandi Hasibuan</t>
+  </si>
+  <si>
+    <t>Khamim Taryono</t>
+  </si>
+  <si>
+    <t>sulaeman</t>
+  </si>
+  <si>
+    <t>Agus Nuryadi</t>
+  </si>
+  <si>
+    <t>agus.nuryadi</t>
+  </si>
+  <si>
+    <t>Dian Tri Rahmawati</t>
+  </si>
+  <si>
+    <t>dian.tri</t>
+  </si>
+  <si>
+    <t>Denny Achmad Ferlando</t>
+  </si>
+  <si>
+    <t>Langgeng Eko Dwiantoro</t>
+  </si>
+  <si>
+    <t>langgeng.eko</t>
+  </si>
+  <si>
+    <t>Irvan Agus Dharma Eka Putra</t>
+  </si>
+  <si>
+    <t>Aldi Rizaldi</t>
+  </si>
+  <si>
+    <t>aldi.rizaldi</t>
   </si>
 </sst>
 </file>
@@ -4227,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F548"/>
+  <dimension ref="A1:F553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="F550" sqref="F550:F553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4246,7 +4294,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -5826,14 +5874,14 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>63</v>
+        <v>1274</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>555</v>
       </c>
       <c r="D107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dionesius S. Duka', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dionesius Sostenist Duka', null);</v>
       </c>
       <c r="F107" s="3">
         <v>25000000000106</v>
@@ -5931,7 +5979,7 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>741</v>
@@ -6081,14 +6129,14 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>1157</v>
+        <v>1275</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="D124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Bagus', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Bagus Dwi Putra', null);</v>
       </c>
       <c r="F124" s="3">
         <v>25000000000123</v>
@@ -6126,7 +6174,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1119</v>
@@ -6171,7 +6219,7 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>722</v>
@@ -6186,7 +6234,7 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>771</v>
@@ -6261,7 +6309,7 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1010</v>
@@ -6561,14 +6609,14 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>915</v>
+        <v>1278</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>916</v>
       </c>
       <c r="D156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fikri Caesarandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Fikri Caesarandi Hasibuan', null);</v>
       </c>
       <c r="F156" s="3">
         <v>25000000000155</v>
@@ -6621,14 +6669,14 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>1174</v>
+        <v>1276</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>851</v>
       </c>
       <c r="D160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Frando J. Siahan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Frando Judi Siahaan', null);</v>
       </c>
       <c r="F160" s="3">
         <v>25000000000159</v>
@@ -6696,7 +6744,7 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>557</v>
@@ -6786,7 +6834,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1008</v>
@@ -7146,7 +7194,7 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>663</v>
@@ -7176,7 +7224,7 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>902</v>
@@ -7266,7 +7314,7 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>753</v>
@@ -7296,14 +7344,14 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>113</v>
+        <v>1277</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>949</v>
       </c>
       <c r="D205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ilham', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ilham Akbar', null);</v>
       </c>
       <c r="F205" s="3">
         <v>25000000000204</v>
@@ -7446,14 +7494,14 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>1147</v>
+        <v>1288</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="D215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus Dharma', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus Dharma Eka Putra', null);</v>
       </c>
       <c r="F215" s="3">
         <v>25000000000214</v>
@@ -7686,7 +7734,7 @@
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>1036</v>
@@ -8031,7 +8079,7 @@
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>497</v>
@@ -8061,7 +8109,7 @@
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>1120</v>
@@ -8196,7 +8244,7 @@
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>869</v>
@@ -8211,7 +8259,7 @@
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>841</v>
@@ -8226,7 +8274,7 @@
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B267" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>1032</v>
@@ -8331,14 +8379,14 @@
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
-        <v>573</v>
+        <v>183</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>574</v>
       </c>
       <c r="D274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marbun Pantas Banjarmahon', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pantas Banjarnahor Marbun', null);</v>
       </c>
       <c r="F274" s="3">
         <v>25000000000273</v>
@@ -8406,14 +8454,14 @@
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="s">
-        <v>551</v>
+        <v>237</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marungkil Sagala', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'T. Marungkil U. S. Sagala', null);</v>
       </c>
       <c r="F279" s="3">
         <v>25000000000278</v>
@@ -8841,14 +8889,14 @@
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
-        <v>560</v>
+        <v>174</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>561</v>
       </c>
       <c r="D308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nandang', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nandang Effendi', null);</v>
       </c>
       <c r="F308" s="3">
         <v>25000000000307</v>
@@ -8871,7 +8919,7 @@
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>882</v>
@@ -9381,7 +9429,7 @@
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1096</v>
@@ -9861,7 +9909,7 @@
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1108</v>
@@ -9966,14 +10014,14 @@
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="s">
-        <v>652</v>
+        <v>1273</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>653</v>
       </c>
       <c r="D383" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Samad Abdul', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Samad', null);</v>
       </c>
       <c r="F383" s="3">
         <v>25000000000382</v>
@@ -10416,14 +10464,14 @@
     </row>
     <row r="413" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="s">
-        <v>639</v>
+        <v>225</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>640</v>
       </c>
       <c r="D413" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudarlan Sudarlan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudarlan', null);</v>
       </c>
       <c r="F413" s="3">
         <v>25000000000412</v>
@@ -10461,14 +10509,14 @@
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
-        <v>646</v>
+        <v>226</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D416" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sugiarto Sugiarto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sugiarto', null);</v>
       </c>
       <c r="F416" s="3">
         <v>25000000000415</v>
@@ -10656,7 +10704,7 @@
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1107</v>
@@ -10746,7 +10794,7 @@
     </row>
     <row r="435" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>554</v>
@@ -11121,7 +11169,7 @@
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B460" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>922</v>
@@ -11646,7 +11694,7 @@
     </row>
     <row r="495" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B495" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>811</v>
@@ -11706,7 +11754,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>513</v>
@@ -11769,10 +11817,10 @@
         <v>44491</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D503" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11784,10 +11832,10 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D504" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11799,10 +11847,10 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D505" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11814,10 +11862,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D506" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11829,10 +11877,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D507" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11844,14 +11892,14 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="s">
-        <v>1185</v>
+        <v>1279</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D508" s="1" t="str">
         <f>IF(EXACT(B508, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B508, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khamim', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khamim Taryono', null);</v>
       </c>
       <c r="F508" s="3">
         <v>25000000000507</v>
@@ -11859,10 +11907,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D509" s="1" t="str">
         <f>IF(EXACT(B509, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B509, "', null);"))</f>
@@ -11877,7 +11925,7 @@
         <v>204</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D510" s="1" t="str">
         <f>IF(EXACT(B510, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B510, "', null);"))</f>
@@ -11889,10 +11937,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D511" s="1" t="str">
         <f>IF(EXACT(B511, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B511, "', null);"))</f>
@@ -11904,10 +11952,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D512" s="1" t="str">
         <f>IF(EXACT(B512, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B512, "', null);"))</f>
@@ -11922,13 +11970,13 @@
         <v>45069</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D513" s="1" t="str">
-        <f t="shared" ref="D513:D548" si="8">IF(EXACT(B513, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B513, "', null);"))</f>
+        <f t="shared" ref="D513:D550" si="8">IF(EXACT(B513, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B513, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Budi Setiawan', null);</v>
       </c>
       <c r="F513" s="3">
@@ -11937,10 +11985,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B514" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D514" s="1" t="str">
         <f t="shared" si="8"/>
@@ -11952,10 +12000,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B515" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D515" s="1" t="str">
         <f t="shared" si="8"/>
@@ -11967,10 +12015,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D516" s="1" t="str">
         <f t="shared" si="8"/>
@@ -11982,10 +12030,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B517" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D517" s="1" t="str">
         <f t="shared" si="8"/>
@@ -11997,10 +12045,10 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B518" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D518" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12012,10 +12060,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B519" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D519" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12027,14 +12075,14 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
-        <v>1226</v>
+        <v>1285</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D520" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Denny Achmad', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Denny Achmad Ferlando', null);</v>
       </c>
       <c r="F520" s="3">
         <v>25000000000519</v>
@@ -12042,10 +12090,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B521" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D521" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12057,10 +12105,10 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B522" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D522" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12072,10 +12120,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D523" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12087,10 +12135,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D524" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12102,10 +12150,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B525" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D525" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12117,10 +12165,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B526" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D526" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12132,10 +12180,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B527" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D527" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12147,10 +12195,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D528" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12162,10 +12210,10 @@
     </row>
     <row r="529" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B529" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D529" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12177,10 +12225,10 @@
     </row>
     <row r="530" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B530" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D530" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12192,10 +12240,10 @@
     </row>
     <row r="531" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B531" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D531" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12207,10 +12255,10 @@
     </row>
     <row r="532" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D532" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12222,10 +12270,10 @@
     </row>
     <row r="533" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B533" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D533" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12237,10 +12285,10 @@
     </row>
     <row r="534" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B534" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D534" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12252,10 +12300,10 @@
     </row>
     <row r="535" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B535" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D535" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12267,10 +12315,10 @@
     </row>
     <row r="536" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D536" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12282,10 +12330,10 @@
     </row>
     <row r="537" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B537" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D537" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12297,10 +12345,10 @@
     </row>
     <row r="538" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B538" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D538" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12312,10 +12360,10 @@
     </row>
     <row r="539" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B539" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D539" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12327,10 +12375,10 @@
     </row>
     <row r="540" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D540" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12342,10 +12390,10 @@
     </row>
     <row r="541" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B541" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D541" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12357,10 +12405,10 @@
     </row>
     <row r="542" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B542" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D542" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12372,10 +12420,10 @@
     </row>
     <row r="543" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B543" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D543" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12387,13 +12435,13 @@
     </row>
     <row r="544" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D544" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D544:D551" si="9">IF(EXACT(B544, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B544, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wawan Kusworo', null);</v>
       </c>
       <c r="F544" s="3">
@@ -12402,13 +12450,13 @@
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B545" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D545" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wulanraniasih', null);</v>
       </c>
       <c r="F545" s="3">
@@ -12417,13 +12465,13 @@
     </row>
     <row r="546" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B546" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D546" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogi Perbangkara', null);</v>
       </c>
       <c r="F546" s="3">
@@ -12432,13 +12480,13 @@
     </row>
     <row r="547" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B547" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D547" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusuf Fathurahman', null);</v>
       </c>
       <c r="F547" s="3">
@@ -12447,17 +12495,92 @@
     </row>
     <row r="548" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B548" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D548" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zeinurani', null);</v>
       </c>
       <c r="F548" s="3">
         <v>25000000000547</v>
+      </c>
+    </row>
+    <row r="549" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B549" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D549" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sulaeman', null);</v>
+      </c>
+      <c r="F549" s="3">
+        <v>25000000000548</v>
+      </c>
+    </row>
+    <row r="550" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B550" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D550" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Nuryadi', null);</v>
+      </c>
+      <c r="F550" s="3">
+        <v>25000000000549</v>
+      </c>
+    </row>
+    <row r="551" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B551" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D551" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Tri Rahmawati', null);</v>
+      </c>
+      <c r="F551" s="3">
+        <v>25000000000550</v>
+      </c>
+    </row>
+    <row r="552" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B552" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D552" s="1" t="str">
+        <f t="shared" ref="D552:D553" si="10">IF(EXACT(B552, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B552, "', null);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Langgeng Eko Dwiantoro', null);</v>
+      </c>
+      <c r="F552" s="3">
+        <v>25000000000551</v>
+      </c>
+    </row>
+    <row r="553" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B553" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D553" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aldi Rizaldi', null);</v>
+      </c>
+      <c r="F553" s="3">
+        <v>25000000000552</v>
       </c>
     </row>
   </sheetData>
@@ -14913,8 +15036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B559"/>
   <sheetViews>
-    <sheetView topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A517" sqref="A517"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19029,74 +19152,74 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B514" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B515" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B516" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B517" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B518" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B519" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B520" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B521" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B522" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -19104,295 +19227,295 @@
         <v>204</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B524" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B525" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B526" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B527" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B528" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B529" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B530" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B531" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B532" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B533" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B534" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B535" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B536" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B537" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B538" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B539" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B540" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B541" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B542" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B543" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B544" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B545" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B546" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B547" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B548" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B549" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B550" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B551" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B552" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B553" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B554" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B555" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B556" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B557" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B558" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B559" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1298">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -3555,9 +3555,6 @@
     <t>Nasrul Anwar P.</t>
   </si>
   <si>
-    <t>T. Assubki Ismail</t>
-  </si>
-  <si>
     <t>SYS_PID</t>
   </si>
   <si>
@@ -3889,6 +3886,30 @@
   </si>
   <si>
     <t>aldi.rizaldi</t>
+  </si>
+  <si>
+    <t>Ahmad Syaifulloh</t>
+  </si>
+  <si>
+    <t>Achmad Yunadi</t>
+  </si>
+  <si>
+    <t>Restu Dwi Anjayani</t>
+  </si>
+  <si>
+    <t>Wartono</t>
+  </si>
+  <si>
+    <t>Santoso Dwi Cahyo</t>
+  </si>
+  <si>
+    <t>Yusarman</t>
+  </si>
+  <si>
+    <t>Jimmywal</t>
+  </si>
+  <si>
+    <t>Tajuddin Assubki Ismail</t>
   </si>
 </sst>
 </file>
@@ -4275,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:F557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="F550" sqref="F550:F553"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4294,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -4569,14 +4590,14 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>1290</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>632</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Syaifullah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Syaifulloh', null);</v>
       </c>
       <c r="F20" s="3">
         <v>25000000000019</v>
@@ -5874,7 +5895,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>555</v>
@@ -6024,14 +6045,14 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>642</v>
+        <v>68</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>643</v>
       </c>
       <c r="D117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eddy Waluyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Waluyo', null);</v>
       </c>
       <c r="F117" s="3">
         <v>25000000000116</v>
@@ -6129,7 +6150,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1126</v>
@@ -6609,7 +6630,7 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>916</v>
@@ -6669,7 +6690,7 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>851</v>
@@ -7344,7 +7365,7 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>949</v>
@@ -7494,7 +7515,7 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1148</v>
@@ -7764,14 +7785,14 @@
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
-        <v>124</v>
+        <v>1296</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>878</v>
       </c>
       <c r="D233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jimmy Wal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jimmywal', null);</v>
       </c>
       <c r="F233" s="3">
         <v>25000000000232</v>
@@ -9999,14 +10020,14 @@
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B382" s="1" t="s">
-        <v>917</v>
+        <v>210</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>918</v>
       </c>
       <c r="D382" s="1" t="str">
         <f t="shared" ref="D382:D444" si="6">IF(EXACT(B382, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B382, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sakinah Tantriani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sakinah Tantriani Lubis', null);</v>
       </c>
       <c r="F382" s="3">
         <v>25000000000381</v>
@@ -10014,7 +10035,7 @@
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>653</v>
@@ -10794,14 +10815,14 @@
     </row>
     <row r="435" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
-        <v>1179</v>
+        <v>1297</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>554</v>
       </c>
       <c r="D435" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'T. Assubki Ismail', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tajuddin Assubki Ismail', null);</v>
       </c>
       <c r="F435" s="3">
         <v>25000000000434</v>
@@ -11754,7 +11775,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>513</v>
@@ -11817,10 +11838,10 @@
         <v>44491</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D503" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11832,10 +11853,10 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D504" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11847,10 +11868,10 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D505" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11862,10 +11883,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D506" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11877,10 +11898,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D507" s="1" t="str">
         <f t="shared" si="7"/>
@@ -11892,10 +11913,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D508" s="1" t="str">
         <f>IF(EXACT(B508, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B508, "', null);"))</f>
@@ -11907,10 +11928,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D509" s="1" t="str">
         <f>IF(EXACT(B509, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B509, "', null);"))</f>
@@ -11925,7 +11946,7 @@
         <v>204</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D510" s="1" t="str">
         <f>IF(EXACT(B510, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B510, "', null);"))</f>
@@ -11937,10 +11958,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D511" s="1" t="str">
         <f>IF(EXACT(B511, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B511, "', null);"))</f>
@@ -11952,10 +11973,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D512" s="1" t="str">
         <f>IF(EXACT(B512, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B512, "', null);"))</f>
@@ -11970,13 +11991,13 @@
         <v>45069</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D513" s="1" t="str">
-        <f t="shared" ref="D513:D550" si="8">IF(EXACT(B513, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B513, "', null);"))</f>
+        <f t="shared" ref="D513:D543" si="8">IF(EXACT(B513, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B513, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Budi Setiawan', null);</v>
       </c>
       <c r="F513" s="3">
@@ -11985,10 +12006,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B514" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D514" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12000,14 +12021,14 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B515" s="1" t="s">
-        <v>1221</v>
+        <v>1291</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D515" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Yunadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Achmad Yunadi', null);</v>
       </c>
       <c r="F515" s="3">
         <v>25000000000514</v>
@@ -12015,10 +12036,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D516" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12030,10 +12051,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B517" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D517" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12045,10 +12066,10 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B518" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D518" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12060,10 +12081,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B519" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D519" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12075,10 +12096,10 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D520" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12090,10 +12111,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B521" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D521" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12105,10 +12126,10 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B522" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D522" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12120,10 +12141,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D523" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12135,10 +12156,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D524" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12150,10 +12171,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B525" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D525" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12165,10 +12186,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B526" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D526" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12180,10 +12201,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B527" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D527" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12195,10 +12216,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D528" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12210,10 +12231,10 @@
     </row>
     <row r="529" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B529" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D529" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12225,10 +12246,10 @@
     </row>
     <row r="530" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B530" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D530" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12240,10 +12261,10 @@
     </row>
     <row r="531" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B531" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D531" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12255,10 +12276,10 @@
     </row>
     <row r="532" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D532" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12270,10 +12291,10 @@
     </row>
     <row r="533" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B533" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D533" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12285,10 +12306,10 @@
     </row>
     <row r="534" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B534" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D534" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12300,10 +12321,10 @@
     </row>
     <row r="535" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B535" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D535" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12315,10 +12336,10 @@
     </row>
     <row r="536" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D536" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12330,14 +12351,14 @@
     </row>
     <row r="537" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B537" s="1" t="s">
-        <v>1209</v>
+        <v>1292</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D537" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Restu Dwi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Restu Dwi Anjayani', null);</v>
       </c>
       <c r="F537" s="3">
         <v>25000000000536</v>
@@ -12345,10 +12366,10 @@
     </row>
     <row r="538" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B538" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D538" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12360,10 +12381,10 @@
     </row>
     <row r="539" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B539" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D539" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12375,10 +12396,10 @@
     </row>
     <row r="540" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D540" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12390,10 +12411,10 @@
     </row>
     <row r="541" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B541" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D541" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12405,10 +12426,10 @@
     </row>
     <row r="542" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B542" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D542" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12420,10 +12441,10 @@
     </row>
     <row r="543" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B543" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D543" s="1" t="str">
         <f t="shared" si="8"/>
@@ -12435,10 +12456,10 @@
     </row>
     <row r="544" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D544" s="1" t="str">
         <f t="shared" ref="D544:D551" si="9">IF(EXACT(B544, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B544, "', null);"))</f>
@@ -12450,10 +12471,10 @@
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B545" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D545" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12465,10 +12486,10 @@
     </row>
     <row r="546" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B546" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D546" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12480,10 +12501,10 @@
     </row>
     <row r="547" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B547" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D547" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12495,10 +12516,10 @@
     </row>
     <row r="548" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B548" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D548" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12513,7 +12534,7 @@
         <v>470</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D549" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12525,10 +12546,10 @@
     </row>
     <row r="550" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B550" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C550" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>1282</v>
       </c>
       <c r="D550" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12540,10 +12561,10 @@
     </row>
     <row r="551" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B551" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>1284</v>
       </c>
       <c r="D551" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12555,13 +12576,13 @@
     </row>
     <row r="552" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B552" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="C552" s="1" t="s">
-        <v>1287</v>
-      </c>
       <c r="D552" s="1" t="str">
-        <f t="shared" ref="D552:D553" si="10">IF(EXACT(B552, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B552, "', null);"))</f>
+        <f t="shared" ref="D552:D557" si="10">IF(EXACT(B552, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B552, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Langgeng Eko Dwiantoro', null);</v>
       </c>
       <c r="F552" s="3">
@@ -12570,10 +12591,10 @@
     </row>
     <row r="553" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B553" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="D553" s="1" t="str">
         <f t="shared" si="10"/>
@@ -12583,7 +12604,58 @@
         <v>25000000000552</v>
       </c>
     </row>
+    <row r="554" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B554" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D554" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Masimin', null);</v>
+      </c>
+      <c r="F554" s="3">
+        <v>25000000000553</v>
+      </c>
+    </row>
+    <row r="555" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B555" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D555" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Santoso Dwi Cahyo', null);</v>
+      </c>
+      <c r="F555" s="3">
+        <v>25000000000554</v>
+      </c>
+    </row>
+    <row r="556" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B556" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D556" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wartono', null);</v>
+      </c>
+      <c r="F556" s="3">
+        <v>25000000000555</v>
+      </c>
+    </row>
+    <row r="557" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B557" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D557" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusarman', null);</v>
+      </c>
+      <c r="F557" s="3">
+        <v>25000000000556</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B554:B557">
+    <sortCondition ref="B554"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15037,7 +15109,7 @@
   <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19152,74 +19224,74 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B514" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B515" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B516" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B517" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B518" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B519" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B520" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B521" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B522" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -19227,295 +19299,295 @@
         <v>204</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B524" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B525" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B526" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B527" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B528" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B529" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B530" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B531" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B532" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B533" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B534" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B535" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B536" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B537" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B538" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B539" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B540" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B541" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B542" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B543" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B544" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B545" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B546" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B547" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B548" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B549" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B550" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B551" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B552" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B553" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B554" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B555" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B556" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B557" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B558" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B559" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MAIN" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Pindahan dari DB ERP Live" sheetId="2" r:id="rId3"/>
+    <sheet name="Source" sheetId="8" r:id="rId1"/>
+    <sheet name="MAIN" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Pindahan dari DB ERP Live" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="1355">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -3555,9 +3556,6 @@
     <t>Nasrul Anwar P.</t>
   </si>
   <si>
-    <t>SYS_PID</t>
-  </si>
-  <si>
     <t>Wisnu Andra Isdianto</t>
   </si>
   <si>
@@ -3910,18 +3908,200 @@
   </si>
   <si>
     <t>Tajuddin Assubki Ismail</t>
+  </si>
+  <si>
+    <t>yogo</t>
+  </si>
+  <si>
+    <t>suparji</t>
+  </si>
+  <si>
+    <t>zainal.abidin</t>
+  </si>
+  <si>
+    <t>Zainal Abidin</t>
+  </si>
+  <si>
+    <t>togar.sihombing</t>
+  </si>
+  <si>
+    <t>Togar Sihombing</t>
+  </si>
+  <si>
+    <t>khaidir</t>
+  </si>
+  <si>
+    <t>latip.muhlanto</t>
+  </si>
+  <si>
+    <t>Latip Muhlanto</t>
+  </si>
+  <si>
+    <t>budi.sulistianto</t>
+  </si>
+  <si>
+    <t>Budi Sulistianto</t>
+  </si>
+  <si>
+    <t>sudirman</t>
+  </si>
+  <si>
+    <t>Sudirman</t>
+  </si>
+  <si>
+    <t>haerul.gunawan</t>
+  </si>
+  <si>
+    <t>Haerul Gunawan</t>
+  </si>
+  <si>
+    <t>ahmad.gunawan</t>
+  </si>
+  <si>
+    <t>Ahmad Gunawan</t>
+  </si>
+  <si>
+    <t>taufik.iskandar</t>
+  </si>
+  <si>
+    <t>musdalipa</t>
+  </si>
+  <si>
+    <t>Musdalipa</t>
+  </si>
+  <si>
+    <t>leonardo.putra</t>
+  </si>
+  <si>
+    <t>andri.andriyan</t>
+  </si>
+  <si>
+    <t>Andri Andriyan</t>
+  </si>
+  <si>
+    <t>eka.budi</t>
+  </si>
+  <si>
+    <t>yustiana.firda</t>
+  </si>
+  <si>
+    <t>nico.melky</t>
+  </si>
+  <si>
+    <t>aden.bagus</t>
+  </si>
+  <si>
+    <t>abdul.rachman</t>
+  </si>
+  <si>
+    <t>adhe.kurniawan</t>
+  </si>
+  <si>
+    <t>Adhe Kurniawan</t>
+  </si>
+  <si>
+    <t>eka.kurniawan</t>
+  </si>
+  <si>
+    <t>satrio.dhiaputra</t>
+  </si>
+  <si>
+    <t>tegar.hersaputra</t>
+  </si>
+  <si>
+    <t>Tegar Hersaputra</t>
+  </si>
+  <si>
+    <t>joshika.pradirga</t>
+  </si>
+  <si>
+    <t>Joshika Pradirga</t>
+  </si>
+  <si>
+    <t>wisnu.trenggono</t>
+  </si>
+  <si>
+    <t>ahmad.fauzi</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
+  </si>
+  <si>
+    <t>muhammad.ramadani</t>
+  </si>
+  <si>
+    <t>Muhammad Ramadani</t>
+  </si>
+  <si>
+    <t>rahmata.novanisa</t>
+  </si>
+  <si>
+    <t>Rahmata Novanisa</t>
+  </si>
+  <si>
+    <t>Yogo</t>
+  </si>
+  <si>
+    <t>Suparji</t>
+  </si>
+  <si>
+    <t>Khaidir</t>
+  </si>
+  <si>
+    <t>Taufik Iskandar</t>
+  </si>
+  <si>
+    <t>Leonardo Putra</t>
+  </si>
+  <si>
+    <t>Eka Budi</t>
+  </si>
+  <si>
+    <t>Yustiana Firda</t>
+  </si>
+  <si>
+    <t>Nico Melky</t>
+  </si>
+  <si>
+    <t>Aden Bagus</t>
+  </si>
+  <si>
+    <t>Wisnu Trenggono</t>
+  </si>
+  <si>
+    <t>Abdul Rachman</t>
+  </si>
+  <si>
+    <t>Eka Kurniawan</t>
+  </si>
+  <si>
+    <t>Irvan Agus</t>
+  </si>
+  <si>
+    <t>Satrio Dhiaputra</t>
+  </si>
+  <si>
+    <t>Source : erpdb.master_login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3932,24 +4112,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3979,22 +4154,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4296,10 +4471,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H557"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="C533" sqref="C533"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H586"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4309,17 +4507,12 @@
     <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
-        <v>1179</v>
-      </c>
-    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -4328,10 +4521,10 @@
         <v>926</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF(EXACT(B2, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B2, "', null);"))</f>
+        <f t="shared" ref="D2:D66" si="0">IF(EXACT(B2, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B2, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdollah Syani Siregar', null);</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>25000000000001</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -4347,10 +4540,10 @@
         <v>900</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(EXACT(B3, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B3, "', null);"))</f>
+        <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Karim', null);</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>25000000000002</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -4369,7 +4562,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Rahman Sitompul', null);</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>25000000000003</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -4388,7 +4581,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Risan', null);</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>25000000000004</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -4407,7 +4600,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdullah Nabil', null);</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>25000000000005</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -4426,7 +4619,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adhitya Danar', null);</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>25000000000006</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -4445,7 +4638,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adi Ruswandi', null);</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>25000000000007</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -4464,7 +4657,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adietya Dharmawan', null);</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>25000000000008</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -4483,7 +4676,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aditya Yudha Prawira', null);</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>25000000000009</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -4502,7 +4695,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adli Margie', null);</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>25000000000010</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -4521,7 +4714,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Afrida Eka Putri', null);</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>25000000000011</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -4540,7 +4733,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agnes Sutedja', null);</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>25000000000012</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -4559,7 +4752,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agung Hendarto', null);</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>25000000000013</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -4578,7 +4771,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Priyatno Mahmudo', null);</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>25000000000014</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -4597,7 +4790,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Salim', null);</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>25000000000015</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -4616,7 +4809,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Tanto', null);</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>25000000000016</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -4635,7 +4828,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Faiz Haems Muda', null);</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>25000000000017</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -4654,7 +4847,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Faza', null);</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>25000000000018</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -4664,7 +4857,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>632</v>
@@ -4673,7 +4866,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Syaifulloh', null);</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>25000000000019</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -4692,7 +4885,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Zulkarnaen', null);</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>25000000000020</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -4711,7 +4904,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ajan', null);</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>25000000000021</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -4730,7 +4923,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Al Amin', null);</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>25000000000022</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -4749,7 +4942,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aldi Mulyadi', null);</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>25000000000023</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -4768,7 +4961,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Alexandri', null);</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>25000000000024</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -4787,7 +4980,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Alfaedi', null);</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>25000000000025</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -4806,7 +4999,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ali Wahono', null);</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>25000000000026</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -4825,7 +5018,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Alphaliyanri Lasria', null);</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>25000000000027</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -4844,7 +5037,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ambon Rumalean', null);</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>25000000000028</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -4863,7 +5056,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Amir Sofyan Hadi', null);</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>25000000000029</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -4882,7 +5075,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anak Agung Netti Ariani', null);</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>25000000000030</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -4901,7 +5094,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Gunawan', null);</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>25000000000031</v>
       </c>
       <c r="H32" s="1" t="str">
@@ -4920,7 +5113,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Herdiansyah', null);</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>25000000000032</v>
       </c>
       <c r="H33" s="1" t="str">
@@ -4939,7 +5132,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andrie', null);</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>25000000000033</v>
       </c>
       <c r="H34" s="1" t="str">
@@ -4958,7 +5151,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anggina Tri Yudandi', null);</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>25000000000034</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -4977,7 +5170,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anggit Ismiyanto', null);</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>25000000000035</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -4996,7 +5189,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anika Setyowati', null);</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>25000000000036</v>
       </c>
       <c r="H37" s="1" t="str">
@@ -5015,7 +5208,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anisah', null);</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>25000000000037</v>
       </c>
       <c r="H38" s="1" t="str">
@@ -5034,7 +5227,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anna Savitrie', null);</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>25000000000038</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -5053,7 +5246,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Annisa Dewi Arumsari', null);</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>25000000000039</v>
       </c>
       <c r="H40" s="1" t="str">
@@ -5072,7 +5265,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Annyes Sri Maristi', null);</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>25000000000040</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -5091,7 +5284,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Antok', null);</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>25000000000041</v>
       </c>
       <c r="H42" s="1" t="str">
@@ -5110,7 +5303,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anton Iryanto', null);</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>25000000000042</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -5129,7 +5322,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Antony Pakpahan', null);</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>25000000000043</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -5148,7 +5341,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anugerah Januariansyah', null);</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>25000000000044</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -5167,7 +5360,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anwar Purnomo', null);</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>25000000000045</v>
       </c>
       <c r="H46" s="1" t="str">
@@ -5186,7 +5379,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardhi Swasono', null);</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>25000000000046</v>
       </c>
       <c r="H47" s="1" t="str">
@@ -5205,7 +5398,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardi', null);</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>25000000000047</v>
       </c>
       <c r="H48" s="1" t="str">
@@ -5224,7 +5417,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardiansyah', null);</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>25000000000048</v>
       </c>
       <c r="H49" s="1" t="str">
@@ -5243,7 +5436,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardisam', null);</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>25000000000049</v>
       </c>
       <c r="H50" s="1" t="str">
@@ -5262,7 +5455,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardita', null);</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>25000000000050</v>
       </c>
       <c r="H51" s="1" t="str">
@@ -5281,7 +5474,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ares S. Mauboi', null);</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>25000000000051</v>
       </c>
       <c r="H52" s="1" t="str">
@@ -5300,7 +5493,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arfah Hanum', null);</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>25000000000052</v>
       </c>
       <c r="H53" s="1" t="str">
@@ -5319,7 +5512,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arfianti Haryani', null);</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>25000000000053</v>
       </c>
       <c r="H54" s="1" t="str">
@@ -5338,7 +5531,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ari Priwarsono', null);</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>25000000000054</v>
       </c>
       <c r="H55" s="1" t="str">
@@ -5357,7 +5550,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ari Yuniasmono', null);</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>25000000000055</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -5376,7 +5569,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arif Gunawan', null);</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>25000000000056</v>
       </c>
       <c r="H57" s="1" t="str">
@@ -5395,7 +5588,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arif Prasetyo', null);</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>25000000000057</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -5414,7 +5607,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arini', null);</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>25000000000058</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -5433,7 +5626,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ario Setyo Gunawan', null);</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>25000000000059</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -5452,7 +5645,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ario Yulianto Wibowo', null);</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>25000000000060</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -5471,7 +5664,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aris Widodo Pamungkas', null);</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>25000000000061</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -5490,7 +5683,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arjiyanto', null);</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>25000000000062</v>
       </c>
       <c r="H63" s="1" t="str">
@@ -5509,7 +5702,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arman', null);</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>25000000000063</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -5528,7 +5721,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aryoko Sudiro', null);</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>25000000000064</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -5547,7 +5740,7 @@
         <f t="shared" si="0"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Astamyugo', null);</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>25000000000065</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -5566,7 +5759,7 @@
         <f t="shared" ref="D67:D130" si="2">IF(EXACT(B67, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B67, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Atmo Sastro Dinoto', null);</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>25000000000066</v>
       </c>
       <c r="H67" s="1" t="str">
@@ -5585,7 +5778,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Awaludin', null);</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>25000000000067</v>
       </c>
       <c r="H68" s="1" t="str">
@@ -5604,7 +5797,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bachtiar', null);</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>25000000000068</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -5623,7 +5816,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bambang Irawan', null);</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>25000000000069</v>
       </c>
       <c r="H70" s="1" t="str">
@@ -5642,7 +5835,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bambang Prihatin', null);</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>25000000000070</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -5661,7 +5854,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bani Mustazeni', null);</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>25000000000071</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -5680,7 +5873,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bardai', null);</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>25000000000072</v>
       </c>
       <c r="H73" s="1" t="str">
@@ -5699,7 +5892,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Barika', null);</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>25000000000073</v>
       </c>
       <c r="H74" s="1" t="str">
@@ -5718,7 +5911,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bela Retmalantika', null);</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>25000000000074</v>
       </c>
       <c r="H75" s="1" t="str">
@@ -5737,7 +5930,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Belina Lindarwani', null);</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>25000000000075</v>
       </c>
       <c r="H76" s="1" t="str">
@@ -5756,7 +5949,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Benita Sofia', null);</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>25000000000076</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -5775,7 +5968,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bherly Novrandy', null);</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>25000000000077</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -5794,7 +5987,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Binsar', null);</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>25000000000078</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -5813,7 +6006,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bondhan Sosiarta', null);</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>25000000000079</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -5832,7 +6025,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Pranata Sinaga', null);</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>25000000000080</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -5851,7 +6044,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Satrio', null);</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>25000000000081</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -5870,7 +6063,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budianto', null);</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>25000000000082</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -5889,7 +6082,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budiman', null);</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>25000000000083</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -5908,7 +6101,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyaning Annisa', null);</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>25000000000084</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -5927,7 +6120,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyaningrum Widiastuti', null);</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>25000000000085</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -5946,7 +6139,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cecep Maulana', null);</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>25000000000086</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -5965,7 +6158,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Chairul Musaddat', null);</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <v>25000000000087</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -5984,7 +6177,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Christianto', null);</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>25000000000088</v>
       </c>
       <c r="H89" s="1" t="str">
@@ -6003,7 +6196,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dadan Hermawan', null);</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>25000000000089</v>
       </c>
       <c r="H90" s="1" t="str">
@@ -6022,7 +6215,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dadan Suhendar', null);</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>25000000000090</v>
       </c>
       <c r="H91" s="1" t="str">
@@ -6041,7 +6234,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dadi Anda Zuchradi', null);</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>25000000000091</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -6060,7 +6253,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Darsito', null);</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>25000000000092</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -6079,7 +6272,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'David Lumban Gaol', null);</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>25000000000093</v>
       </c>
       <c r="H94" s="1" t="str">
@@ -6098,7 +6291,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deddy Rochman', null);</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>25000000000094</v>
       </c>
       <c r="H95" s="1" t="str">
@@ -6117,7 +6310,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Kusnadi', null);</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>25000000000095</v>
       </c>
       <c r="H96" s="1" t="str">
@@ -6136,7 +6329,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Marciano Rizanur', null);</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>25000000000096</v>
       </c>
       <c r="H97" s="1" t="str">
@@ -6155,7 +6348,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Rianto', null);</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <v>25000000000097</v>
       </c>
       <c r="H98" s="1" t="str">
@@ -6174,7 +6367,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Syahputra', null);</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>25000000000098</v>
       </c>
       <c r="H99" s="1" t="str">
@@ -6193,7 +6386,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deni Setiawan', null);</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>25000000000099</v>
       </c>
       <c r="H100" s="1" t="str">
@@ -6212,7 +6405,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deny Adi Purnama', null);</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2">
         <v>25000000000100</v>
       </c>
       <c r="H101" s="1" t="str">
@@ -6231,7 +6424,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Desi Herawati', null);</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2">
         <v>25000000000101</v>
       </c>
       <c r="H102" s="1" t="str">
@@ -6250,7 +6443,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Desi Setiowati', null);</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2">
         <v>25000000000102</v>
       </c>
       <c r="H103" s="1" t="str">
@@ -6269,7 +6462,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Firdaus', null);</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <v>25000000000103</v>
       </c>
       <c r="H104" s="1" t="str">
@@ -6288,7 +6481,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Hariyana', null);</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <v>25000000000104</v>
       </c>
       <c r="H105" s="1" t="str">
@@ -6307,7 +6500,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dinnar Budiarti', null);</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>25000000000105</v>
       </c>
       <c r="H106" s="1" t="str">
@@ -6317,7 +6510,7 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>555</v>
@@ -6326,7 +6519,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dionesius Sostenist Duka', null);</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>25000000000106</v>
       </c>
       <c r="H107" s="1" t="str">
@@ -6345,7 +6538,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Diyah Martina', null);</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <v>25000000000107</v>
       </c>
       <c r="H108" s="1" t="str">
@@ -6364,7 +6557,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Djuang Tampubolon', null);</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <v>25000000000108</v>
       </c>
       <c r="H109" s="1" t="str">
@@ -6383,7 +6576,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dodit Widiarto', null);</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>25000000000109</v>
       </c>
       <c r="H110" s="1" t="str">
@@ -6402,7 +6595,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dony Darmawan', null);</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>25000000000110</v>
       </c>
       <c r="H111" s="1" t="str">
@@ -6421,7 +6614,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dony Setiawan', null);</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>25000000000111</v>
       </c>
       <c r="H112" s="1" t="str">
@@ -6440,7 +6633,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dudi Rustandi', null);</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>25000000000112</v>
       </c>
       <c r="H113" s="1" t="str">
@@ -6459,7 +6652,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dudung', null);</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>25000000000113</v>
       </c>
       <c r="H114" s="1" t="str">
@@ -6478,7 +6671,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dwi Joko', null);</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>25000000000114</v>
       </c>
       <c r="H115" s="1" t="str">
@@ -6497,7 +6690,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dwinanto Prabowo', null);</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>25000000000115</v>
       </c>
       <c r="H116" s="1" t="str">
@@ -6516,7 +6709,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Waluyo', null);</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>25000000000116</v>
       </c>
       <c r="H117" s="1" t="str">
@@ -6535,7 +6728,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Siswanto', null);</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>25000000000117</v>
       </c>
       <c r="H118" s="1" t="str">
@@ -6554,7 +6747,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Turnip', null);</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="2">
         <v>25000000000118</v>
       </c>
       <c r="H119" s="1" t="str">
@@ -6573,7 +6766,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edy Putra Waskita', null);</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="2">
         <v>25000000000119</v>
       </c>
       <c r="H120" s="1" t="str">
@@ -6592,7 +6785,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edy Situmeang', null);</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="2">
         <v>25000000000120</v>
       </c>
       <c r="H121" s="1" t="str">
@@ -6611,7 +6804,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Effendi fendi', null);</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="2">
         <v>25000000000121</v>
       </c>
       <c r="H122" s="1" t="str">
@@ -6630,7 +6823,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Efrina Dwililia', null);</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="2">
         <v>25000000000122</v>
       </c>
       <c r="H123" s="1" t="str">
@@ -6640,7 +6833,7 @@
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1126</v>
@@ -6649,7 +6842,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Bagus Dwi Putra', null);</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="2">
         <v>25000000000123</v>
       </c>
       <c r="H124" s="1" t="str">
@@ -6668,7 +6861,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Hamidah', null);</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="2">
         <v>25000000000124</v>
       </c>
       <c r="H125" s="1" t="str">
@@ -6687,7 +6880,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Purwanti', null);</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="2">
         <v>25000000000125</v>
       </c>
       <c r="H126" s="1" t="str">
@@ -6706,7 +6899,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eko Kurniawan', null);</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="2">
         <v>25000000000126</v>
       </c>
       <c r="H127" s="1" t="str">
@@ -6725,7 +6918,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eko Laksono', null);</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="2">
         <v>25000000000127</v>
       </c>
       <c r="H128" s="1" t="str">
@@ -6744,7 +6937,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eko Syambudi', null);</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="2">
         <v>25000000000128</v>
       </c>
       <c r="H129" s="1" t="str">
@@ -6763,7 +6956,7 @@
         <f t="shared" si="2"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elieser Ferdy P.', null);</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="2">
         <v>25000000000129</v>
       </c>
       <c r="H130" s="1" t="str">
@@ -6782,7 +6975,7 @@
         <f t="shared" ref="D131:D192" si="4">IF(EXACT(B131, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B131, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elisa', null);</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="2">
         <v>25000000000130</v>
       </c>
       <c r="H131" s="1" t="str">
@@ -6801,7 +6994,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elsa Jayanti', null);</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2">
         <v>25000000000131</v>
       </c>
       <c r="H132" s="1" t="str">
@@ -6820,7 +7013,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elsa Mardian', null);</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="2">
         <v>25000000000132</v>
       </c>
       <c r="H133" s="1" t="str">
@@ -6839,7 +7032,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Emir Paranita Nasution', null);</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="2">
         <v>25000000000133</v>
       </c>
       <c r="H134" s="1" t="str">
@@ -6858,7 +7051,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Enceng Hemawan', null);</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="2">
         <v>25000000000134</v>
       </c>
       <c r="H135" s="1" t="str">
@@ -6877,7 +7070,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang', null);</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="2">
         <v>25000000000135</v>
       </c>
       <c r="H136" s="1" t="str">
@@ -6896,7 +7089,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang Lestari', null);</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="2">
         <v>25000000000136</v>
       </c>
       <c r="H137" s="1" t="str">
@@ -6915,7 +7108,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang Sobari', null);</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="2">
         <v>25000000000137</v>
       </c>
       <c r="H138" s="1" t="str">
@@ -6934,7 +7127,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang Sutrisna', null);</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="2">
         <v>25000000000138</v>
       </c>
       <c r="H139" s="1" t="str">
@@ -6953,7 +7146,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Erfananda Rasyid', null);</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="2">
         <v>25000000000139</v>
       </c>
       <c r="H140" s="1" t="str">
@@ -6972,7 +7165,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ernawati', null);</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="2">
         <v>25000000000140</v>
       </c>
       <c r="H141" s="1" t="str">
@@ -6991,7 +7184,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Erwin Firmansyah', null);</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="2">
         <v>25000000000141</v>
       </c>
       <c r="H142" s="1" t="str">
@@ -7010,7 +7203,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Erwin Said', null);</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="2">
         <v>25000000000142</v>
       </c>
       <c r="H143" s="1" t="str">
@@ -7029,7 +7222,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Esa Annahar', null);</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="2">
         <v>25000000000143</v>
       </c>
       <c r="H144" s="1" t="str">
@@ -7048,7 +7241,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Faiz Horifal', null);</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="2">
         <v>25000000000144</v>
       </c>
       <c r="H145" s="1" t="str">
@@ -7067,7 +7260,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fani Dwi Astutik', null);</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="2">
         <v>25000000000145</v>
       </c>
       <c r="H146" s="1" t="str">
@@ -7086,7 +7279,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fardi Nauli R', null);</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="2">
         <v>25000000000146</v>
       </c>
       <c r="H147" s="1" t="str">
@@ -7105,7 +7298,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Farekh Huzair', null);</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="2">
         <v>25000000000147</v>
       </c>
       <c r="H148" s="1" t="str">
@@ -7124,7 +7317,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Farhana', null);</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="2">
         <v>25000000000148</v>
       </c>
       <c r="H149" s="1" t="str">
@@ -7143,7 +7336,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Febriyanto Ahdiat', null);</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="2">
         <v>25000000000149</v>
       </c>
       <c r="H150" s="1" t="str">
@@ -7162,7 +7355,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Febryan Mahsyar', null);</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="2">
         <v>25000000000150</v>
       </c>
       <c r="H151" s="1" t="str">
@@ -7181,7 +7374,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Felpy', null);</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="2">
         <v>25000000000151</v>
       </c>
       <c r="H152" s="1" t="str">
@@ -7200,7 +7393,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Feri Priyanto', null);</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="2">
         <v>25000000000152</v>
       </c>
       <c r="H153" s="1" t="str">
@@ -7219,7 +7412,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ferry P Simanjuntak', null);</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="2">
         <v>25000000000153</v>
       </c>
       <c r="H154" s="1" t="str">
@@ -7238,7 +7431,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fikri', null);</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="2">
         <v>25000000000154</v>
       </c>
       <c r="H155" s="1" t="str">
@@ -7248,7 +7441,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>916</v>
@@ -7257,7 +7450,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Fikri Caesarandi Hasibuan', null);</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="2">
         <v>25000000000155</v>
       </c>
       <c r="H156" s="1" t="str">
@@ -7276,7 +7469,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Firman Akbar', null);</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2">
         <v>25000000000156</v>
       </c>
       <c r="H157" s="1" t="str">
@@ -7295,7 +7488,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fitriastuti Kurnia', null);</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="2">
         <v>25000000000157</v>
       </c>
       <c r="H158" s="1" t="str">
@@ -7314,7 +7507,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Francis Imanuel', null);</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="2">
         <v>25000000000158</v>
       </c>
       <c r="H159" s="1" t="str">
@@ -7324,7 +7517,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>851</v>
@@ -7333,7 +7526,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Frando Judi Siahaan', null);</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="2">
         <v>25000000000159</v>
       </c>
       <c r="H160" s="1" t="str">
@@ -7352,7 +7545,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Frederika Intan', null);</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="2">
         <v>25000000000160</v>
       </c>
       <c r="H161" s="1" t="str">
@@ -7371,7 +7564,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuad Febrian', null);</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="2">
         <v>25000000000161</v>
       </c>
       <c r="H162" s="1" t="str">
@@ -7390,7 +7583,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuzi Mafhrozi', null);</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="2">
         <v>25000000000162</v>
       </c>
       <c r="H163" s="1" t="str">
@@ -7409,7 +7602,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Galuh Swastika', null);</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="2">
         <v>25000000000163</v>
       </c>
       <c r="H164" s="1" t="str">
@@ -7428,7 +7621,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ganda Yuharis R.', null);</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="2">
         <v>25000000000164</v>
       </c>
       <c r="H165" s="1" t="str">
@@ -7447,7 +7640,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gatot Harsono', null);</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="2">
         <v>25000000000165</v>
       </c>
       <c r="H166" s="1" t="str">
@@ -7466,7 +7659,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gina Septa', null);</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="2">
         <v>25000000000166</v>
       </c>
       <c r="H167" s="1" t="str">
@@ -7485,7 +7678,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Grace Kurniawan', null);</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="2">
         <v>25000000000167</v>
       </c>
       <c r="H168" s="1" t="str">
@@ -7504,7 +7697,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gunawan', null);</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2">
         <v>25000000000168</v>
       </c>
       <c r="H169" s="1" t="str">
@@ -7523,7 +7716,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gustia Rakhmanita', null);</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="2">
         <v>25000000000169</v>
       </c>
       <c r="H170" s="1" t="str">
@@ -7542,7 +7735,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Habib Abdullaj', null);</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="2">
         <v>25000000000170</v>
       </c>
       <c r="H171" s="1" t="str">
@@ -7561,7 +7754,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hadi Kasmuri', null);</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="2">
         <v>25000000000171</v>
       </c>
       <c r="H172" s="1" t="str">
@@ -7580,7 +7773,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Haikal', null);</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="2">
         <v>25000000000172</v>
       </c>
       <c r="H173" s="1" t="str">
@@ -7599,7 +7792,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hanantowiryo Tamtama', null);</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="2">
         <v>25000000000173</v>
       </c>
       <c r="H174" s="1" t="str">
@@ -7618,7 +7811,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Handoko', null);</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="2">
         <v>25000000000174</v>
       </c>
       <c r="H175" s="1" t="str">
@@ -7637,7 +7830,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hanif Ashari', null);</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="2">
         <v>25000000000175</v>
       </c>
       <c r="H176" s="1" t="str">
@@ -7656,7 +7849,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hanif Eko Saputro', null);</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2">
         <v>25000000000176</v>
       </c>
       <c r="H177" s="1" t="str">
@@ -7675,7 +7868,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hardianto', null);</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="2">
         <v>25000000000177</v>
       </c>
       <c r="H178" s="1" t="str">
@@ -7694,7 +7887,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Harlen Amudi Purba', null);</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="2">
         <v>25000000000178</v>
       </c>
       <c r="H179" s="1" t="str">
@@ -7713,7 +7906,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Harry Isnaeni', null);</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="2">
         <v>25000000000179</v>
       </c>
       <c r="H180" s="1" t="str">
@@ -7732,7 +7925,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hasan Gani', null);</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2">
         <v>25000000000180</v>
       </c>
       <c r="H181" s="1" t="str">
@@ -7751,7 +7944,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hasrul', null);</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="2">
         <v>25000000000181</v>
       </c>
       <c r="H182" s="1" t="str">
@@ -7770,7 +7963,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hendar Pambudi', null);</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="2">
         <v>25000000000182</v>
       </c>
       <c r="H183" s="1" t="str">
@@ -7789,7 +7982,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hendri Kustian', null);</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="2">
         <v>25000000000183</v>
       </c>
       <c r="H184" s="1" t="str">
@@ -7808,7 +8001,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hendrik', null);</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="2">
         <v>25000000000184</v>
       </c>
       <c r="H185" s="1" t="str">
@@ -7827,7 +8020,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herdi Yulia Rohmana', null);</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="2">
         <v>25000000000185</v>
       </c>
       <c r="H186" s="1" t="str">
@@ -7846,7 +8039,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heri Susanto', null);</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="2">
         <v>25000000000186</v>
       </c>
       <c r="H187" s="1" t="str">
@@ -7865,7 +8058,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herlin Juli Asri', null);</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="2">
         <v>25000000000187</v>
       </c>
       <c r="H188" s="1" t="str">
@@ -7884,7 +8077,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herman Budoyo', null);</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="2">
         <v>25000000000188</v>
       </c>
       <c r="H189" s="1" t="str">
@@ -7903,7 +8096,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herni Yuliati', null);</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="2">
         <v>25000000000189</v>
       </c>
       <c r="H190" s="1" t="str">
@@ -7922,7 +8115,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hernita Dwi', null);</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="2">
         <v>25000000000190</v>
       </c>
       <c r="H191" s="1" t="str">
@@ -7941,7 +8134,7 @@
         <f t="shared" si="4"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herri Setyawan', null);</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="2">
         <v>25000000000191</v>
       </c>
       <c r="H192" s="1" t="str">
@@ -7960,7 +8153,7 @@
         <f t="shared" ref="D193:D256" si="6">IF(EXACT(B193, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B193, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heru Sugiri', null);</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="2">
         <v>25000000000192</v>
       </c>
       <c r="H193" s="1" t="str">
@@ -7979,7 +8172,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hervian Bagus Saputra', null);</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="2">
         <v>25000000000193</v>
       </c>
       <c r="H194" s="1" t="str">
@@ -7998,7 +8191,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'H.R. Marlina S. T. R.', null);</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="2">
         <v>25000000000194</v>
       </c>
       <c r="H195" s="1" t="str">
@@ -8017,7 +8210,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ibrahim Soukani', null);</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="2">
         <v>25000000000195</v>
       </c>
       <c r="H196" s="1" t="str">
@@ -8036,7 +8229,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Icha Mailinda Syamsoedin', null);</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="2">
         <v>25000000000196</v>
       </c>
       <c r="H197" s="1" t="str">
@@ -8055,7 +8248,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ichsanudin', null);</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="2">
         <v>25000000000197</v>
       </c>
       <c r="H198" s="1" t="str">
@@ -8074,7 +8267,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ida Tri Wulaningsih', null);</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="2">
         <v>25000000000198</v>
       </c>
       <c r="H199" s="1" t="str">
@@ -8093,7 +8286,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idham', null);</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="2">
         <v>25000000000199</v>
       </c>
       <c r="H200" s="1" t="str">
@@ -8112,7 +8305,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idham Nasution', null);</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="2">
         <v>25000000000200</v>
       </c>
       <c r="H201" s="1" t="str">
@@ -8131,7 +8324,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idian', null);</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="2">
         <v>25000000000201</v>
       </c>
       <c r="H202" s="1" t="str">
@@ -8150,7 +8343,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ikun M. Soedrajat', null);</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="2">
         <v>25000000000202</v>
       </c>
       <c r="H203" s="1" t="str">
@@ -8169,7 +8362,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ilham Arisyandy', null);</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="2">
         <v>25000000000203</v>
       </c>
       <c r="H204" s="1" t="str">
@@ -8179,7 +8372,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>949</v>
@@ -8188,7 +8381,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ilham Akbar', null);</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="2">
         <v>25000000000204</v>
       </c>
       <c r="H205" s="1" t="str">
@@ -8207,7 +8400,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imam Basuki', null);</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="2">
         <v>25000000000205</v>
       </c>
       <c r="H206" s="1" t="str">
@@ -8226,7 +8419,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imam Mustofa', null);</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="2">
         <v>25000000000206</v>
       </c>
       <c r="H207" s="1" t="str">
@@ -8245,7 +8438,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imam Safiiy', null);</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F208" s="2">
         <v>25000000000207</v>
       </c>
       <c r="H208" s="1" t="str">
@@ -8264,7 +8457,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iman Hakiki', null);</v>
       </c>
-      <c r="F209" s="3">
+      <c r="F209" s="2">
         <v>25000000000208</v>
       </c>
       <c r="H209" s="1" t="str">
@@ -8283,7 +8476,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imelda Claudia', null);</v>
       </c>
-      <c r="F210" s="3">
+      <c r="F210" s="2">
         <v>25000000000209</v>
       </c>
       <c r="H210" s="1" t="str">
@@ -8302,7 +8495,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indawan Haryadi', null);</v>
       </c>
-      <c r="F211" s="3">
+      <c r="F211" s="2">
         <v>25000000000210</v>
       </c>
       <c r="H211" s="1" t="str">
@@ -8321,7 +8514,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Jaya', null);</v>
       </c>
-      <c r="F212" s="3">
+      <c r="F212" s="2">
         <v>25000000000211</v>
       </c>
       <c r="H212" s="1" t="str">
@@ -8340,7 +8533,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Muchtar', null);</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="2">
         <v>25000000000212</v>
       </c>
       <c r="H213" s="1" t="str">
@@ -8359,7 +8552,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan', null);</v>
       </c>
-      <c r="F214" s="3">
+      <c r="F214" s="2">
         <v>25000000000213</v>
       </c>
       <c r="H214" s="1" t="str">
@@ -8369,7 +8562,7 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1148</v>
@@ -8378,7 +8571,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus Dharma Eka Putra', null);</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="2">
         <v>25000000000214</v>
       </c>
       <c r="H215" s="1" t="str">
@@ -8397,7 +8590,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irwan', null);</v>
       </c>
-      <c r="F216" s="3">
+      <c r="F216" s="2">
         <v>25000000000215</v>
       </c>
       <c r="H216" s="1" t="str">
@@ -8416,7 +8609,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Isa Anshori', null);</v>
       </c>
-      <c r="F217" s="3">
+      <c r="F217" s="2">
         <v>25000000000216</v>
       </c>
       <c r="H217" s="1" t="str">
@@ -8435,7 +8628,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Isa Taufiq', null);</v>
       </c>
-      <c r="F218" s="3">
+      <c r="F218" s="2">
         <v>25000000000217</v>
       </c>
       <c r="H218" s="1" t="str">
@@ -8454,7 +8647,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iskandarsyah', null);</v>
       </c>
-      <c r="F219" s="3">
+      <c r="F219" s="2">
         <v>25000000000218</v>
       </c>
       <c r="H219" s="1" t="str">
@@ -8473,7 +8666,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Istanto Istanto', null);</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F220" s="2">
         <v>25000000000219</v>
       </c>
       <c r="H220" s="1" t="str">
@@ -8492,7 +8685,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iswahyuni', null);</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="2">
         <v>25000000000220</v>
       </c>
       <c r="H221" s="1" t="str">
@@ -8511,7 +8704,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iva Nurvahayati', null);</v>
       </c>
-      <c r="F222" s="3">
+      <c r="F222" s="2">
         <v>25000000000221</v>
       </c>
       <c r="H222" s="1" t="str">
@@ -8530,7 +8723,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iwan Setiawan', null);</v>
       </c>
-      <c r="F223" s="3">
+      <c r="F223" s="2">
         <v>25000000000222</v>
       </c>
       <c r="H223" s="1" t="str">
@@ -8549,7 +8742,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iwan Sumantri', null);</v>
       </c>
-      <c r="F224" s="3">
+      <c r="F224" s="2">
         <v>25000000000223</v>
       </c>
       <c r="H224" s="1" t="str">
@@ -8568,7 +8761,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iwan Wibawa', null);</v>
       </c>
-      <c r="F225" s="3">
+      <c r="F225" s="2">
         <v>25000000000224</v>
       </c>
       <c r="H225" s="1" t="str">
@@ -8587,7 +8780,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iyus Darwin', null);</v>
       </c>
-      <c r="F226" s="3">
+      <c r="F226" s="2">
         <v>25000000000225</v>
       </c>
       <c r="H226" s="1" t="str">
@@ -8606,7 +8799,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaenudin', null);</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="2">
         <v>25000000000226</v>
       </c>
       <c r="H227" s="1" t="str">
@@ -8625,7 +8818,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaruli Samosir', null);</v>
       </c>
-      <c r="F228" s="3">
+      <c r="F228" s="2">
         <v>25000000000227</v>
       </c>
       <c r="H228" s="1" t="str">
@@ -8644,7 +8837,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaya Ganef', null);</v>
       </c>
-      <c r="F229" s="3">
+      <c r="F229" s="2">
         <v>25000000000228</v>
       </c>
       <c r="H229" s="1" t="str">
@@ -8663,7 +8856,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaya Sitepu', null);</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F230" s="2">
         <v>25000000000229</v>
       </c>
       <c r="H230" s="1" t="str">
@@ -8682,7 +8875,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jeefrianda H. P. Sigalingging', null);</v>
       </c>
-      <c r="F231" s="3">
+      <c r="F231" s="2">
         <v>25000000000230</v>
       </c>
       <c r="H231" s="1" t="str">
@@ -8701,7 +8894,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jerry Djajasaputra', null);</v>
       </c>
-      <c r="F232" s="3">
+      <c r="F232" s="2">
         <v>25000000000231</v>
       </c>
       <c r="H232" s="1" t="str">
@@ -8711,7 +8904,7 @@
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>878</v>
@@ -8720,7 +8913,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jimmywal', null);</v>
       </c>
-      <c r="F233" s="3">
+      <c r="F233" s="2">
         <v>25000000000232</v>
       </c>
       <c r="H233" s="1" t="str">
@@ -8739,7 +8932,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jodie Satria', null);</v>
       </c>
-      <c r="F234" s="3">
+      <c r="F234" s="2">
         <v>25000000000233</v>
       </c>
       <c r="H234" s="1" t="str">
@@ -8758,7 +8951,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Johannes Silalahi', null);</v>
       </c>
-      <c r="F235" s="3">
+      <c r="F235" s="2">
         <v>25000000000234</v>
       </c>
       <c r="H235" s="1" t="str">
@@ -8777,7 +8970,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Joko Wiyono', null);</v>
       </c>
-      <c r="F236" s="3">
+      <c r="F236" s="2">
         <v>25000000000235</v>
       </c>
       <c r="H236" s="1" t="str">
@@ -8796,7 +8989,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jondril Hantoni', null);</v>
       </c>
-      <c r="F237" s="3">
+      <c r="F237" s="2">
         <v>25000000000236</v>
       </c>
       <c r="H237" s="1" t="str">
@@ -8815,7 +9008,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jonhar Aziz', null);</v>
       </c>
-      <c r="F238" s="3">
+      <c r="F238" s="2">
         <v>25000000000237</v>
       </c>
       <c r="H238" s="1" t="str">
@@ -8834,7 +9027,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Juan Talitha', null);</v>
       </c>
-      <c r="F239" s="3">
+      <c r="F239" s="2">
         <v>25000000000238</v>
       </c>
       <c r="H239" s="1" t="str">
@@ -8853,7 +9046,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Juharja Juharja', null);</v>
       </c>
-      <c r="F240" s="3">
+      <c r="F240" s="2">
         <v>25000000000239</v>
       </c>
       <c r="H240" s="1" t="str">
@@ -8872,7 +9065,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Juminar', null);</v>
       </c>
-      <c r="F241" s="3">
+      <c r="F241" s="2">
         <v>25000000000240</v>
       </c>
       <c r="H241" s="1" t="str">
@@ -8891,7 +9084,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jumino', null);</v>
       </c>
-      <c r="F242" s="3">
+      <c r="F242" s="2">
         <v>25000000000241</v>
       </c>
       <c r="H242" s="1" t="str">
@@ -8910,7 +9103,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Junaedi', null);</v>
       </c>
-      <c r="F243" s="3">
+      <c r="F243" s="2">
         <v>25000000000242</v>
       </c>
       <c r="H243" s="1" t="str">
@@ -8929,7 +9122,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Junaidi', null);</v>
       </c>
-      <c r="F244" s="3">
+      <c r="F244" s="2">
         <v>25000000000243</v>
       </c>
       <c r="H244" s="1" t="str">
@@ -8948,7 +9141,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jusuf Bobby Putra', null);</v>
       </c>
-      <c r="F245" s="3">
+      <c r="F245" s="2">
         <v>25000000000244</v>
       </c>
       <c r="H245" s="1" t="str">
@@ -8967,7 +9160,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jusuf Gandi', null);</v>
       </c>
-      <c r="F246" s="3">
+      <c r="F246" s="2">
         <v>25000000000245</v>
       </c>
       <c r="H246" s="1" t="str">
@@ -8986,7 +9179,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kahar Triyono', null);</v>
       </c>
-      <c r="F247" s="3">
+      <c r="F247" s="2">
         <v>25000000000246</v>
       </c>
       <c r="H247" s="1" t="str">
@@ -9005,7 +9198,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Keila', null);</v>
       </c>
-      <c r="F248" s="3">
+      <c r="F248" s="2">
         <v>25000000000247</v>
       </c>
       <c r="H248" s="1" t="str">
@@ -9024,7 +9217,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kendra Daniswara', null);</v>
       </c>
-      <c r="F249" s="3">
+      <c r="F249" s="2">
         <v>25000000000248</v>
       </c>
       <c r="H249" s="1" t="str">
@@ -9043,7 +9236,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kevin Henokh Tambunan', null);</v>
       </c>
-      <c r="F250" s="3">
+      <c r="F250" s="2">
         <v>25000000000249</v>
       </c>
       <c r="H250" s="1" t="str">
@@ -9062,7 +9255,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khafid Fahrurrozi', null);</v>
       </c>
-      <c r="F251" s="3">
+      <c r="F251" s="2">
         <v>25000000000250</v>
       </c>
       <c r="H251" s="1" t="str">
@@ -9081,7 +9274,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kholik', null);</v>
       </c>
-      <c r="F252" s="3">
+      <c r="F252" s="2">
         <v>25000000000251</v>
       </c>
       <c r="H252" s="1" t="str">
@@ -9100,7 +9293,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kiki Mustikawati', null);</v>
       </c>
-      <c r="F253" s="3">
+      <c r="F253" s="2">
         <v>25000000000252</v>
       </c>
       <c r="H253" s="1" t="str">
@@ -9119,7 +9312,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kornelius Sakan', null);</v>
       </c>
-      <c r="F254" s="3">
+      <c r="F254" s="2">
         <v>25000000000253</v>
       </c>
       <c r="H254" s="1" t="str">
@@ -9138,7 +9331,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kosasih', null);</v>
       </c>
-      <c r="F255" s="3">
+      <c r="F255" s="2">
         <v>25000000000254</v>
       </c>
       <c r="H255" s="1" t="str">
@@ -9157,7 +9350,7 @@
         <f t="shared" si="6"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Krisnawan', null);</v>
       </c>
-      <c r="F256" s="3">
+      <c r="F256" s="2">
         <v>25000000000255</v>
       </c>
       <c r="H256" s="1" t="str">
@@ -9176,7 +9369,7 @@
         <f t="shared" ref="D257:D318" si="8">IF(EXACT(B257, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B257, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kurniadi', null);</v>
       </c>
-      <c r="F257" s="3">
+      <c r="F257" s="2">
         <v>25000000000256</v>
       </c>
       <c r="H257" s="1" t="str">
@@ -9195,7 +9388,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kurniawan', null);</v>
       </c>
-      <c r="F258" s="3">
+      <c r="F258" s="2">
         <v>25000000000257</v>
       </c>
       <c r="H258" s="1" t="str">
@@ -9214,7 +9407,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Laode', null);</v>
       </c>
-      <c r="F259" s="3">
+      <c r="F259" s="2">
         <v>25000000000258</v>
       </c>
       <c r="H259" s="1" t="str">
@@ -9233,7 +9426,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Leo Nababan', null);</v>
       </c>
-      <c r="F260" s="3">
+      <c r="F260" s="2">
         <v>25000000000259</v>
       </c>
       <c r="H260" s="1" t="str">
@@ -9252,7 +9445,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Liani Atmaningrum', null);</v>
       </c>
-      <c r="F261" s="3">
+      <c r="F261" s="2">
         <v>25000000000260</v>
       </c>
       <c r="H261" s="1" t="str">
@@ -9271,7 +9464,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Liaseptriani Liaseptriani', null);</v>
       </c>
-      <c r="F262" s="3">
+      <c r="F262" s="2">
         <v>25000000000261</v>
       </c>
       <c r="H262" s="1" t="str">
@@ -9290,7 +9483,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lisma Natalia', null);</v>
       </c>
-      <c r="F263" s="3">
+      <c r="F263" s="2">
         <v>25000000000262</v>
       </c>
       <c r="H263" s="1" t="str">
@@ -9309,7 +9502,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Listyo Hartanto', null);</v>
       </c>
-      <c r="F264" s="3">
+      <c r="F264" s="2">
         <v>25000000000263</v>
       </c>
       <c r="H264" s="1" t="str">
@@ -9328,7 +9521,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Ari Ardizah Nasution', null);</v>
       </c>
-      <c r="F265" s="3">
+      <c r="F265" s="2">
         <v>25000000000264</v>
       </c>
       <c r="H265" s="1" t="str">
@@ -9347,7 +9540,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Denny  Micrazudin', null);</v>
       </c>
-      <c r="F266" s="3">
+      <c r="F266" s="2">
         <v>25000000000265</v>
       </c>
       <c r="H266" s="1" t="str">
@@ -9366,7 +9559,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Ridho Pramudia', null);</v>
       </c>
-      <c r="F267" s="3">
+      <c r="F267" s="2">
         <v>25000000000266</v>
       </c>
       <c r="H267" s="1" t="str">
@@ -9385,7 +9578,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Rusdi', null);</v>
       </c>
-      <c r="F268" s="3">
+      <c r="F268" s="2">
         <v>25000000000267</v>
       </c>
       <c r="H268" s="1" t="str">
@@ -9404,7 +9597,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Ervan Isyawal Akbar', null);</v>
       </c>
-      <c r="F269" s="3">
+      <c r="F269" s="2">
         <v>25000000000268</v>
       </c>
       <c r="H269" s="1" t="str">
@@ -9423,7 +9616,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Maharani Tanjungsari', null);</v>
       </c>
-      <c r="F270" s="3">
+      <c r="F270" s="2">
         <v>25000000000269</v>
       </c>
       <c r="H270" s="1" t="str">
@@ -9442,7 +9635,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Maharani Uthmaniah', null);</v>
       </c>
-      <c r="F271" s="3">
+      <c r="F271" s="2">
         <v>25000000000270</v>
       </c>
       <c r="H271" s="1" t="str">
@@ -9461,7 +9654,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Manotar Tamba', null);</v>
       </c>
-      <c r="F272" s="3">
+      <c r="F272" s="2">
         <v>25000000000271</v>
       </c>
       <c r="H272" s="1" t="str">
@@ -9480,7 +9673,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Maradona Manurung', null);</v>
       </c>
-      <c r="F273" s="3">
+      <c r="F273" s="2">
         <v>25000000000272</v>
       </c>
       <c r="H273" s="1" t="str">
@@ -9499,7 +9692,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pantas Banjarnahor Marbun', null);</v>
       </c>
-      <c r="F274" s="3">
+      <c r="F274" s="2">
         <v>25000000000273</v>
       </c>
       <c r="H274" s="1" t="str">
@@ -9518,7 +9711,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marcella Avia Ramadhinaningrum', null);</v>
       </c>
-      <c r="F275" s="3">
+      <c r="F275" s="2">
         <v>25000000000274</v>
       </c>
       <c r="H275" s="1" t="str">
@@ -9537,7 +9730,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marissa Watak', null);</v>
       </c>
-      <c r="F276" s="3">
+      <c r="F276" s="2">
         <v>25000000000275</v>
       </c>
       <c r="H276" s="1" t="str">
@@ -9556,7 +9749,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marten Tabun', null);</v>
       </c>
-      <c r="F277" s="3">
+      <c r="F277" s="2">
         <v>25000000000276</v>
       </c>
       <c r="H277" s="1" t="str">
@@ -9575,7 +9768,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Martimbul Rahman', null);</v>
       </c>
-      <c r="F278" s="3">
+      <c r="F278" s="2">
         <v>25000000000277</v>
       </c>
       <c r="H278" s="1" t="str">
@@ -9594,7 +9787,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'T. Marungkil U. S. Sagala', null);</v>
       </c>
-      <c r="F279" s="3">
+      <c r="F279" s="2">
         <v>25000000000278</v>
       </c>
       <c r="H279" s="1" t="str">
@@ -9613,7 +9806,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marzuki', null);</v>
       </c>
-      <c r="F280" s="3">
+      <c r="F280" s="2">
         <v>25000000000279</v>
       </c>
       <c r="H280" s="1" t="str">
@@ -9632,7 +9825,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mashuri Mashuri', null);</v>
       </c>
-      <c r="F281" s="3">
+      <c r="F281" s="2">
         <v>25000000000280</v>
       </c>
       <c r="H281" s="1" t="str">
@@ -9651,7 +9844,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mat Soleh', null);</v>
       </c>
-      <c r="F282" s="3">
+      <c r="F282" s="2">
         <v>25000000000281</v>
       </c>
       <c r="H282" s="1" t="str">
@@ -9670,7 +9863,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mhd Syahputra', null);</v>
       </c>
-      <c r="F283" s="3">
+      <c r="F283" s="2">
         <v>25000000000282</v>
       </c>
       <c r="H283" s="1" t="str">
@@ -9689,7 +9882,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mia Puspitasari', null);</v>
       </c>
-      <c r="F284" s="3">
+      <c r="F284" s="2">
         <v>25000000000283</v>
       </c>
       <c r="H284" s="1" t="str">
@@ -9708,7 +9901,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Midin Ena', null);</v>
       </c>
-      <c r="F285" s="3">
+      <c r="F285" s="2">
         <v>25000000000284</v>
       </c>
       <c r="H285" s="1" t="str">
@@ -9727,7 +9920,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Miftakhul Muzakky', null);</v>
       </c>
-      <c r="F286" s="3">
+      <c r="F286" s="2">
         <v>25000000000285</v>
       </c>
       <c r="H286" s="1" t="str">
@@ -9746,7 +9939,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mista', null);</v>
       </c>
-      <c r="F287" s="3">
+      <c r="F287" s="2">
         <v>25000000000286</v>
       </c>
       <c r="H287" s="1" t="str">
@@ -9765,7 +9958,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mochamad Samman', null);</v>
       </c>
-      <c r="F288" s="3">
+      <c r="F288" s="2">
         <v>25000000000287</v>
       </c>
       <c r="H288" s="1" t="str">
@@ -9784,7 +9977,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Moh. Afif', null);</v>
       </c>
-      <c r="F289" s="3">
+      <c r="F289" s="2">
         <v>25000000000288</v>
       </c>
       <c r="H289" s="1" t="str">
@@ -9803,7 +9996,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mohammad Arman Tompo', null);</v>
       </c>
-      <c r="F290" s="3">
+      <c r="F290" s="2">
         <v>25000000000289</v>
       </c>
       <c r="H290" s="1" t="str">
@@ -9822,7 +10015,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mohd. Elfan Pratama', null);</v>
       </c>
-      <c r="F291" s="3">
+      <c r="F291" s="2">
         <v>25000000000290</v>
       </c>
       <c r="H291" s="1" t="str">
@@ -9841,7 +10034,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Monang Simarmata', null);</v>
       </c>
-      <c r="F292" s="3">
+      <c r="F292" s="2">
         <v>25000000000291</v>
       </c>
       <c r="H292" s="1" t="str">
@@ -9860,7 +10053,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Moritz Thomsen Marbun', null);</v>
       </c>
-      <c r="F293" s="3">
+      <c r="F293" s="2">
         <v>25000000000292</v>
       </c>
       <c r="H293" s="1" t="str">
@@ -9879,7 +10072,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhamad Hamdan Rifai', null);</v>
       </c>
-      <c r="F294" s="3">
+      <c r="F294" s="2">
         <v>25000000000293</v>
       </c>
       <c r="H294" s="1" t="str">
@@ -9898,7 +10091,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhamad Ikhsan', null);</v>
       </c>
-      <c r="F295" s="3">
+      <c r="F295" s="2">
         <v>25000000000294</v>
       </c>
       <c r="H295" s="1" t="str">
@@ -9917,7 +10110,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhamad Nurhamsach', null);</v>
       </c>
-      <c r="F296" s="3">
+      <c r="F296" s="2">
         <v>25000000000295</v>
       </c>
       <c r="H296" s="1" t="str">
@@ -9936,7 +10129,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Ardiansyah', null);</v>
       </c>
-      <c r="F297" s="3">
+      <c r="F297" s="2">
         <v>25000000000296</v>
       </c>
       <c r="H297" s="1" t="str">
@@ -9955,7 +10148,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Khadafy', null);</v>
       </c>
-      <c r="F298" s="3">
+      <c r="F298" s="2">
         <v>25000000000297</v>
       </c>
       <c r="H298" s="1" t="str">
@@ -9974,7 +10167,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Taufan', null);</v>
       </c>
-      <c r="F299" s="3">
+      <c r="F299" s="2">
         <v>25000000000298</v>
       </c>
       <c r="H299" s="1" t="str">
@@ -9993,7 +10186,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muklis', null);</v>
       </c>
-      <c r="F300" s="3">
+      <c r="F300" s="2">
         <v>25000000000299</v>
       </c>
       <c r="H300" s="1" t="str">
@@ -10012,7 +10205,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mulia Rohanson Harahap', null);</v>
       </c>
-      <c r="F301" s="3">
+      <c r="F301" s="2">
         <v>25000000000300</v>
       </c>
       <c r="H301" s="1" t="str">
@@ -10031,7 +10224,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mullan Tresna', null);</v>
       </c>
-      <c r="F302" s="3">
+      <c r="F302" s="2">
         <v>25000000000301</v>
       </c>
       <c r="H302" s="1" t="str">
@@ -10050,7 +10243,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mulyadi', null);</v>
       </c>
-      <c r="F303" s="3">
+      <c r="F303" s="2">
         <v>25000000000302</v>
       </c>
       <c r="H303" s="1" t="str">
@@ -10069,7 +10262,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mulyono', null);</v>
       </c>
-      <c r="F304" s="3">
+      <c r="F304" s="2">
         <v>25000000000303</v>
       </c>
       <c r="H304" s="1" t="str">
@@ -10088,7 +10281,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Murdiansyah', null);</v>
       </c>
-      <c r="F305" s="3">
+      <c r="F305" s="2">
         <v>25000000000304</v>
       </c>
       <c r="H305" s="1" t="str">
@@ -10107,7 +10300,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mursalim', null);</v>
       </c>
-      <c r="F306" s="3">
+      <c r="F306" s="2">
         <v>25000000000305</v>
       </c>
       <c r="H306" s="1" t="str">
@@ -10126,7 +10319,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nancy Meriana Sinaga', null);</v>
       </c>
-      <c r="F307" s="3">
+      <c r="F307" s="2">
         <v>25000000000306</v>
       </c>
       <c r="H307" s="1" t="str">
@@ -10145,7 +10338,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nandang Effendi', null);</v>
       </c>
-      <c r="F308" s="3">
+      <c r="F308" s="2">
         <v>25000000000307</v>
       </c>
       <c r="H308" s="1" t="str">
@@ -10164,7 +10357,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Narno', null);</v>
       </c>
-      <c r="F309" s="3">
+      <c r="F309" s="2">
         <v>25000000000308</v>
       </c>
       <c r="H309" s="1" t="str">
@@ -10183,7 +10376,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nasrul Anwar P.', null);</v>
       </c>
-      <c r="F310" s="3">
+      <c r="F310" s="2">
         <v>25000000000309</v>
       </c>
       <c r="H310" s="1" t="str">
@@ -10202,7 +10395,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nawal', null);</v>
       </c>
-      <c r="F311" s="3">
+      <c r="F311" s="2">
         <v>25000000000310</v>
       </c>
       <c r="H311" s="1" t="str">
@@ -10221,7 +10414,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nawir Lahamutu', null);</v>
       </c>
-      <c r="F312" s="3">
+      <c r="F312" s="2">
         <v>25000000000311</v>
       </c>
       <c r="H312" s="1" t="str">
@@ -10240,7 +10433,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nicky Kurnia', null);</v>
       </c>
-      <c r="F313" s="3">
+      <c r="F313" s="2">
         <v>25000000000312</v>
       </c>
       <c r="H313" s="1" t="str">
@@ -10259,7 +10452,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Noercholis Firmansyah', null);</v>
       </c>
-      <c r="F314" s="3">
+      <c r="F314" s="2">
         <v>25000000000313</v>
       </c>
       <c r="H314" s="1" t="str">
@@ -10278,7 +10471,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nopitasari', null);</v>
       </c>
-      <c r="F315" s="3">
+      <c r="F315" s="2">
         <v>25000000000314</v>
       </c>
       <c r="H315" s="1" t="str">
@@ -10297,7 +10490,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nora Meilissa', null);</v>
       </c>
-      <c r="F316" s="3">
+      <c r="F316" s="2">
         <v>25000000000315</v>
       </c>
       <c r="H316" s="1" t="str">
@@ -10316,7 +10509,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novalia', null);</v>
       </c>
-      <c r="F317" s="3">
+      <c r="F317" s="2">
         <v>25000000000316</v>
       </c>
       <c r="H317" s="1" t="str">
@@ -10335,7 +10528,7 @@
         <f t="shared" si="8"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novan Nugraha', null);</v>
       </c>
-      <c r="F318" s="3">
+      <c r="F318" s="2">
         <v>25000000000317</v>
       </c>
       <c r="H318" s="1" t="str">
@@ -10354,7 +10547,7 @@
         <f t="shared" ref="D319:D381" si="10">IF(EXACT(B319, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B319, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nugraha', null);</v>
       </c>
-      <c r="F319" s="3">
+      <c r="F319" s="2">
         <v>25000000000318</v>
       </c>
       <c r="H319" s="1" t="str">
@@ -10373,7 +10566,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nugroho Putranto', null);</v>
       </c>
-      <c r="F320" s="3">
+      <c r="F320" s="2">
         <v>25000000000319</v>
       </c>
       <c r="H320" s="1" t="str">
@@ -10392,7 +10585,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nur Indra Sri Melati', null);</v>
       </c>
-      <c r="F321" s="3">
+      <c r="F321" s="2">
         <v>25000000000320</v>
       </c>
       <c r="H321" s="1" t="str">
@@ -10411,7 +10604,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nur Kusumowati', null);</v>
       </c>
-      <c r="F322" s="3">
+      <c r="F322" s="2">
         <v>25000000000321</v>
       </c>
       <c r="H322" s="1" t="str">
@@ -10430,7 +10623,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nurhidayat', null);</v>
       </c>
-      <c r="F323" s="3">
+      <c r="F323" s="2">
         <v>25000000000322</v>
       </c>
       <c r="H323" s="1" t="str">
@@ -10449,7 +10642,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Otong Bustori', null);</v>
       </c>
-      <c r="F324" s="3">
+      <c r="F324" s="2">
         <v>25000000000323</v>
       </c>
       <c r="H324" s="1" t="str">
@@ -10468,7 +10661,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Paino Suprayinto', null);</v>
       </c>
-      <c r="F325" s="3">
+      <c r="F325" s="2">
         <v>25000000000324</v>
       </c>
       <c r="H325" s="1" t="str">
@@ -10487,7 +10680,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Panca Yudi Baskoro', null);</v>
       </c>
-      <c r="F326" s="3">
+      <c r="F326" s="2">
         <v>25000000000325</v>
       </c>
       <c r="H326" s="1" t="str">
@@ -10506,7 +10699,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Panji Bima Santri', null);</v>
       </c>
-      <c r="F327" s="3">
+      <c r="F327" s="2">
         <v>25000000000326</v>
       </c>
       <c r="H327" s="1" t="str">
@@ -10525,7 +10718,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Parulian Napitupulu', null);</v>
       </c>
-      <c r="F328" s="3">
+      <c r="F328" s="2">
         <v>25000000000327</v>
       </c>
       <c r="H328" s="1" t="str">
@@ -10544,7 +10737,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Paryanto', null);</v>
       </c>
-      <c r="F329" s="3">
+      <c r="F329" s="2">
         <v>25000000000328</v>
       </c>
       <c r="H329" s="1" t="str">
@@ -10563,7 +10756,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pikri Hidayat', null);</v>
       </c>
-      <c r="F330" s="3">
+      <c r="F330" s="2">
         <v>25000000000329</v>
       </c>
       <c r="H330" s="1" t="str">
@@ -10582,7 +10775,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Prayanti Dewi Anggraini', null);</v>
       </c>
-      <c r="F331" s="3">
+      <c r="F331" s="2">
         <v>25000000000330</v>
       </c>
       <c r="H331" s="1" t="str">
@@ -10601,7 +10794,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Prayati Zai', null);</v>
       </c>
-      <c r="F332" s="3">
+      <c r="F332" s="2">
         <v>25000000000331</v>
       </c>
       <c r="H332" s="1" t="str">
@@ -10620,7 +10813,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pristu Andonoto', null);</v>
       </c>
-      <c r="F333" s="3">
+      <c r="F333" s="2">
         <v>25000000000332</v>
       </c>
       <c r="H333" s="1" t="str">
@@ -10639,7 +10832,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Putra Perdana Tirtomoyo', null);</v>
       </c>
-      <c r="F334" s="3">
+      <c r="F334" s="2">
         <v>25000000000333</v>
       </c>
       <c r="H334" s="1" t="str">
@@ -10658,7 +10851,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'R. Lar Kumalaning Tresno', null);</v>
       </c>
-      <c r="F335" s="3">
+      <c r="F335" s="2">
         <v>25000000000334</v>
       </c>
       <c r="H335" s="1" t="str">
@@ -10677,7 +10870,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rachmad', null);</v>
       </c>
-      <c r="F336" s="3">
+      <c r="F336" s="2">
         <v>25000000000335</v>
       </c>
       <c r="H336" s="1" t="str">
@@ -10696,7 +10889,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Radjiman', null);</v>
       </c>
-      <c r="F337" s="3">
+      <c r="F337" s="2">
         <v>25000000000336</v>
       </c>
       <c r="H337" s="1" t="str">
@@ -10715,7 +10908,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rafi Firman Saputra', null);</v>
       </c>
-      <c r="F338" s="3">
+      <c r="F338" s="2">
         <v>25000000000337</v>
       </c>
       <c r="H338" s="1" t="str">
@@ -10734,7 +10927,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmat Riyadi', null);</v>
       </c>
-      <c r="F339" s="3">
+      <c r="F339" s="2">
         <v>25000000000338</v>
       </c>
       <c r="H339" s="1" t="str">
@@ -10753,7 +10946,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmat Sirfano', null);</v>
       </c>
-      <c r="F340" s="3">
+      <c r="F340" s="2">
         <v>25000000000339</v>
       </c>
       <c r="H340" s="1" t="str">
@@ -10772,7 +10965,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rais Indra Noor', null);</v>
       </c>
-      <c r="F341" s="3">
+      <c r="F341" s="2">
         <v>25000000000340</v>
       </c>
       <c r="H341" s="1" t="str">
@@ -10791,7 +10984,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rakman A. Hadi', null);</v>
       </c>
-      <c r="F342" s="3">
+      <c r="F342" s="2">
         <v>25000000000341</v>
       </c>
       <c r="H342" s="1" t="str">
@@ -10810,7 +11003,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ramaizon', null);</v>
       </c>
-      <c r="F343" s="3">
+      <c r="F343" s="2">
         <v>25000000000342</v>
       </c>
       <c r="H343" s="1" t="str">
@@ -10829,7 +11022,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rangga Darmawan', null);</v>
       </c>
-      <c r="F344" s="3">
+      <c r="F344" s="2">
         <v>25000000000343</v>
       </c>
       <c r="H344" s="1" t="str">
@@ -10848,7 +11041,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Raoli Nainggolan', null);</v>
       </c>
-      <c r="F345" s="3">
+      <c r="F345" s="2">
         <v>25000000000344</v>
       </c>
       <c r="H345" s="1" t="str">
@@ -10867,7 +11060,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rayan Suryadikara', null);</v>
       </c>
-      <c r="F346" s="3">
+      <c r="F346" s="2">
         <v>25000000000345</v>
       </c>
       <c r="H346" s="1" t="str">
@@ -10886,7 +11079,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Redi Setiadi', null);</v>
       </c>
-      <c r="F347" s="3">
+      <c r="F347" s="2">
         <v>25000000000346</v>
       </c>
       <c r="H347" s="1" t="str">
@@ -10905,7 +11098,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Redi Subekti', null);</v>
       </c>
-      <c r="F348" s="3">
+      <c r="F348" s="2">
         <v>25000000000347</v>
       </c>
       <c r="H348" s="1" t="str">
@@ -10924,7 +11117,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rendy Prananta Purba', null);</v>
       </c>
-      <c r="F349" s="3">
+      <c r="F349" s="2">
         <v>25000000000348</v>
       </c>
       <c r="H349" s="1" t="str">
@@ -10943,7 +11136,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Reni Septiana', null);</v>
       </c>
-      <c r="F350" s="3">
+      <c r="F350" s="2">
         <v>25000000000349</v>
       </c>
       <c r="H350" s="1" t="str">
@@ -10962,7 +11155,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rere Ronggolawe', null);</v>
       </c>
-      <c r="F351" s="3">
+      <c r="F351" s="2">
         <v>25000000000350</v>
       </c>
       <c r="H351" s="1" t="str">
@@ -10981,7 +11174,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Retnasha Gameswari', null);</v>
       </c>
-      <c r="F352" s="3">
+      <c r="F352" s="2">
         <v>25000000000351</v>
       </c>
       <c r="H352" s="1" t="str">
@@ -11000,7 +11193,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rhino Priawan', null);</v>
       </c>
-      <c r="F353" s="3">
+      <c r="F353" s="2">
         <v>25000000000352</v>
       </c>
       <c r="H353" s="1" t="str">
@@ -11019,7 +11212,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rian Yushak', null);</v>
       </c>
-      <c r="F354" s="3">
+      <c r="F354" s="2">
         <v>25000000000353</v>
       </c>
       <c r="H354" s="1" t="str">
@@ -11038,7 +11231,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riandi', null);</v>
       </c>
-      <c r="F355" s="3">
+      <c r="F355" s="2">
         <v>25000000000354</v>
       </c>
       <c r="H355" s="1" t="str">
@@ -11057,7 +11250,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ricky Samuel', null);</v>
       </c>
-      <c r="F356" s="3">
+      <c r="F356" s="2">
         <v>25000000000355</v>
       </c>
       <c r="H356" s="1" t="str">
@@ -11076,7 +11269,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ridwan Nurhadi', null);</v>
       </c>
-      <c r="F357" s="3">
+      <c r="F357" s="2">
         <v>25000000000356</v>
       </c>
       <c r="H357" s="1" t="str">
@@ -11095,7 +11288,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rifki', null);</v>
       </c>
-      <c r="F358" s="3">
+      <c r="F358" s="2">
         <v>25000000000357</v>
       </c>
       <c r="H358" s="1" t="str">
@@ -11114,7 +11307,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rika Ginting', null);</v>
       </c>
-      <c r="F359" s="3">
+      <c r="F359" s="2">
         <v>25000000000358</v>
       </c>
       <c r="H359" s="1" t="str">
@@ -11133,7 +11326,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riki Chairul Anwar', null);</v>
       </c>
-      <c r="F360" s="3">
+      <c r="F360" s="2">
         <v>25000000000359</v>
       </c>
       <c r="H360" s="1" t="str">
@@ -11152,7 +11345,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riki Evindra', null);</v>
       </c>
-      <c r="F361" s="3">
+      <c r="F361" s="2">
         <v>25000000000360</v>
       </c>
       <c r="H361" s="1" t="str">
@@ -11171,7 +11364,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rinaldi Asrin', null);</v>
       </c>
-      <c r="F362" s="3">
+      <c r="F362" s="2">
         <v>25000000000361</v>
       </c>
       <c r="H362" s="1" t="str">
@@ -11190,7 +11383,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rio Hakim', null);</v>
       </c>
-      <c r="F363" s="3">
+      <c r="F363" s="2">
         <v>25000000000362</v>
       </c>
       <c r="H363" s="1" t="str">
@@ -11209,7 +11402,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rio Martha', null);</v>
       </c>
-      <c r="F364" s="3">
+      <c r="F364" s="2">
         <v>25000000000363</v>
       </c>
       <c r="H364" s="1" t="str">
@@ -11228,7 +11421,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Risdyanto Risdyanto', null);</v>
       </c>
-      <c r="F365" s="3">
+      <c r="F365" s="2">
         <v>25000000000364</v>
       </c>
       <c r="H365" s="1" t="str">
@@ -11247,7 +11440,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizak Tri Septian', null);</v>
       </c>
-      <c r="F366" s="3">
+      <c r="F366" s="2">
         <v>25000000000365</v>
       </c>
       <c r="H366" s="1" t="str">
@@ -11266,7 +11459,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizki Akbar', null);</v>
       </c>
-      <c r="F367" s="3">
+      <c r="F367" s="2">
         <v>25000000000366</v>
       </c>
       <c r="H367" s="1" t="str">
@@ -11285,7 +11478,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizky Fauzy', null);</v>
       </c>
-      <c r="F368" s="3">
+      <c r="F368" s="2">
         <v>25000000000367</v>
       </c>
       <c r="H368" s="1" t="str">
@@ -11304,7 +11497,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizky Reza Pradipta', null);</v>
       </c>
-      <c r="F369" s="3">
+      <c r="F369" s="2">
         <v>25000000000368</v>
       </c>
       <c r="H369" s="1" t="str">
@@ -11323,7 +11516,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rohendi Rohendi', null);</v>
       </c>
-      <c r="F370" s="3">
+      <c r="F370" s="2">
         <v>25000000000369</v>
       </c>
       <c r="H370" s="1" t="str">
@@ -11342,7 +11535,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rohmani', null);</v>
       </c>
-      <c r="F371" s="3">
+      <c r="F371" s="2">
         <v>25000000000370</v>
       </c>
       <c r="H371" s="1" t="str">
@@ -11361,7 +11554,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rommel Hutapea', null);</v>
       </c>
-      <c r="F372" s="3">
+      <c r="F372" s="2">
         <v>25000000000371</v>
       </c>
       <c r="H372" s="1" t="str">
@@ -11380,7 +11573,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Roy Aditya', null);</v>
       </c>
-      <c r="F373" s="3">
+      <c r="F373" s="2">
         <v>25000000000372</v>
       </c>
       <c r="H373" s="1" t="str">
@@ -11399,7 +11592,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rubah', null);</v>
       </c>
-      <c r="F374" s="3">
+      <c r="F374" s="2">
         <v>25000000000373</v>
       </c>
       <c r="H374" s="1" t="str">
@@ -11418,7 +11611,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rudi Junaedi', null);</v>
       </c>
-      <c r="F375" s="3">
+      <c r="F375" s="2">
         <v>25000000000374</v>
       </c>
       <c r="H375" s="1" t="str">
@@ -11437,7 +11630,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ruswandi', null);</v>
       </c>
-      <c r="F376" s="3">
+      <c r="F376" s="2">
         <v>25000000000375</v>
       </c>
       <c r="H376" s="1" t="str">
@@ -11456,7 +11649,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ryan Bagus Sasminta', null);</v>
       </c>
-      <c r="F377" s="3">
+      <c r="F377" s="2">
         <v>25000000000376</v>
       </c>
       <c r="H377" s="1" t="str">
@@ -11475,7 +11668,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saarah Andriani', null);</v>
       </c>
-      <c r="F378" s="3">
+      <c r="F378" s="2">
         <v>25000000000377</v>
       </c>
       <c r="H378" s="1" t="str">
@@ -11494,7 +11687,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Safira Nurbaiti', null);</v>
       </c>
-      <c r="F379" s="3">
+      <c r="F379" s="2">
         <v>25000000000378</v>
       </c>
       <c r="H379" s="1" t="str">
@@ -11513,7 +11706,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saifulloh', null);</v>
       </c>
-      <c r="F380" s="3">
+      <c r="F380" s="2">
         <v>25000000000379</v>
       </c>
       <c r="H380" s="1" t="str">
@@ -11532,7 +11725,7 @@
         <f t="shared" si="10"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saifuloh', null);</v>
       </c>
-      <c r="F381" s="3">
+      <c r="F381" s="2">
         <v>25000000000380</v>
       </c>
       <c r="H381" s="1" t="str">
@@ -11551,7 +11744,7 @@
         <f t="shared" ref="D382:D444" si="12">IF(EXACT(B382, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B382, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sakinah Tantriani Lubis', null);</v>
       </c>
-      <c r="F382" s="3">
+      <c r="F382" s="2">
         <v>25000000000381</v>
       </c>
       <c r="H382" s="1" t="str">
@@ -11561,7 +11754,7 @@
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B383" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>653</v>
@@ -11570,7 +11763,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Samad', null);</v>
       </c>
-      <c r="F383" s="3">
+      <c r="F383" s="2">
         <v>25000000000382</v>
       </c>
       <c r="H383" s="1" t="str">
@@ -11589,7 +11782,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Samsul Hadi', null);</v>
       </c>
-      <c r="F384" s="3">
+      <c r="F384" s="2">
         <v>25000000000383</v>
       </c>
       <c r="H384" s="1" t="str">
@@ -11608,7 +11801,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sandika', null);</v>
       </c>
-      <c r="F385" s="3">
+      <c r="F385" s="2">
         <v>25000000000384</v>
       </c>
       <c r="H385" s="1" t="str">
@@ -11627,7 +11820,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sang Toga Sitompul', null);</v>
       </c>
-      <c r="F386" s="3">
+      <c r="F386" s="2">
         <v>25000000000385</v>
       </c>
       <c r="H386" s="1" t="str">
@@ -11646,7 +11839,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Santi Dewi R. W.', null);</v>
       </c>
-      <c r="F387" s="3">
+      <c r="F387" s="2">
         <v>25000000000386</v>
       </c>
       <c r="H387" s="1" t="str">
@@ -11665,7 +11858,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sarah Sibarani', null);</v>
       </c>
-      <c r="F388" s="3">
+      <c r="F388" s="2">
         <v>25000000000387</v>
       </c>
       <c r="H388" s="1" t="str">
@@ -11684,7 +11877,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sarif Hidayatul Umah', null);</v>
       </c>
-      <c r="F389" s="3">
+      <c r="F389" s="2">
         <v>25000000000388</v>
       </c>
       <c r="H389" s="1" t="str">
@@ -11703,7 +11896,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Satria Budi Raharja', null);</v>
       </c>
-      <c r="F390" s="3">
+      <c r="F390" s="2">
         <v>25000000000389</v>
       </c>
       <c r="H390" s="1" t="str">
@@ -11722,7 +11915,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saut M. P. L. Tobing', null);</v>
       </c>
-      <c r="F391" s="3">
+      <c r="F391" s="2">
         <v>25000000000390</v>
       </c>
       <c r="H391" s="1" t="str">
@@ -11741,7 +11934,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Seftiyan Hadi Maulana', null);</v>
       </c>
-      <c r="F392" s="3">
+      <c r="F392" s="2">
         <v>25000000000391</v>
       </c>
       <c r="H392" s="1" t="str">
@@ -11760,7 +11953,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sena Andi Satria', null);</v>
       </c>
-      <c r="F393" s="3">
+      <c r="F393" s="2">
         <v>25000000000392</v>
       </c>
       <c r="H393" s="1" t="str">
@@ -11779,7 +11972,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Setiadi', null);</v>
       </c>
-      <c r="F394" s="3">
+      <c r="F394" s="2">
         <v>25000000000393</v>
       </c>
       <c r="H394" s="1" t="str">
@@ -11798,7 +11991,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sherly Tamira', null);</v>
       </c>
-      <c r="F395" s="3">
+      <c r="F395" s="2">
         <v>25000000000394</v>
       </c>
       <c r="H395" s="1" t="str">
@@ -11817,7 +12010,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Shihab', null);</v>
       </c>
-      <c r="F396" s="3">
+      <c r="F396" s="2">
         <v>25000000000395</v>
       </c>
       <c r="H396" s="1" t="str">
@@ -11836,7 +12029,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Shobarin Jabar', null);</v>
       </c>
-      <c r="F397" s="3">
+      <c r="F397" s="2">
         <v>25000000000396</v>
       </c>
       <c r="H397" s="1" t="str">
@@ -11855,7 +12048,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sholehah', null);</v>
       </c>
-      <c r="F398" s="3">
+      <c r="F398" s="2">
         <v>25000000000397</v>
       </c>
       <c r="H398" s="1" t="str">
@@ -11874,7 +12067,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sigit Rudiantono', null);</v>
       </c>
-      <c r="F399" s="3">
+      <c r="F399" s="2">
         <v>25000000000398</v>
       </c>
       <c r="H399" s="1" t="str">
@@ -11893,7 +12086,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Silvia Putri', null);</v>
       </c>
-      <c r="F400" s="3">
+      <c r="F400" s="2">
         <v>25000000000399</v>
       </c>
       <c r="H400" s="1" t="str">
@@ -11912,7 +12105,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Simron Ronaldi Nasution', null);</v>
       </c>
-      <c r="F401" s="3">
+      <c r="F401" s="2">
         <v>25000000000400</v>
       </c>
       <c r="H401" s="1" t="str">
@@ -11931,7 +12124,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sinta Vera Trikawati', null);</v>
       </c>
-      <c r="F402" s="3">
+      <c r="F402" s="2">
         <v>25000000000401</v>
       </c>
       <c r="H402" s="1" t="str">
@@ -11950,7 +12143,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sir Muhammad Zafrulloh Khan', null);</v>
       </c>
-      <c r="F403" s="3">
+      <c r="F403" s="2">
         <v>25000000000402</v>
       </c>
       <c r="H403" s="1" t="str">
@@ -11969,7 +12162,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Siska Marlina', null);</v>
       </c>
-      <c r="F404" s="3">
+      <c r="F404" s="2">
         <v>25000000000403</v>
       </c>
       <c r="H404" s="1" t="str">
@@ -11988,7 +12181,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Siswanto', null);</v>
       </c>
-      <c r="F405" s="3">
+      <c r="F405" s="2">
         <v>25000000000404</v>
       </c>
       <c r="H405" s="1" t="str">
@@ -12007,7 +12200,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Siti Mulyani', null);</v>
       </c>
-      <c r="F406" s="3">
+      <c r="F406" s="2">
         <v>25000000000405</v>
       </c>
       <c r="H406" s="1" t="str">
@@ -12026,7 +12219,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sjanti Devi', null);</v>
       </c>
-      <c r="F407" s="3">
+      <c r="F407" s="2">
         <v>25000000000406</v>
       </c>
       <c r="H407" s="1" t="str">
@@ -12045,7 +12238,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Slamet Budi Setiawan', null);</v>
       </c>
-      <c r="F408" s="3">
+      <c r="F408" s="2">
         <v>25000000000407</v>
       </c>
       <c r="H408" s="1" t="str">
@@ -12064,7 +12257,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sofyan Maulana', null);</v>
       </c>
-      <c r="F409" s="3">
+      <c r="F409" s="2">
         <v>25000000000408</v>
       </c>
       <c r="H409" s="1" t="str">
@@ -12083,7 +12276,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Subagio', null);</v>
       </c>
-      <c r="F410" s="3">
+      <c r="F410" s="2">
         <v>25000000000409</v>
       </c>
       <c r="H410" s="1" t="str">
@@ -12102,7 +12295,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suci Mardiana', null);</v>
       </c>
-      <c r="F411" s="3">
+      <c r="F411" s="2">
         <v>25000000000410</v>
       </c>
       <c r="H411" s="1" t="str">
@@ -12121,7 +12314,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suci Rachma Sari', null);</v>
       </c>
-      <c r="F412" s="3">
+      <c r="F412" s="2">
         <v>25000000000411</v>
       </c>
       <c r="H412" s="1" t="str">
@@ -12140,7 +12333,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudarlan', null);</v>
       </c>
-      <c r="F413" s="3">
+      <c r="F413" s="2">
         <v>25000000000412</v>
       </c>
       <c r="H413" s="1" t="str">
@@ -12159,7 +12352,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sufie Amalia', null);</v>
       </c>
-      <c r="F414" s="3">
+      <c r="F414" s="2">
         <v>25000000000413</v>
       </c>
       <c r="H414" s="1" t="str">
@@ -12178,7 +12371,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sugeng Ismanto', null);</v>
       </c>
-      <c r="F415" s="3">
+      <c r="F415" s="2">
         <v>25000000000414</v>
       </c>
       <c r="H415" s="1" t="str">
@@ -12197,7 +12390,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sugiarto', null);</v>
       </c>
-      <c r="F416" s="3">
+      <c r="F416" s="2">
         <v>25000000000415</v>
       </c>
       <c r="H416" s="1" t="str">
@@ -12216,7 +12409,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sulih', null);</v>
       </c>
-      <c r="F417" s="3">
+      <c r="F417" s="2">
         <v>25000000000416</v>
       </c>
       <c r="H417" s="1" t="str">
@@ -12235,7 +12428,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sumadi', null);</v>
       </c>
-      <c r="F418" s="3">
+      <c r="F418" s="2">
         <v>25000000000417</v>
       </c>
       <c r="H418" s="1" t="str">
@@ -12254,7 +12447,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sumirat', null);</v>
       </c>
-      <c r="F419" s="3">
+      <c r="F419" s="2">
         <v>25000000000418</v>
       </c>
       <c r="H419" s="1" t="str">
@@ -12273,7 +12466,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sunaryati', null);</v>
       </c>
-      <c r="F420" s="3">
+      <c r="F420" s="2">
         <v>25000000000419</v>
       </c>
       <c r="H420" s="1" t="str">
@@ -12292,7 +12485,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Supriyadi', null);</v>
       </c>
-      <c r="F421" s="3">
+      <c r="F421" s="2">
         <v>25000000000420</v>
       </c>
       <c r="H421" s="1" t="str">
@@ -12311,7 +12504,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suriono Suriono', null);</v>
       </c>
-      <c r="F422" s="3">
+      <c r="F422" s="2">
         <v>25000000000421</v>
       </c>
       <c r="H422" s="1" t="str">
@@ -12330,7 +12523,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Surono', null);</v>
       </c>
-      <c r="F423" s="3">
+      <c r="F423" s="2">
         <v>25000000000422</v>
       </c>
       <c r="H423" s="1" t="str">
@@ -12349,7 +12542,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Surtoyo Syukri', null);</v>
       </c>
-      <c r="F424" s="3">
+      <c r="F424" s="2">
         <v>25000000000423</v>
       </c>
       <c r="H424" s="1" t="str">
@@ -12368,7 +12561,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suryadi', null);</v>
       </c>
-      <c r="F425" s="3">
+      <c r="F425" s="2">
         <v>25000000000424</v>
       </c>
       <c r="H425" s="1" t="str">
@@ -12387,7 +12580,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Susilawati', null);</v>
       </c>
-      <c r="F426" s="3">
+      <c r="F426" s="2">
         <v>25000000000425</v>
       </c>
       <c r="H426" s="1" t="str">
@@ -12406,7 +12599,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sutarno', null);</v>
       </c>
-      <c r="F427" s="3">
+      <c r="F427" s="2">
         <v>25000000000426</v>
       </c>
       <c r="H427" s="1" t="str">
@@ -12425,7 +12618,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sutra Riandi', null);</v>
       </c>
-      <c r="F428" s="3">
+      <c r="F428" s="2">
         <v>25000000000427</v>
       </c>
       <c r="H428" s="1" t="str">
@@ -12444,7 +12637,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suyanto', null);</v>
       </c>
-      <c r="F429" s="3">
+      <c r="F429" s="2">
         <v>25000000000428</v>
       </c>
       <c r="H429" s="1" t="str">
@@ -12463,7 +12656,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Swar Jono', null);</v>
       </c>
-      <c r="F430" s="3">
+      <c r="F430" s="2">
         <v>25000000000429</v>
       </c>
       <c r="H430" s="1" t="str">
@@ -12482,7 +12675,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syafruddin', null);</v>
       </c>
-      <c r="F431" s="3">
+      <c r="F431" s="2">
         <v>25000000000430</v>
       </c>
       <c r="H431" s="1" t="str">
@@ -12501,7 +12694,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syafrudin Machmud', null);</v>
       </c>
-      <c r="F432" s="3">
+      <c r="F432" s="2">
         <v>25000000000431</v>
       </c>
       <c r="H432" s="1" t="str">
@@ -12520,7 +12713,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syahrizal', null);</v>
       </c>
-      <c r="F433" s="3">
+      <c r="F433" s="2">
         <v>25000000000432</v>
       </c>
       <c r="H433" s="1" t="str">
@@ -12539,7 +12732,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syaiful Idjam', null);</v>
       </c>
-      <c r="F434" s="3">
+      <c r="F434" s="2">
         <v>25000000000433</v>
       </c>
       <c r="H434" s="1" t="str">
@@ -12549,7 +12742,7 @@
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>554</v>
@@ -12558,7 +12751,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tajuddin Assubki Ismail', null);</v>
       </c>
-      <c r="F435" s="3">
+      <c r="F435" s="2">
         <v>25000000000434</v>
       </c>
       <c r="H435" s="1" t="str">
@@ -12577,7 +12770,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taslim', null);</v>
       </c>
-      <c r="F436" s="3">
+      <c r="F436" s="2">
         <v>25000000000435</v>
       </c>
       <c r="H436" s="1" t="str">
@@ -12596,7 +12789,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taufik Mulia Pane', null);</v>
       </c>
-      <c r="F437" s="3">
+      <c r="F437" s="2">
         <v>25000000000436</v>
       </c>
       <c r="H437" s="1" t="str">
@@ -12615,7 +12808,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tedy Harseno', null);</v>
       </c>
-      <c r="F438" s="3">
+      <c r="F438" s="2">
         <v>25000000000437</v>
       </c>
       <c r="H438" s="1" t="str">
@@ -12634,7 +12827,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teguh Joko Pamuji', null);</v>
       </c>
-      <c r="F439" s="3">
+      <c r="F439" s="2">
         <v>25000000000438</v>
       </c>
       <c r="H439" s="1" t="str">
@@ -12653,7 +12846,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teguh Pratama Januzir Sukin', null);</v>
       </c>
-      <c r="F440" s="3">
+      <c r="F440" s="2">
         <v>25000000000439</v>
       </c>
       <c r="H440" s="1" t="str">
@@ -12672,7 +12865,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teguh Susanto', null);</v>
       </c>
-      <c r="F441" s="3">
+      <c r="F441" s="2">
         <v>25000000000440</v>
       </c>
       <c r="H441" s="1" t="str">
@@ -12691,7 +12884,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tenri Sumange', null);</v>
       </c>
-      <c r="F442" s="3">
+      <c r="F442" s="2">
         <v>25000000000441</v>
       </c>
       <c r="H442" s="1" t="str">
@@ -12710,7 +12903,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teuku Zulkifli', null);</v>
       </c>
-      <c r="F443" s="3">
+      <c r="F443" s="2">
         <v>25000000000442</v>
       </c>
       <c r="H443" s="1" t="str">
@@ -12729,7 +12922,7 @@
         <f t="shared" si="12"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tiara Kemalasari', null);</v>
       </c>
-      <c r="F444" s="3">
+      <c r="F444" s="2">
         <v>25000000000443</v>
       </c>
       <c r="H444" s="1" t="str">
@@ -12748,7 +12941,7 @@
         <f t="shared" ref="D445:D507" si="14">IF(EXACT(B445, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B445, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tjhang Linawati', null);</v>
       </c>
-      <c r="F445" s="3">
+      <c r="F445" s="2">
         <v>25000000000444</v>
       </c>
       <c r="H445" s="1" t="str">
@@ -12767,7 +12960,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Totok Kristianto', null);</v>
       </c>
-      <c r="F446" s="3">
+      <c r="F446" s="2">
         <v>25000000000445</v>
       </c>
       <c r="H446" s="1" t="str">
@@ -12786,7 +12979,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tri Aji', null);</v>
       </c>
-      <c r="F447" s="3">
+      <c r="F447" s="2">
         <v>25000000000446</v>
       </c>
       <c r="H447" s="1" t="str">
@@ -12805,7 +12998,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tri M. Saputra', null);</v>
       </c>
-      <c r="F448" s="3">
+      <c r="F448" s="2">
         <v>25000000000447</v>
       </c>
       <c r="H448" s="1" t="str">
@@ -12824,7 +13017,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Triani Irma', null);</v>
       </c>
-      <c r="F449" s="3">
+      <c r="F449" s="2">
         <v>25000000000448</v>
       </c>
       <c r="H449" s="1" t="str">
@@ -12843,7 +13036,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Trisyanto', null);</v>
       </c>
-      <c r="F450" s="3">
+      <c r="F450" s="2">
         <v>25000000000449</v>
       </c>
       <c r="H450" s="1" t="str">
@@ -12862,7 +13055,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Triwiarti Dibya', null);</v>
       </c>
-      <c r="F451" s="3">
+      <c r="F451" s="2">
         <v>25000000000450</v>
       </c>
       <c r="H451" s="1" t="str">
@@ -12881,7 +13074,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Triyono', null);</v>
       </c>
-      <c r="F452" s="3">
+      <c r="F452" s="2">
         <v>25000000000451</v>
       </c>
       <c r="H452" s="1" t="str">
@@ -12900,7 +13093,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Turita Pramuning Marantina', null);</v>
       </c>
-      <c r="F453" s="3">
+      <c r="F453" s="2">
         <v>25000000000452</v>
       </c>
       <c r="H453" s="1" t="str">
@@ -12919,7 +13112,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tutus Ary', null);</v>
       </c>
-      <c r="F454" s="3">
+      <c r="F454" s="2">
         <v>25000000000453</v>
       </c>
       <c r="H454" s="1" t="str">
@@ -12938,7 +13131,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ubaidillah', null);</v>
       </c>
-      <c r="F455" s="3">
+      <c r="F455" s="2">
         <v>25000000000454</v>
       </c>
       <c r="H455" s="1" t="str">
@@ -12957,7 +13150,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ujang Barma', null);</v>
       </c>
-      <c r="F456" s="3">
+      <c r="F456" s="2">
         <v>25000000000455</v>
       </c>
       <c r="H456" s="1" t="str">
@@ -12976,7 +13169,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ujang Suryana', null);</v>
       </c>
-      <c r="F457" s="3">
+      <c r="F457" s="2">
         <v>25000000000456</v>
       </c>
       <c r="H457" s="1" t="str">
@@ -12995,7 +13188,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ulman Juanda', null);</v>
       </c>
-      <c r="F458" s="3">
+      <c r="F458" s="2">
         <v>25000000000457</v>
       </c>
       <c r="H458" s="1" t="str">
@@ -13014,7 +13207,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Urbanus', null);</v>
       </c>
-      <c r="F459" s="3">
+      <c r="F459" s="2">
         <v>25000000000458</v>
       </c>
       <c r="H459" s="1" t="str">
@@ -13033,7 +13226,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Uswatun Hasamah', null);</v>
       </c>
-      <c r="F460" s="3">
+      <c r="F460" s="2">
         <v>25000000000459</v>
       </c>
       <c r="H460" s="1" t="str">
@@ -13052,7 +13245,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Uswatun Khasanah', null);</v>
       </c>
-      <c r="F461" s="3">
+      <c r="F461" s="2">
         <v>25000000000460</v>
       </c>
       <c r="H461" s="1" t="str">
@@ -13071,7 +13264,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Utami Dewi', null);</v>
       </c>
-      <c r="F462" s="3">
+      <c r="F462" s="2">
         <v>25000000000461</v>
       </c>
       <c r="H462" s="1" t="str">
@@ -13090,7 +13283,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Utanto', null);</v>
       </c>
-      <c r="F463" s="3">
+      <c r="F463" s="2">
         <v>25000000000462</v>
       </c>
       <c r="H463" s="1" t="str">
@@ -13109,7 +13302,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Veradita Yulanda', null);</v>
       </c>
-      <c r="F464" s="3">
+      <c r="F464" s="2">
         <v>25000000000463</v>
       </c>
       <c r="H464" s="1" t="str">
@@ -13128,7 +13321,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vidhy Kartika Putri', null);</v>
       </c>
-      <c r="F465" s="3">
+      <c r="F465" s="2">
         <v>25000000000464</v>
       </c>
       <c r="H465" s="1" t="str">
@@ -13147,7 +13340,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vonny Agram', null);</v>
       </c>
-      <c r="F466" s="3">
+      <c r="F466" s="2">
         <v>25000000000465</v>
       </c>
       <c r="H466" s="1" t="str">
@@ -13166,7 +13359,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu', null);</v>
       </c>
-      <c r="F467" s="3">
+      <c r="F467" s="2">
         <v>25000000000466</v>
       </c>
       <c r="H467" s="1" t="str">
@@ -13185,7 +13378,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Ramadhani', null);</v>
       </c>
-      <c r="F468" s="3">
+      <c r="F468" s="2">
         <v>25000000000467</v>
       </c>
       <c r="H468" s="1" t="str">
@@ -13204,7 +13397,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Widodo', null);</v>
       </c>
-      <c r="F469" s="3">
+      <c r="F469" s="2">
         <v>25000000000468</v>
       </c>
       <c r="H469" s="1" t="str">
@@ -13223,7 +13416,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Warsito Edy Saputra', null);</v>
       </c>
-      <c r="F470" s="3">
+      <c r="F470" s="2">
         <v>25000000000469</v>
       </c>
       <c r="H470" s="1" t="str">
@@ -13242,7 +13435,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Weldi Wimar', null);</v>
       </c>
-      <c r="F471" s="3">
+      <c r="F471" s="2">
         <v>25000000000470</v>
       </c>
       <c r="H471" s="1" t="str">
@@ -13261,7 +13454,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wendy Septiyan', null);</v>
       </c>
-      <c r="F472" s="3">
+      <c r="F472" s="2">
         <v>25000000000471</v>
       </c>
       <c r="H472" s="1" t="str">
@@ -13280,7 +13473,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Willy Indarto', null);</v>
       </c>
-      <c r="F473" s="3">
+      <c r="F473" s="2">
         <v>25000000000472</v>
       </c>
       <c r="H473" s="1" t="str">
@@ -13299,7 +13492,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Winda Suherman', null);</v>
       </c>
-      <c r="F474" s="3">
+      <c r="F474" s="2">
         <v>25000000000473</v>
       </c>
       <c r="H474" s="1" t="str">
@@ -13318,7 +13511,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Ardian', null);</v>
       </c>
-      <c r="F475" s="3">
+      <c r="F475" s="2">
         <v>25000000000474</v>
       </c>
       <c r="H475" s="1" t="str">
@@ -13337,7 +13530,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisudanto C. Suntoyo', null);</v>
       </c>
-      <c r="F476" s="3">
+      <c r="F476" s="2">
         <v>25000000000475</v>
       </c>
       <c r="H476" s="1" t="str">
@@ -13356,7 +13549,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yahya Adyasa Febriansyah', null);</v>
       </c>
-      <c r="F477" s="3">
+      <c r="F477" s="2">
         <v>25000000000476</v>
       </c>
       <c r="H477" s="1" t="str">
@@ -13375,7 +13568,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yakup Sunaryo', null);</v>
       </c>
-      <c r="F478" s="3">
+      <c r="F478" s="2">
         <v>25000000000477</v>
       </c>
       <c r="H478" s="1" t="str">
@@ -13394,7 +13587,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yanuar Tri Ananda', null);</v>
       </c>
-      <c r="F479" s="3">
+      <c r="F479" s="2">
         <v>25000000000478</v>
       </c>
       <c r="H479" s="1" t="str">
@@ -13413,7 +13606,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yasir Liem', null);</v>
       </c>
-      <c r="F480" s="3">
+      <c r="F480" s="2">
         <v>25000000000479</v>
       </c>
       <c r="H480" s="1" t="str">
@@ -13432,7 +13625,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yefri Hendrayani', null);</v>
       </c>
-      <c r="F481" s="3">
+      <c r="F481" s="2">
         <v>25000000000480</v>
       </c>
       <c r="H481" s="1" t="str">
@@ -13451,7 +13644,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yessi Setiarini', null);</v>
       </c>
-      <c r="F482" s="3">
+      <c r="F482" s="2">
         <v>25000000000481</v>
       </c>
       <c r="H482" s="1" t="str">
@@ -13470,7 +13663,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yorid Fae', null);</v>
       </c>
-      <c r="F483" s="3">
+      <c r="F483" s="2">
         <v>25000000000482</v>
       </c>
       <c r="H483" s="1" t="str">
@@ -13489,7 +13682,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yosef Hang Wan', null);</v>
       </c>
-      <c r="F484" s="3">
+      <c r="F484" s="2">
         <v>25000000000483</v>
       </c>
       <c r="H484" s="1" t="str">
@@ -13508,7 +13701,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yossie Deliana', null);</v>
       </c>
-      <c r="F485" s="3">
+      <c r="F485" s="2">
         <v>25000000000484</v>
       </c>
       <c r="H485" s="1" t="str">
@@ -13527,7 +13720,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yudi Rahmadi', null);</v>
       </c>
-      <c r="F486" s="3">
+      <c r="F486" s="2">
         <v>25000000000485</v>
       </c>
       <c r="H486" s="1" t="str">
@@ -13546,7 +13739,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yudo Jati Rahmat Satrio', null);</v>
       </c>
-      <c r="F487" s="3">
+      <c r="F487" s="2">
         <v>25000000000486</v>
       </c>
       <c r="H487" s="1" t="str">
@@ -13565,7 +13758,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yuliandaru Suryoatmodjo', null);</v>
       </c>
-      <c r="F488" s="3">
+      <c r="F488" s="2">
         <v>25000000000487</v>
       </c>
       <c r="H488" s="1" t="str">
@@ -13584,7 +13777,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yulianta', null);</v>
       </c>
-      <c r="F489" s="3">
+      <c r="F489" s="2">
         <v>25000000000488</v>
       </c>
       <c r="H489" s="1" t="str">
@@ -13603,7 +13796,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yulianti', null);</v>
       </c>
-      <c r="F490" s="3">
+      <c r="F490" s="2">
         <v>25000000000489</v>
       </c>
       <c r="H490" s="1" t="str">
@@ -13622,7 +13815,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yulius', null);</v>
       </c>
-      <c r="F491" s="3">
+      <c r="F491" s="2">
         <v>25000000000490</v>
       </c>
       <c r="H491" s="1" t="str">
@@ -13641,7 +13834,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yunni Sazili', null);</v>
       </c>
-      <c r="F492" s="3">
+      <c r="F492" s="2">
         <v>25000000000491</v>
       </c>
       <c r="H492" s="1" t="str">
@@ -13660,7 +13853,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusman', null);</v>
       </c>
-      <c r="F493" s="3">
+      <c r="F493" s="2">
         <v>25000000000492</v>
       </c>
       <c r="H493" s="1" t="str">
@@ -13679,7 +13872,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusri Azhar', null);</v>
       </c>
-      <c r="F494" s="3">
+      <c r="F494" s="2">
         <v>25000000000493</v>
       </c>
       <c r="H494" s="1" t="str">
@@ -13698,7 +13891,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zafrizal', null);</v>
       </c>
-      <c r="F495" s="3">
+      <c r="F495" s="2">
         <v>25000000000494</v>
       </c>
       <c r="H495" s="1" t="str">
@@ -13717,7 +13910,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zafrizal Rifla (Ucok)', null);</v>
       </c>
-      <c r="F496" s="3">
+      <c r="F496" s="2">
         <v>25000000000495</v>
       </c>
       <c r="H496" s="1" t="str">
@@ -13736,7 +13929,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainuddin', null);</v>
       </c>
-      <c r="F497" s="3">
+      <c r="F497" s="2">
         <v>25000000000496</v>
       </c>
       <c r="H497" s="1" t="str">
@@ -13755,7 +13948,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainudin Anwar', null);</v>
       </c>
-      <c r="F498" s="3">
+      <c r="F498" s="2">
         <v>25000000000497</v>
       </c>
       <c r="H498" s="1" t="str">
@@ -13765,7 +13958,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B499" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>513</v>
@@ -13774,7 +13967,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zaire Dite Biscaya', null);</v>
       </c>
-      <c r="F499" s="3">
+      <c r="F499" s="2">
         <v>25000000000498</v>
       </c>
       <c r="H499" s="1" t="str">
@@ -13793,7 +13986,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zalfi Yandri', null);</v>
       </c>
-      <c r="F500" s="3">
+      <c r="F500" s="2">
         <v>25000000000499</v>
       </c>
       <c r="H500" s="1" t="str">
@@ -13812,7 +14005,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zam Roji', null);</v>
       </c>
-      <c r="F501" s="3">
+      <c r="F501" s="2">
         <v>25000000000500</v>
       </c>
       <c r="H501" s="1" t="str">
@@ -13831,7 +14024,7 @@
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zulfikar Siregar', null);</v>
       </c>
-      <c r="F502" s="3">
+      <c r="F502" s="2">
         <v>25000000000501</v>
       </c>
       <c r="H502" s="1" t="str">
@@ -13840,20 +14033,20 @@
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A503" s="6">
+      <c r="A503" s="5">
         <v>44491</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D503" s="1" t="str">
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adythia Adikara', null);</v>
       </c>
-      <c r="F503" s="3">
+      <c r="F503" s="2">
         <v>25000000000502</v>
       </c>
       <c r="H503" s="1" t="str">
@@ -13863,16 +14056,16 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B504" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D504" s="1" t="str">
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Sopyan Hadi', null);</v>
       </c>
-      <c r="F504" s="3">
+      <c r="F504" s="2">
         <v>25000000000503</v>
       </c>
       <c r="H504" s="1" t="str">
@@ -13882,16 +14075,16 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B505" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D505" s="1" t="str">
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Azis Purwandana', null);</v>
       </c>
-      <c r="F505" s="3">
+      <c r="F505" s="2">
         <v>25000000000504</v>
       </c>
       <c r="H505" s="1" t="str">
@@ -13901,16 +14094,16 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B506" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D506" s="1" t="str">
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heryanto', null);</v>
       </c>
-      <c r="F506" s="3">
+      <c r="F506" s="2">
         <v>25000000000505</v>
       </c>
       <c r="H506" s="1" t="str">
@@ -13920,16 +14113,16 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B507" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D507" s="1" t="str">
         <f t="shared" si="14"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imran', null);</v>
       </c>
-      <c r="F507" s="3">
+      <c r="F507" s="2">
         <v>25000000000506</v>
       </c>
       <c r="H507" s="1" t="str">
@@ -13939,16 +14132,16 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D508" s="1" t="str">
         <f>IF(EXACT(B508, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B508, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khamim Taryono', null);</v>
       </c>
-      <c r="F508" s="3">
+      <c r="F508" s="2">
         <v>25000000000507</v>
       </c>
       <c r="H508" s="1" t="str">
@@ -13958,16 +14151,16 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B509" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D509" s="1" t="str">
         <f>IF(EXACT(B509, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B509, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rafi Artman Siddiq', null);</v>
       </c>
-      <c r="F509" s="3">
+      <c r="F509" s="2">
         <v>25000000000508</v>
       </c>
       <c r="H509" s="1" t="str">
@@ -13980,13 +14173,13 @@
         <v>204</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D510" s="1" t="str">
         <f>IF(EXACT(B510, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B510, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riza Emir Subekti', null);</v>
       </c>
-      <c r="F510" s="3">
+      <c r="F510" s="2">
         <v>25000000000509</v>
       </c>
       <c r="H510" s="1" t="str">
@@ -13996,16 +14189,16 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B511" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D511" s="1" t="str">
         <f>IF(EXACT(B511, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B511, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Slamet Riadi', null);</v>
       </c>
-      <c r="F511" s="3">
+      <c r="F511" s="2">
         <v>25000000000510</v>
       </c>
       <c r="H511" s="1" t="str">
@@ -14015,16 +14208,16 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D512" s="1" t="str">
         <f>IF(EXACT(B512, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B512, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Andra Isdianto', null);</v>
       </c>
-      <c r="F512" s="3">
+      <c r="F512" s="2">
         <v>25000000000511</v>
       </c>
       <c r="H512" s="1" t="str">
@@ -14033,20 +14226,20 @@
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A513" s="6">
+      <c r="A513" s="5">
         <v>45069</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D513" s="1" t="str">
         <f t="shared" ref="D513:D543" si="16">IF(EXACT(B513, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B513, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Budi Setiawan', null);</v>
       </c>
-      <c r="F513" s="3">
+      <c r="F513" s="2">
         <v>25000000000512</v>
       </c>
       <c r="H513" s="1" t="str">
@@ -14056,16 +14249,16 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B514" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D514" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Choerul', null);</v>
       </c>
-      <c r="F514" s="3">
+      <c r="F514" s="2">
         <v>25000000000513</v>
       </c>
       <c r="H514" s="1" t="str">
@@ -14075,803 +14268,1373 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B515" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D515" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Achmad Yunadi', null);</v>
       </c>
-      <c r="F515" s="3">
+      <c r="F515" s="2">
         <v>25000000000514</v>
       </c>
       <c r="H515" s="1" t="str">
-        <f>B515</f>
+        <f t="shared" ref="H515:H553" si="17">B515</f>
         <v>Achmad Yunadi</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D516" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Asep mulyana', null);</v>
       </c>
-      <c r="F516" s="3">
+      <c r="F516" s="2">
         <v>25000000000515</v>
       </c>
       <c r="H516" s="1" t="str">
-        <f>B516</f>
+        <f t="shared" si="17"/>
         <v>Asep mulyana</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B517" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D517" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bagus Isdiantara', null);</v>
       </c>
-      <c r="F517" s="3">
+      <c r="F517" s="2">
         <v>25000000000516</v>
       </c>
       <c r="H517" s="1" t="str">
-        <f>B517</f>
+        <f t="shared" si="17"/>
         <v>Bagus Isdiantara</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B518" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D518" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyana', null);</v>
       </c>
-      <c r="F518" s="3">
+      <c r="F518" s="2">
         <v>25000000000517</v>
       </c>
       <c r="H518" s="1" t="str">
-        <f>B518</f>
+        <f t="shared" si="17"/>
         <v>Cahyana</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B519" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D519" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dede Hartanto', null);</v>
       </c>
-      <c r="F519" s="3">
+      <c r="F519" s="2">
         <v>25000000000518</v>
       </c>
       <c r="H519" s="1" t="str">
-        <f>B519</f>
+        <f t="shared" si="17"/>
         <v>Dede Hartanto</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D520" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Denny Achmad Ferlando', null);</v>
       </c>
-      <c r="F520" s="3">
+      <c r="F520" s="2">
         <v>25000000000519</v>
       </c>
       <c r="H520" s="1" t="str">
-        <f>B520</f>
+        <f t="shared" si="17"/>
         <v>Denny Achmad Ferlando</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B521" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D521" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Setiawan', null);</v>
       </c>
-      <c r="F521" s="3">
+      <c r="F521" s="2">
         <v>25000000000520</v>
       </c>
       <c r="H521" s="1" t="str">
-        <f>B521</f>
+        <f t="shared" si="17"/>
         <v>Dian Setiawan</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B522" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D522" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fabrian Danang Destiyara', null);</v>
       </c>
-      <c r="F522" s="3">
+      <c r="F522" s="2">
         <v>25000000000521</v>
       </c>
       <c r="H522" s="1" t="str">
-        <f>B522</f>
+        <f t="shared" si="17"/>
         <v>Fabrian Danang Destiyara</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D523" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ferdian Kriswantoro', null);</v>
       </c>
-      <c r="F523" s="3">
+      <c r="F523" s="2">
         <v>25000000000522</v>
       </c>
       <c r="H523" s="1" t="str">
-        <f>B523</f>
+        <f t="shared" si="17"/>
         <v>Ferdian Kriswantoro</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D524" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuzi Mafrozi', null);</v>
       </c>
-      <c r="F524" s="3">
+      <c r="F524" s="2">
         <v>25000000000523</v>
       </c>
       <c r="H524" s="1" t="str">
-        <f>B524</f>
+        <f t="shared" si="17"/>
         <v>Fuzi Mafrozi</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B525" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D525" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gilang Setiawan', null);</v>
       </c>
-      <c r="F525" s="3">
+      <c r="F525" s="2">
         <v>25000000000524</v>
       </c>
       <c r="H525" s="1" t="str">
-        <f>B525</f>
+        <f t="shared" si="17"/>
         <v>Gilang Setiawan</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B526" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D526" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idris Affandi', null);</v>
       </c>
-      <c r="F526" s="3">
+      <c r="F526" s="2">
         <v>25000000000525</v>
       </c>
       <c r="H526" s="1" t="str">
-        <f>B526</f>
+        <f t="shared" si="17"/>
         <v>Idris Affandi</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B527" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D527" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Wijaya', null);</v>
       </c>
-      <c r="F527" s="3">
+      <c r="F527" s="2">
         <v>25000000000526</v>
       </c>
       <c r="H527" s="1" t="str">
-        <f>B527</f>
+        <f t="shared" si="17"/>
         <v>Indra Wijaya</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D528" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irma Maulidawati', null);</v>
       </c>
-      <c r="F528" s="3">
+      <c r="F528" s="2">
         <v>25000000000527</v>
       </c>
       <c r="H528" s="1" t="str">
-        <f>B528</f>
+        <f t="shared" si="17"/>
         <v>Irma Maulidawati</v>
       </c>
     </row>
     <row r="529" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B529" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D529" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Istikaro Fauziah', null);</v>
       </c>
-      <c r="F529" s="3">
+      <c r="F529" s="2">
         <v>25000000000528</v>
       </c>
       <c r="H529" s="1" t="str">
-        <f>B529</f>
+        <f t="shared" si="17"/>
         <v>Istikaro Fauziah</v>
       </c>
     </row>
     <row r="530" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B530" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D530" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Lukbani', null);</v>
       </c>
-      <c r="F530" s="3">
+      <c r="F530" s="2">
         <v>25000000000529</v>
       </c>
       <c r="H530" s="1" t="str">
-        <f>B530</f>
+        <f t="shared" si="17"/>
         <v>Muhammad Lukbani</v>
       </c>
     </row>
     <row r="531" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B531" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D531" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Sholikhun', null);</v>
       </c>
-      <c r="F531" s="3">
+      <c r="F531" s="2">
         <v>25000000000530</v>
       </c>
       <c r="H531" s="1" t="str">
-        <f>B531</f>
+        <f t="shared" si="17"/>
         <v>Muhammad Sholikhun</v>
       </c>
     </row>
     <row r="532" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D532" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Syarifudin', null);</v>
       </c>
-      <c r="F532" s="3">
+      <c r="F532" s="2">
         <v>25000000000531</v>
       </c>
       <c r="H532" s="1" t="str">
-        <f>B532</f>
+        <f t="shared" si="17"/>
         <v>Muhammad Syarifudin</v>
       </c>
     </row>
     <row r="533" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B533" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D533" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nadia Rizkiah', null);</v>
       </c>
-      <c r="F533" s="3">
+      <c r="F533" s="2">
         <v>25000000000532</v>
       </c>
       <c r="H533" s="1" t="str">
-        <f>B533</f>
+        <f t="shared" si="17"/>
         <v>Nadia Rizkiah</v>
       </c>
     </row>
     <row r="534" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B534" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D534" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nikko Septian', null);</v>
       </c>
-      <c r="F534" s="3">
+      <c r="F534" s="2">
         <v>25000000000533</v>
       </c>
       <c r="H534" s="1" t="str">
-        <f>B534</f>
+        <f t="shared" si="17"/>
         <v>Nikko Septian</v>
       </c>
     </row>
     <row r="535" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B535" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D535" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novizan', null);</v>
       </c>
-      <c r="F535" s="3">
+      <c r="F535" s="2">
         <v>25000000000534</v>
       </c>
       <c r="H535" s="1" t="str">
-        <f>B535</f>
+        <f t="shared" si="17"/>
         <v>Novizan</v>
       </c>
     </row>
     <row r="536" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D536" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Oqi Suhaqi Yunus', null);</v>
       </c>
-      <c r="F536" s="3">
+      <c r="F536" s="2">
         <v>25000000000535</v>
       </c>
       <c r="H536" s="1" t="str">
-        <f>B536</f>
+        <f t="shared" si="17"/>
         <v>Oqi Suhaqi Yunus</v>
       </c>
     </row>
     <row r="537" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B537" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D537" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Restu Dwi Anjayani', null);</v>
       </c>
-      <c r="F537" s="3">
+      <c r="F537" s="2">
         <v>25000000000536</v>
       </c>
       <c r="H537" s="1" t="str">
-        <f>B537</f>
+        <f t="shared" si="17"/>
         <v>Restu Dwi Anjayani</v>
       </c>
     </row>
     <row r="538" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B538" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D538" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizal Amri', null);</v>
       </c>
-      <c r="F538" s="3">
+      <c r="F538" s="2">
         <v>25000000000537</v>
       </c>
       <c r="H538" s="1" t="str">
-        <f>B538</f>
+        <f t="shared" si="17"/>
         <v>Rizal Amri</v>
       </c>
     </row>
     <row r="539" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B539" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D539" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ronny Anindika Arnold', null);</v>
       </c>
-      <c r="F539" s="3">
+      <c r="F539" s="2">
         <v>25000000000538</v>
       </c>
       <c r="H539" s="1" t="str">
-        <f>B539</f>
+        <f t="shared" si="17"/>
         <v>Ronny Anindika Arnold</v>
       </c>
     </row>
     <row r="540" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D540" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Samta Harahap', null);</v>
       </c>
-      <c r="F540" s="3">
+      <c r="F540" s="2">
         <v>25000000000539</v>
       </c>
       <c r="H540" s="1" t="str">
-        <f>B540</f>
+        <f t="shared" si="17"/>
         <v>Samta Harahap</v>
       </c>
     </row>
     <row r="541" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B541" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D541" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vingky Hendriek Yomerlin', null);</v>
       </c>
-      <c r="F541" s="3">
+      <c r="F541" s="2">
         <v>25000000000540</v>
       </c>
       <c r="H541" s="1" t="str">
-        <f>B541</f>
+        <f t="shared" si="17"/>
         <v>Vingky Hendriek Yomerlin</v>
       </c>
     </row>
     <row r="542" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B542" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D542" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Teluk Naga', null);</v>
       </c>
-      <c r="F542" s="3">
+      <c r="F542" s="2">
         <v>25000000000541</v>
       </c>
       <c r="H542" s="1" t="str">
-        <f>B542</f>
+        <f t="shared" si="17"/>
         <v>Wahyu Teluk Naga</v>
       </c>
     </row>
     <row r="543" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B543" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D543" s="1" t="str">
         <f t="shared" si="16"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wardah Laily Khoiriyah', null);</v>
       </c>
-      <c r="F543" s="3">
+      <c r="F543" s="2">
         <v>25000000000542</v>
       </c>
       <c r="H543" s="1" t="str">
-        <f>B543</f>
+        <f t="shared" si="17"/>
         <v>Wardah Laily Khoiriyah</v>
       </c>
     </row>
     <row r="544" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D544" s="1" t="str">
-        <f t="shared" ref="D544:D551" si="17">IF(EXACT(B544, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B544, "', null);"))</f>
+        <f t="shared" ref="D544:D551" si="18">IF(EXACT(B544, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B544, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wawan Kusworo', null);</v>
       </c>
-      <c r="F544" s="3">
+      <c r="F544" s="2">
         <v>25000000000543</v>
       </c>
       <c r="H544" s="1" t="str">
-        <f>B544</f>
+        <f t="shared" si="17"/>
         <v>Wawan Kusworo</v>
       </c>
     </row>
-    <row r="545" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B545" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D545" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wulanraniasih', null);</v>
+      </c>
+      <c r="F545" s="2">
+        <v>25000000000544</v>
+      </c>
+      <c r="H545" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wulanraniasih', null);</v>
-      </c>
-      <c r="F545" s="3">
-        <v>25000000000544</v>
-      </c>
-      <c r="H545" s="1" t="str">
-        <f>B545</f>
         <v>Wulanraniasih</v>
       </c>
     </row>
-    <row r="546" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B546" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D546" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogi Perbangkara', null);</v>
+      </c>
+      <c r="F546" s="2">
+        <v>25000000000545</v>
+      </c>
+      <c r="H546" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogi Perbangkara', null);</v>
-      </c>
-      <c r="F546" s="3">
-        <v>25000000000545</v>
-      </c>
-      <c r="H546" s="1" t="str">
-        <f>B546</f>
         <v>Yogi Perbangkara</v>
       </c>
     </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B547" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D547" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusuf Fathurahman', null);</v>
+      </c>
+      <c r="F547" s="2">
+        <v>25000000000546</v>
+      </c>
+      <c r="H547" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusuf Fathurahman', null);</v>
-      </c>
-      <c r="F547" s="3">
-        <v>25000000000546</v>
-      </c>
-      <c r="H547" s="1" t="str">
-        <f>B547</f>
         <v>Yusuf Fathurahman</v>
       </c>
     </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B548" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D548" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zeinurani', null);</v>
+      </c>
+      <c r="F548" s="2">
+        <v>25000000000547</v>
+      </c>
+      <c r="H548" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zeinurani', null);</v>
-      </c>
-      <c r="F548" s="3">
-        <v>25000000000547</v>
-      </c>
-      <c r="H548" s="1" t="str">
-        <f>B548</f>
         <v>Zeinurani</v>
       </c>
     </row>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B549" s="1" t="s">
         <v>470</v>
       </c>
       <c r="C549" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D549" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sulaeman', null);</v>
+      </c>
+      <c r="F549" s="2">
+        <v>25000000000548</v>
+      </c>
+      <c r="H549" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Sulaeman</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B550" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="D549" s="1" t="str">
+      <c r="C550" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D550" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Nuryadi', null);</v>
+      </c>
+      <c r="F550" s="2">
+        <v>25000000000549</v>
+      </c>
+      <c r="H550" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sulaeman', null);</v>
-      </c>
-      <c r="F549" s="3">
-        <v>25000000000548</v>
-      </c>
-      <c r="H549" s="1" t="str">
-        <f>B549</f>
-        <v>Sulaeman</v>
-      </c>
-    </row>
-    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B550" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C550" s="1" t="s">
+        <v>Agus Nuryadi</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B551" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D550" s="1" t="str">
+      <c r="C551" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D551" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Tri Rahmawati', null);</v>
+      </c>
+      <c r="F551" s="2">
+        <v>25000000000550</v>
+      </c>
+      <c r="H551" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Nuryadi', null);</v>
-      </c>
-      <c r="F550" s="3">
-        <v>25000000000549</v>
-      </c>
-      <c r="H550" s="1" t="str">
-        <f>B550</f>
-        <v>Agus Nuryadi</v>
-      </c>
-    </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B551" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D551" s="1" t="str">
+        <v>Dian Tri Rahmawati</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B552" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D552" s="1" t="str">
+        <f t="shared" ref="D552:D553" si="19">IF(EXACT(B552, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B552, "', null);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Langgeng Eko Dwiantoro', null);</v>
+      </c>
+      <c r="F552" s="2">
+        <v>25000000000551</v>
+      </c>
+      <c r="H552" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Tri Rahmawati', null);</v>
-      </c>
-      <c r="F551" s="3">
-        <v>25000000000550</v>
-      </c>
-      <c r="H551" s="1" t="str">
-        <f>B551</f>
-        <v>Dian Tri Rahmawati</v>
-      </c>
-    </row>
-    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B552" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D552" s="1" t="str">
-        <f t="shared" ref="D552:D557" si="18">IF(EXACT(B552, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B552, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Langgeng Eko Dwiantoro', null);</v>
-      </c>
-      <c r="F552" s="3">
-        <v>25000000000551</v>
-      </c>
-      <c r="H552" s="1" t="str">
-        <f>B552</f>
         <v>Langgeng Eko Dwiantoro</v>
       </c>
     </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B553" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="C553" s="1" t="s">
-        <v>1289</v>
-      </c>
       <c r="D553" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aldi Rizaldi', null);</v>
       </c>
-      <c r="F553" s="3">
+      <c r="F553" s="2">
         <v>25000000000552</v>
       </c>
       <c r="H553" s="1" t="str">
-        <f>B553</f>
+        <f t="shared" si="17"/>
         <v>Aldi Rizaldi</v>
       </c>
     </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B554" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D554" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D554:D586" si="20">IF(EXACT(B554, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B554, "', null);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Masimin', null);</v>
       </c>
-      <c r="F554" s="3">
+      <c r="F554" s="2">
         <v>25000000000553</v>
       </c>
-    </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H554" s="1" t="str">
+        <f t="shared" ref="H554:H567" si="21">B554</f>
+        <v>Masimin</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B555" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D555" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Santoso Dwi Cahyo', null);</v>
+      </c>
+      <c r="F555" s="2">
+        <v>25000000000554</v>
+      </c>
+      <c r="H555" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Santoso Dwi Cahyo</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B556" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D556" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wartono', null);</v>
+      </c>
+      <c r="F556" s="2">
+        <v>25000000000555</v>
+      </c>
+      <c r="H556" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Wartono</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B557" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="D555" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Santoso Dwi Cahyo', null);</v>
-      </c>
-      <c r="F555" s="3">
-        <v>25000000000554</v>
-      </c>
-    </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B556" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D556" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wartono', null);</v>
-      </c>
-      <c r="F556" s="3">
-        <v>25000000000555</v>
-      </c>
-    </row>
-    <row r="557" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B557" s="1" t="s">
-        <v>1295</v>
-      </c>
       <c r="D557" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusarman', null);</v>
       </c>
-      <c r="F557" s="3">
+      <c r="F557" s="2">
         <v>25000000000556</v>
       </c>
+      <c r="H557" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Yusarman</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D558" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Rachman', null);</v>
+      </c>
+      <c r="F558" s="2">
+        <v>25000000000557</v>
+      </c>
+      <c r="H558" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Abdul Rachman</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B559" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D559" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aden Bagus', null);</v>
+      </c>
+      <c r="F559" s="2">
+        <v>25000000000558</v>
+      </c>
+      <c r="H559" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Aden Bagus</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B560" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D560" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adhe Kurniawan', null);</v>
+      </c>
+      <c r="F560" s="2">
+        <v>25000000000559</v>
+      </c>
+      <c r="H560" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Adhe Kurniawan</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B561" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D561" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Fauzi', null);</v>
+      </c>
+      <c r="F561" s="2">
+        <v>25000000000560</v>
+      </c>
+      <c r="H561" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Ahmad Fauzi</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B562" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D562" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Gunawan', null);</v>
+      </c>
+      <c r="F562" s="2">
+        <v>25000000000561</v>
+      </c>
+      <c r="H562" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Ahmad Gunawan</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B563" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D563" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Andriyan', null);</v>
+      </c>
+      <c r="F563" s="2">
+        <v>25000000000562</v>
+      </c>
+      <c r="H563" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Andri Andriyan</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B564" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D564" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Sulistianto', null);</v>
+      </c>
+      <c r="F564" s="2">
+        <v>25000000000563</v>
+      </c>
+      <c r="H564" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Budi Sulistianto</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B565" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D565" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Budi', null);</v>
+      </c>
+      <c r="F565" s="2">
+        <v>25000000000564</v>
+      </c>
+      <c r="H565" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Eka Budi</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B566" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D566" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Kurniawan', null);</v>
+      </c>
+      <c r="F566" s="2">
+        <v>25000000000565</v>
+      </c>
+      <c r="H566" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Eka Kurniawan</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B567" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D567" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Haerul Gunawan', null);</v>
+      </c>
+      <c r="F567" s="2">
+        <v>25000000000566</v>
+      </c>
+      <c r="H567" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Haerul Gunawan</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B568" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D568" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus', null);</v>
+      </c>
+      <c r="F568" s="2">
+        <v>25000000000567</v>
+      </c>
+      <c r="H568" s="1" t="str">
+        <f t="shared" ref="H568:H586" si="22">B568</f>
+        <v>Irvan Agus</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B569" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D569" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Joshika Pradirga', null);</v>
+      </c>
+      <c r="F569" s="2">
+        <v>25000000000568</v>
+      </c>
+      <c r="H569" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Joshika Pradirga</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B570" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D570" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khaidir', null);</v>
+      </c>
+      <c r="F570" s="2">
+        <v>25000000000569</v>
+      </c>
+      <c r="H570" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Khaidir</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B571" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D571" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Latip Muhlanto', null);</v>
+      </c>
+      <c r="F571" s="2">
+        <v>25000000000570</v>
+      </c>
+      <c r="H571" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Latip Muhlanto</v>
+      </c>
+    </row>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B572" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D572" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Leonardo Putra', null);</v>
+      </c>
+      <c r="F572" s="2">
+        <v>25000000000571</v>
+      </c>
+      <c r="H572" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Leonardo Putra</v>
+      </c>
+    </row>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B573" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D573" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Ramadani', null);</v>
+      </c>
+      <c r="F573" s="2">
+        <v>25000000000572</v>
+      </c>
+      <c r="H573" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Muhammad Ramadani</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B574" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D574" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Musdalipa', null);</v>
+      </c>
+      <c r="F574" s="2">
+        <v>25000000000573</v>
+      </c>
+      <c r="H574" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Musdalipa</v>
+      </c>
+    </row>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B575" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D575" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nico Melky', null);</v>
+      </c>
+      <c r="F575" s="2">
+        <v>25000000000574</v>
+      </c>
+      <c r="H575" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Nico Melky</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B576" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D576" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmata Novanisa', null);</v>
+      </c>
+      <c r="F576" s="2">
+        <v>25000000000575</v>
+      </c>
+      <c r="H576" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Rahmata Novanisa</v>
+      </c>
+    </row>
+    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B577" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D577" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Satrio Dhiaputra', null);</v>
+      </c>
+      <c r="F577" s="2">
+        <v>25000000000576</v>
+      </c>
+      <c r="H577" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Satrio Dhiaputra</v>
+      </c>
+    </row>
+    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B578" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D578" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudirman', null);</v>
+      </c>
+      <c r="F578" s="2">
+        <v>25000000000577</v>
+      </c>
+      <c r="H578" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Sudirman</v>
+      </c>
+    </row>
+    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B579" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D579" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suparji', null);</v>
+      </c>
+      <c r="F579" s="2">
+        <v>25000000000578</v>
+      </c>
+      <c r="H579" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Suparji</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B580" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D580" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taufik Iskandar', null);</v>
+      </c>
+      <c r="F580" s="2">
+        <v>25000000000579</v>
+      </c>
+      <c r="H580" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Taufik Iskandar</v>
+      </c>
+    </row>
+    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B581" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D581" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tegar Hersaputra', null);</v>
+      </c>
+      <c r="F581" s="2">
+        <v>25000000000580</v>
+      </c>
+      <c r="H581" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Tegar Hersaputra</v>
+      </c>
+    </row>
+    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B582" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D582" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Togar Sihombing', null);</v>
+      </c>
+      <c r="F582" s="2">
+        <v>25000000000581</v>
+      </c>
+      <c r="H582" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Togar Sihombing</v>
+      </c>
+    </row>
+    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B583" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D583" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Trenggono', null);</v>
+      </c>
+      <c r="F583" s="2">
+        <v>25000000000582</v>
+      </c>
+      <c r="H583" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Wisnu Trenggono</v>
+      </c>
+    </row>
+    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B584" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D584" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogo', null);</v>
+      </c>
+      <c r="F584" s="2">
+        <v>25000000000583</v>
+      </c>
+      <c r="H584" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Yogo</v>
+      </c>
+    </row>
+    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B585" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D585" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yustiana Firda', null);</v>
+      </c>
+      <c r="F585" s="2">
+        <v>25000000000584</v>
+      </c>
+      <c r="H585" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Yustiana Firda</v>
+      </c>
+    </row>
+    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B586" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D586" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainal Abidin', null);</v>
+      </c>
+      <c r="F586" s="2">
+        <v>25000000000585</v>
+      </c>
+      <c r="H586" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Zainal Abidin</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B554:B557">
-    <sortCondition ref="B554"/>
+  <sortState ref="B558:C586">
+    <sortCondition ref="B558:B586"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B486"/>
   <sheetViews>
@@ -17314,12 +18077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="C588" sqref="C588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21434,370 +22197,602 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B514" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B515" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B516" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B517" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B518" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B519" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B520" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B521" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B522" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="5" t="s">
+      <c r="A523" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B523" s="5" t="s">
-        <v>1191</v>
+      <c r="B523" s="4" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B524" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B525" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B526" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B527" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B528" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B529" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B530" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B531" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B532" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B533" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B534" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B535" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B536" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B537" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B538" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B539" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B540" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B541" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B542" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B543" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B544" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B545" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B546" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B547" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B548" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B549" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B550" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B551" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B552" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B553" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B554" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B555" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B556" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B557" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B558" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B559" t="s">
-        <v>1268</v>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -4496,7 +4496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -18081,8 +18081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B588"/>
   <sheetViews>
-    <sheetView topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="C588" sqref="C588"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="A562" sqref="A562:B588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -4797,7 +4797,7 @@
   </sheetPr>
   <dimension ref="A1:I589"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
@@ -17166,7 +17166,7 @@
   </sheetPr>
   <dimension ref="B1:G620"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -4798,11 +4798,11 @@
   <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C577" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:G588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4857,8 +4857,8 @@
         <v>25000000000001</v>
       </c>
       <c r="G4" s="24" t="str">
-        <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B4, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdollah Syani Siregar', null);</v>
+        <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B4, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdollah Syani Siregar'::varchar, null::bigint);</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>B4</f>
@@ -4878,8 +4878,8 @@
         <v>25000000000002</v>
       </c>
       <c r="G5" s="24" t="str">
-        <f t="shared" ref="G5:G68" si="1">IF(EXACT(B5, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B5, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Karim', null);</v>
+        <f t="shared" ref="G5:G68" si="1">IF(EXACT(B5, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B5, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdul Karim'::varchar, null::bigint);</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" ref="I5:I68" si="2">B5</f>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G6" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Rahman Sitompul', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdul Rahman Sitompul'::varchar, null::bigint);</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="G7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Risan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdul Risan'::varchar, null::bigint);</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G8" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdullah Nabil', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdullah Nabil'::varchar, null::bigint);</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="G9" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adhitya Danar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Adhitya Danar'::varchar, null::bigint);</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="G10" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adi Ruswandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Adi Ruswandi'::varchar, null::bigint);</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="G11" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adietya Dharmawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Adietya Dharmawan'::varchar, null::bigint);</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G12" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aditya Yudha Prawira', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Aditya Yudha Prawira'::varchar, null::bigint);</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="G13" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adli Margie', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Adli Margie'::varchar, null::bigint);</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="G14" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Afrida Eka Putri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Afrida Eka Putri'::varchar, null::bigint);</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="G15" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agnes Sutedja', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agnes Sutedja'::varchar, null::bigint);</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G16" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agung Hendarto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agung Hendarto'::varchar, null::bigint);</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="G17" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Priyatno Mahmudo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agus Priyatno Mahmudo'::varchar, null::bigint);</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="G18" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Salim', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agus Salim'::varchar, null::bigint);</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="G19" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Tanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agus Tanto'::varchar, null::bigint);</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G20" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Faiz Haems Muda', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Faiz Haems Muda'::varchar, null::bigint);</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G21" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Faza', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Faza'::varchar, null::bigint);</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G22" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Syaifulloh', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Syaifulloh'::varchar, null::bigint);</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G23" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Zulkarnaen', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Zulkarnaen'::varchar, null::bigint);</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G24" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ajan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ajan'::varchar, null::bigint);</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="G25" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Al Amin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Al Amin'::varchar, null::bigint);</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G26" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aldi Mulyadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Aldi Mulyadi'::varchar, null::bigint);</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="G27" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Alexandri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Alexandri'::varchar, null::bigint);</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="G28" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Alfaedi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Alfaedi'::varchar, null::bigint);</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="G29" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ali Wahono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ali Wahono'::varchar, null::bigint);</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="G30" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Alphaliyanri Lasria', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Alphaliyanri Lasria'::varchar, null::bigint);</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="G31" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ambon Rumalean', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ambon Rumalean'::varchar, null::bigint);</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="G32" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Amir Sofyan Hadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Amir Sofyan Hadi'::varchar, null::bigint);</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="G33" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anak Agung Netti Ariani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anak Agung Netti Ariani'::varchar, null::bigint);</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="G34" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Gunawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Andri Gunawan'::varchar, null::bigint);</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="G35" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Herdiansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Andri Herdiansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G36" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andrie', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Andrie'::varchar, null::bigint);</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="G37" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anggina Tri Yudandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anggina Tri Yudandi'::varchar, null::bigint);</v>
       </c>
       <c r="I37" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="G38" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anggit Ismiyanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anggit Ismiyanto'::varchar, null::bigint);</v>
       </c>
       <c r="I38" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="G39" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anika Setyowati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anika Setyowati'::varchar, null::bigint);</v>
       </c>
       <c r="I39" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="G40" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anisah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anisah'::varchar, null::bigint);</v>
       </c>
       <c r="I40" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="G41" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anna Savitrie', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anna Savitrie'::varchar, null::bigint);</v>
       </c>
       <c r="I41" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="G42" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Annisa Dewi Arumsari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Annisa Dewi Arumsari'::varchar, null::bigint);</v>
       </c>
       <c r="I42" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="G43" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Annyes Sri Maristi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Annyes Sri Maristi'::varchar, null::bigint);</v>
       </c>
       <c r="I43" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="G44" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Antok', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Antok'::varchar, null::bigint);</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="G45" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anton Iryanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anton Iryanto'::varchar, null::bigint);</v>
       </c>
       <c r="I45" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="G46" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Antony Pakpahan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Antony Pakpahan'::varchar, null::bigint);</v>
       </c>
       <c r="I46" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="G47" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anugerah Januariansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anugerah Januariansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I47" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="G48" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Anwar Purnomo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Anwar Purnomo'::varchar, null::bigint);</v>
       </c>
       <c r="I48" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="G49" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardhi Swasono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ardhi Swasono'::varchar, null::bigint);</v>
       </c>
       <c r="I49" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="G50" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ardi'::varchar, null::bigint);</v>
       </c>
       <c r="I50" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="G51" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardiansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ardiansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I51" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="G52" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardisam', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ardisam'::varchar, null::bigint);</v>
       </c>
       <c r="I52" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="G53" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ardita', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ardita'::varchar, null::bigint);</v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="G54" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ares S. Mauboi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ares S. Mauboi'::varchar, null::bigint);</v>
       </c>
       <c r="I54" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="G55" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arfah Hanum', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arfah Hanum'::varchar, null::bigint);</v>
       </c>
       <c r="I55" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="G56" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arfianti Haryani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arfianti Haryani'::varchar, null::bigint);</v>
       </c>
       <c r="I56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="G57" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ari Priwarsono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ari Priwarsono'::varchar, null::bigint);</v>
       </c>
       <c r="I57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="G58" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ari Yuniasmono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ari Yuniasmono'::varchar, null::bigint);</v>
       </c>
       <c r="I58" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="G59" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arif Gunawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arif Gunawan'::varchar, null::bigint);</v>
       </c>
       <c r="I59" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="G60" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arif Prasetyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arif Prasetyo'::varchar, null::bigint);</v>
       </c>
       <c r="I60" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="G61" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arini', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arini'::varchar, null::bigint);</v>
       </c>
       <c r="I61" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="G62" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ario Setyo Gunawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ario Setyo Gunawan'::varchar, null::bigint);</v>
       </c>
       <c r="I62" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="G63" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ario Yulianto Wibowo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ario Yulianto Wibowo'::varchar, null::bigint);</v>
       </c>
       <c r="I63" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="G64" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aris Widodo Pamungkas', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Aris Widodo Pamungkas'::varchar, null::bigint);</v>
       </c>
       <c r="I64" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="G65" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arjiyanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arjiyanto'::varchar, null::bigint);</v>
       </c>
       <c r="I65" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="G66" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Arman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Arman'::varchar, null::bigint);</v>
       </c>
       <c r="I66" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="G67" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aryoko Sudiro', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Aryoko Sudiro'::varchar, null::bigint);</v>
       </c>
       <c r="I67" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="G68" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Astamyugo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Astamyugo'::varchar, null::bigint);</v>
       </c>
       <c r="I68" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6222,8 +6222,8 @@
         <v>25000000000066</v>
       </c>
       <c r="G69" s="24" t="str">
-        <f t="shared" ref="G69:G132" si="4">IF(EXACT(B69, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B69, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Atmo Sastro Dinoto', null);</v>
+        <f t="shared" ref="G69:G132" si="4">IF(EXACT(B69, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B69, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Atmo Sastro Dinoto'::varchar, null::bigint);</v>
       </c>
       <c r="I69" s="1" t="str">
         <f t="shared" ref="I69:I132" si="5">B69</f>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="G70" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Awaludin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Awaludin'::varchar, null::bigint);</v>
       </c>
       <c r="I70" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G71" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bachtiar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bachtiar'::varchar, null::bigint);</v>
       </c>
       <c r="I71" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="G72" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bambang Irawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bambang Irawan'::varchar, null::bigint);</v>
       </c>
       <c r="I72" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="G73" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bambang Prihatin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bambang Prihatin'::varchar, null::bigint);</v>
       </c>
       <c r="I73" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G74" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bani Mustazeni', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bani Mustazeni'::varchar, null::bigint);</v>
       </c>
       <c r="I74" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="G75" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bardai', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bardai'::varchar, null::bigint);</v>
       </c>
       <c r="I75" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="G76" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Barika', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Barika'::varchar, null::bigint);</v>
       </c>
       <c r="I76" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="G77" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bela Retmalantika', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bela Retmalantika'::varchar, null::bigint);</v>
       </c>
       <c r="I77" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="G78" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Belina Lindarwani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Belina Lindarwani'::varchar, null::bigint);</v>
       </c>
       <c r="I78" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="G79" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Benita Sofia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Benita Sofia'::varchar, null::bigint);</v>
       </c>
       <c r="I79" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="G80" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bherly Novrandy', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bherly Novrandy'::varchar, null::bigint);</v>
       </c>
       <c r="I80" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="G81" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Binsar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Binsar'::varchar, null::bigint);</v>
       </c>
       <c r="I81" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="G82" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bondhan Sosiarta', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bondhan Sosiarta'::varchar, null::bigint);</v>
       </c>
       <c r="I82" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="G83" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Pranata Sinaga', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Budi Pranata Sinaga'::varchar, null::bigint);</v>
       </c>
       <c r="I83" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="G84" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Satrio', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Budi Satrio'::varchar, null::bigint);</v>
       </c>
       <c r="I84" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="G85" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Budianto'::varchar, null::bigint);</v>
       </c>
       <c r="I85" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="G86" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budiman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Budiman'::varchar, null::bigint);</v>
       </c>
       <c r="I86" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="G87" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyaning Annisa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Cahyaning Annisa'::varchar, null::bigint);</v>
       </c>
       <c r="I87" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G88" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyaningrum Widiastuti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Cahyaningrum Widiastuti'::varchar, null::bigint);</v>
       </c>
       <c r="I88" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="G89" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cecep Maulana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Cecep Maulana'::varchar, null::bigint);</v>
       </c>
       <c r="I89" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G90" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Chairul Musaddat', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Chairul Musaddat'::varchar, null::bigint);</v>
       </c>
       <c r="I90" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="G91" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Christianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Christianto'::varchar, null::bigint);</v>
       </c>
       <c r="I91" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="G92" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dadan Hermawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dadan Hermawan'::varchar, null::bigint);</v>
       </c>
       <c r="I92" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="G93" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dadan Suhendar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dadan Suhendar'::varchar, null::bigint);</v>
       </c>
       <c r="I93" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="G94" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dadi Anda Zuchradi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dadi Anda Zuchradi'::varchar, null::bigint);</v>
       </c>
       <c r="I94" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="G95" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Darsito', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Darsito'::varchar, null::bigint);</v>
       </c>
       <c r="I95" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="G96" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'David Lumban Gaol', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'David Lumban Gaol'::varchar, null::bigint);</v>
       </c>
       <c r="I96" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="G97" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deddy Rochman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Deddy Rochman'::varchar, null::bigint);</v>
       </c>
       <c r="I97" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="G98" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Kusnadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dedi Kusnadi'::varchar, null::bigint);</v>
       </c>
       <c r="I98" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="G99" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Marciano Rizanur', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dedi Marciano Rizanur'::varchar, null::bigint);</v>
       </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G100" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Rianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dedi Rianto'::varchar, null::bigint);</v>
       </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="G101" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dedi Syahputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dedi Syahputra'::varchar, null::bigint);</v>
       </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="G102" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deni Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Deni Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="G103" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Deny Adi Purnama', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Deny Adi Purnama'::varchar, null::bigint);</v>
       </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="G104" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Desi Herawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Desi Herawati'::varchar, null::bigint);</v>
       </c>
       <c r="I104" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="G105" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Desi Setiowati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Desi Setiowati'::varchar, null::bigint);</v>
       </c>
       <c r="I105" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="G106" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Firdaus', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dian Firdaus'::varchar, null::bigint);</v>
       </c>
       <c r="I106" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G107" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Hariyana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dian Hariyana'::varchar, null::bigint);</v>
       </c>
       <c r="I107" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="G108" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dinnar Budiarti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dinnar Budiarti'::varchar, null::bigint);</v>
       </c>
       <c r="I108" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="G109" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dionesius Sostenist Duka', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dionesius Sostenist Duka'::varchar, null::bigint);</v>
       </c>
       <c r="I109" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="G110" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Diyah Martina', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Diyah Martina'::varchar, null::bigint);</v>
       </c>
       <c r="I110" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="G111" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Djuang Tampubolon', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Djuang Tampubolon'::varchar, null::bigint);</v>
       </c>
       <c r="I111" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="G112" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dodit Widiarto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dodit Widiarto'::varchar, null::bigint);</v>
       </c>
       <c r="I112" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="G113" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dony Darmawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dony Darmawan'::varchar, null::bigint);</v>
       </c>
       <c r="I113" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="G114" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dony Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dony Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I114" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G115" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dudi Rustandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dudi Rustandi'::varchar, null::bigint);</v>
       </c>
       <c r="I115" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="G116" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dudung', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dudung'::varchar, null::bigint);</v>
       </c>
       <c r="I116" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="G117" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dwi Joko', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dwi Joko'::varchar, null::bigint);</v>
       </c>
       <c r="I117" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="G118" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dwinanto Prabowo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dwinanto Prabowo'::varchar, null::bigint);</v>
       </c>
       <c r="I118" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="G119" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Waluyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Edi Waluyo'::varchar, null::bigint);</v>
       </c>
       <c r="I119" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="G120" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Siswanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Edi Siswanto'::varchar, null::bigint);</v>
       </c>
       <c r="I120" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="G121" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edi Turnip', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Edi Turnip'::varchar, null::bigint);</v>
       </c>
       <c r="I121" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="G122" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edy Putra Waskita', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Edy Putra Waskita'::varchar, null::bigint);</v>
       </c>
       <c r="I122" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="G123" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Edy Situmeang', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Edy Situmeang'::varchar, null::bigint);</v>
       </c>
       <c r="I123" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="G124" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Effendi fendi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Effendi fendi'::varchar, null::bigint);</v>
       </c>
       <c r="I124" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G125" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Efrina Dwililia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Efrina Dwililia'::varchar, null::bigint);</v>
       </c>
       <c r="I125" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G126" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Bagus Dwi Putra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eka Bagus Dwi Putra'::varchar, null::bigint);</v>
       </c>
       <c r="I126" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="G127" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Hamidah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eka Hamidah'::varchar, null::bigint);</v>
       </c>
       <c r="I127" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="G128" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Purwanti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eka Purwanti'::varchar, null::bigint);</v>
       </c>
       <c r="I128" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="G129" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eko Kurniawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eko Kurniawan'::varchar, null::bigint);</v>
       </c>
       <c r="I129" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="G130" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eko Laksono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eko Laksono'::varchar, null::bigint);</v>
       </c>
       <c r="I130" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="G131" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eko Syambudi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eko Syambudi'::varchar, null::bigint);</v>
       </c>
       <c r="I131" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="G132" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elieser Ferdy P.', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Elieser Ferdy P.'::varchar, null::bigint);</v>
       </c>
       <c r="I132" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7566,8 +7566,8 @@
         <v>25000000000130</v>
       </c>
       <c r="G133" s="24" t="str">
-        <f t="shared" ref="G133:G196" si="7">IF(EXACT(B133, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B133, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elisa', null);</v>
+        <f t="shared" ref="G133:G196" si="7">IF(EXACT(B133, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B133, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Elisa'::varchar, null::bigint);</v>
       </c>
       <c r="I133" s="1" t="str">
         <f t="shared" ref="I133:I196" si="8">B133</f>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="G134" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elsa Jayanti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Elsa Jayanti'::varchar, null::bigint);</v>
       </c>
       <c r="I134" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="G135" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Elsa Mardian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Elsa Mardian'::varchar, null::bigint);</v>
       </c>
       <c r="I135" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="G136" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Emir Paranita Nasution', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Emir Paranita Nasution'::varchar, null::bigint);</v>
       </c>
       <c r="I136" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="G137" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Enceng Hemawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Enceng Hemawan'::varchar, null::bigint);</v>
       </c>
       <c r="I137" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="G138" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Endang'::varchar, null::bigint);</v>
       </c>
       <c r="I138" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="G139" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang Lestari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Endang Lestari'::varchar, null::bigint);</v>
       </c>
       <c r="I139" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="G140" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang Sobari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Endang Sobari'::varchar, null::bigint);</v>
       </c>
       <c r="I140" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="G141" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Endang Sutrisna', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Endang Sutrisna'::varchar, null::bigint);</v>
       </c>
       <c r="I141" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="G142" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Erfananda Rasyid', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Erfananda Rasyid'::varchar, null::bigint);</v>
       </c>
       <c r="I142" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G143" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ernawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ernawati'::varchar, null::bigint);</v>
       </c>
       <c r="I143" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="G144" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Erwin Firmansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Erwin Firmansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I144" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="G145" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Erwin Said', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Erwin Said'::varchar, null::bigint);</v>
       </c>
       <c r="I145" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="G146" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Esa Annahar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Esa Annahar'::varchar, null::bigint);</v>
       </c>
       <c r="I146" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="G147" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Faiz Horifal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Faiz Horifal'::varchar, null::bigint);</v>
       </c>
       <c r="I147" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="G148" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fani Dwi Astutik', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fani Dwi Astutik'::varchar, null::bigint);</v>
       </c>
       <c r="I148" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="G149" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fardi Nauli R', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fardi Nauli R'::varchar, null::bigint);</v>
       </c>
       <c r="I149" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="G150" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Farekh Huzair', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Farekh Huzair'::varchar, null::bigint);</v>
       </c>
       <c r="I150" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="G151" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Farhana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Farhana'::varchar, null::bigint);</v>
       </c>
       <c r="I151" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="G152" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Febriyanto Ahdiat', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Febriyanto Ahdiat'::varchar, null::bigint);</v>
       </c>
       <c r="I152" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="G153" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Febryan Mahsyar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Febryan Mahsyar'::varchar, null::bigint);</v>
       </c>
       <c r="I153" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="G154" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Felpy', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Felpy'::varchar, null::bigint);</v>
       </c>
       <c r="I154" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="G155" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Feri Priyanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Feri Priyanto'::varchar, null::bigint);</v>
       </c>
       <c r="I155" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="G156" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ferry P Simanjuntak', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ferry P Simanjuntak'::varchar, null::bigint);</v>
       </c>
       <c r="I156" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="G157" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fikri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fikri'::varchar, null::bigint);</v>
       </c>
       <c r="I157" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="G158" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Fikri Caesarandi Hasibuan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'M. Fikri Caesarandi Hasibuan'::varchar, null::bigint);</v>
       </c>
       <c r="I158" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="G159" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Firman Akbar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Firman Akbar'::varchar, null::bigint);</v>
       </c>
       <c r="I159" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="G160" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fitriastuti Kurnia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fitriastuti Kurnia'::varchar, null::bigint);</v>
       </c>
       <c r="I160" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="G161" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Francis Imanuel', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Francis Imanuel'::varchar, null::bigint);</v>
       </c>
       <c r="I161" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="G162" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Frando Judi Siahaan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Frando Judi Siahaan'::varchar, null::bigint);</v>
       </c>
       <c r="I162" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="G163" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Frederika Intan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Frederika Intan'::varchar, null::bigint);</v>
       </c>
       <c r="I163" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="G164" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuad Febrian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fuad Febrian'::varchar, null::bigint);</v>
       </c>
       <c r="I164" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="G165" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuzi Mafhrozi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fuzi Mafhrozi'::varchar, null::bigint);</v>
       </c>
       <c r="I165" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="G166" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Galuh Swastika', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Galuh Swastika'::varchar, null::bigint);</v>
       </c>
       <c r="I166" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="G167" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ganda Yuharis R.', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ganda Yuharis R.'::varchar, null::bigint);</v>
       </c>
       <c r="I167" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="G168" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gatot Harsono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gatot Harsono'::varchar, null::bigint);</v>
       </c>
       <c r="I168" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="G169" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gina Septa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gina Septa'::varchar, null::bigint);</v>
       </c>
       <c r="I169" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="G170" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Grace Kurniawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Grace Kurniawan'::varchar, null::bigint);</v>
       </c>
       <c r="I170" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="G171" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gunawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gunawan'::varchar, null::bigint);</v>
       </c>
       <c r="I171" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="G172" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gustia Rakhmanita', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gustia Rakhmanita'::varchar, null::bigint);</v>
       </c>
       <c r="I172" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="G173" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Habib Abdullah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Habib Abdullah'::varchar, null::bigint);</v>
       </c>
       <c r="I173" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="G174" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hadi Kasmuri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hadi Kasmuri'::varchar, null::bigint);</v>
       </c>
       <c r="I174" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="G175" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Haikal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Haikal'::varchar, null::bigint);</v>
       </c>
       <c r="I175" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="G176" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hanantowiryo Tamtama', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hanantowiryo Tamtama'::varchar, null::bigint);</v>
       </c>
       <c r="I176" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="G177" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Handoko', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Handoko'::varchar, null::bigint);</v>
       </c>
       <c r="I177" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="G178" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hanif Ashari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hanif Ashari'::varchar, null::bigint);</v>
       </c>
       <c r="I178" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="G179" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hanif Eko Saputro', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hanif Eko Saputro'::varchar, null::bigint);</v>
       </c>
       <c r="I179" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="G180" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hardianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hardianto'::varchar, null::bigint);</v>
       </c>
       <c r="I180" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="G181" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Harlen Amudi Purba', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Harlen Amudi Purba'::varchar, null::bigint);</v>
       </c>
       <c r="I181" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G182" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Harry Isnaeni', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Harry Isnaeni'::varchar, null::bigint);</v>
       </c>
       <c r="I182" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="G183" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hasan Gani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hasan Gani'::varchar, null::bigint);</v>
       </c>
       <c r="I183" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="G184" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hasrul', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hasrul'::varchar, null::bigint);</v>
       </c>
       <c r="I184" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="G185" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hendar Pambudi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hendar Pambudi'::varchar, null::bigint);</v>
       </c>
       <c r="I185" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="G186" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hendri Kustian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hendri Kustian'::varchar, null::bigint);</v>
       </c>
       <c r="I186" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="G187" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hendrik', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hendrik'::varchar, null::bigint);</v>
       </c>
       <c r="I187" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="G188" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herdi Yulia Rohmana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Herdi Yulia Rohmana'::varchar, null::bigint);</v>
       </c>
       <c r="I188" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="G189" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heri Susanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Heri Susanto'::varchar, null::bigint);</v>
       </c>
       <c r="I189" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="G190" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herlin Juli Asri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Herlin Juli Asri'::varchar, null::bigint);</v>
       </c>
       <c r="I190" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="G191" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herman Budoyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Herman Budoyo'::varchar, null::bigint);</v>
       </c>
       <c r="I191" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="G192" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herni Yuliati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Herni Yuliati'::varchar, null::bigint);</v>
       </c>
       <c r="I192" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="G193" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hernita Dwi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hernita Dwi'::varchar, null::bigint);</v>
       </c>
       <c r="I193" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="G194" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Herri Setyawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Herri Setyawan'::varchar, null::bigint);</v>
       </c>
       <c r="I194" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="G195" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heru Sugiri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Heru Sugiri'::varchar, null::bigint);</v>
       </c>
       <c r="I195" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="G196" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Hervian Bagus Saputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Hervian Bagus Saputra'::varchar, null::bigint);</v>
       </c>
       <c r="I196" s="1" t="str">
         <f t="shared" si="8"/>
@@ -8910,8 +8910,8 @@
         <v>25000000000194</v>
       </c>
       <c r="G197" s="24" t="str">
-        <f t="shared" ref="G197:G260" si="10">IF(EXACT(B197, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B197, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'H.R. Marlina S. T. R.', null);</v>
+        <f t="shared" ref="G197:G260" si="10">IF(EXACT(B197, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B197, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'H.R. Marlina S. T. R.'::varchar, null::bigint);</v>
       </c>
       <c r="I197" s="1" t="str">
         <f t="shared" ref="I197:I260" si="11">B197</f>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="G198" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ibrahim Soukani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ibrahim Soukani'::varchar, null::bigint);</v>
       </c>
       <c r="I198" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="G199" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Icha Mailinda Syamsoedin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Icha Mailinda Syamsoedin'::varchar, null::bigint);</v>
       </c>
       <c r="I199" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="G200" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ichsanudin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ichsanudin'::varchar, null::bigint);</v>
       </c>
       <c r="I200" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="G201" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ida Tri Wulaningsih', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ida Tri Wulaningsih'::varchar, null::bigint);</v>
       </c>
       <c r="I201" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G202" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idham', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Idham'::varchar, null::bigint);</v>
       </c>
       <c r="I202" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="G203" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idham Nasution', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Idham Nasution'::varchar, null::bigint);</v>
       </c>
       <c r="I203" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="G204" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Idian'::varchar, null::bigint);</v>
       </c>
       <c r="I204" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="G205" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ikun M. Soedrajat', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ikun M. Soedrajat'::varchar, null::bigint);</v>
       </c>
       <c r="I205" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="G206" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ilham Arisyandy', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ilham Arisyandy'::varchar, null::bigint);</v>
       </c>
       <c r="I206" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="G207" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ilham Akbar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ilham Akbar'::varchar, null::bigint);</v>
       </c>
       <c r="I207" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="G208" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imam Basuki', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Imam Basuki'::varchar, null::bigint);</v>
       </c>
       <c r="I208" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="G209" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imam Mustofa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Imam Mustofa'::varchar, null::bigint);</v>
       </c>
       <c r="I209" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="G210" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imam Safiiy', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Imam Safiiy'::varchar, null::bigint);</v>
       </c>
       <c r="I210" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="G211" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iman Hakiki', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iman Hakiki'::varchar, null::bigint);</v>
       </c>
       <c r="I211" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="G212" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imelda Claudia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Imelda Claudia'::varchar, null::bigint);</v>
       </c>
       <c r="I212" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="G213" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indawan Haryadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Indawan Haryadi'::varchar, null::bigint);</v>
       </c>
       <c r="I213" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="G214" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Jaya', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Indra Jaya'::varchar, null::bigint);</v>
       </c>
       <c r="I214" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G215" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Muchtar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Indra Muchtar'::varchar, null::bigint);</v>
       </c>
       <c r="I215" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="G216" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Irvan'::varchar, null::bigint);</v>
       </c>
       <c r="I216" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="G217" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus Dharma Eka Putra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Irvan Agus Dharma Eka Putra'::varchar, null::bigint);</v>
       </c>
       <c r="I217" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9352,7 +9352,7 @@
       </c>
       <c r="G218" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irwan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Irwan'::varchar, null::bigint);</v>
       </c>
       <c r="I218" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="G219" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Isa Anshori', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Isa Anshori'::varchar, null::bigint);</v>
       </c>
       <c r="I219" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9394,7 +9394,7 @@
       </c>
       <c r="G220" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Isa Taufiq', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Isa Taufiq'::varchar, null::bigint);</v>
       </c>
       <c r="I220" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="G221" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iskandarsyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iskandarsyah'::varchar, null::bigint);</v>
       </c>
       <c r="I221" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="G222" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Istanto Istanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Istanto Istanto'::varchar, null::bigint);</v>
       </c>
       <c r="I222" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="G223" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iswahyuni', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iswahyuni'::varchar, null::bigint);</v>
       </c>
       <c r="I223" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="G224" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iva Nurvahayati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iva Nurvahayati'::varchar, null::bigint);</v>
       </c>
       <c r="I224" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="G225" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iwan Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iwan Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I225" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="G226" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iwan Sumantri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iwan Sumantri'::varchar, null::bigint);</v>
       </c>
       <c r="I226" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="G227" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iwan Wibawa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iwan Wibawa'::varchar, null::bigint);</v>
       </c>
       <c r="I227" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="G228" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Iyus Darwin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iyus Darwin'::varchar, null::bigint);</v>
       </c>
       <c r="I228" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="G229" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaenudin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jaenudin'::varchar, null::bigint);</v>
       </c>
       <c r="I229" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="G230" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaruli Samosir', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jaruli Samosir'::varchar, null::bigint);</v>
       </c>
       <c r="I230" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="G231" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaya Ganef', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jaya Ganef'::varchar, null::bigint);</v>
       </c>
       <c r="I231" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="G232" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jaya Sitepu', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jaya Sitepu'::varchar, null::bigint);</v>
       </c>
       <c r="I232" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="G233" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jeefrianda H. P. Sigalingging', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jeefrianda H. P. Sigalingging'::varchar, null::bigint);</v>
       </c>
       <c r="I233" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="G234" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jerry Djajasaputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jerry Djajasaputra'::varchar, null::bigint);</v>
       </c>
       <c r="I234" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="G235" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jimmywal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jimmywal'::varchar, null::bigint);</v>
       </c>
       <c r="I235" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="G236" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jodie Satria', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jodie Satria'::varchar, null::bigint);</v>
       </c>
       <c r="I236" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="G237" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Johannes Silalahi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Johannes Silalahi'::varchar, null::bigint);</v>
       </c>
       <c r="I237" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="G238" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Joko Wiyono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Joko Wiyono'::varchar, null::bigint);</v>
       </c>
       <c r="I238" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="G239" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jondril Hantoni', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jondril Hantoni'::varchar, null::bigint);</v>
       </c>
       <c r="I239" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="G240" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jonhar Aziz', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jonhar Aziz'::varchar, null::bigint);</v>
       </c>
       <c r="I240" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="G241" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Juan Talitha', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Juan Talitha'::varchar, null::bigint);</v>
       </c>
       <c r="I241" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="G242" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Juharja Juharja', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Juharja Juharja'::varchar, null::bigint);</v>
       </c>
       <c r="I242" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="G243" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Juminar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Juminar'::varchar, null::bigint);</v>
       </c>
       <c r="I243" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="G244" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jumino', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jumino'::varchar, null::bigint);</v>
       </c>
       <c r="I244" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="G245" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Junaedi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Junaedi'::varchar, null::bigint);</v>
       </c>
       <c r="I245" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="G246" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Junaidi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Junaidi'::varchar, null::bigint);</v>
       </c>
       <c r="I246" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="G247" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jusuf Bobby Putra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jusuf Bobby Putra'::varchar, null::bigint);</v>
       </c>
       <c r="I247" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="G248" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Jusuf Gandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Jusuf Gandi'::varchar, null::bigint);</v>
       </c>
       <c r="I248" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="G249" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kahar Triyono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kahar Triyono'::varchar, null::bigint);</v>
       </c>
       <c r="I249" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="G250" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Keila', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Keila'::varchar, null::bigint);</v>
       </c>
       <c r="I250" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="G251" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kendra Daniswara', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kendra Daniswara'::varchar, null::bigint);</v>
       </c>
       <c r="I251" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="G252" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kevin Henokh Tambunan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kevin Henokh Tambunan'::varchar, null::bigint);</v>
       </c>
       <c r="I252" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="G253" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khafid Fahrurrozi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Khafid Fahrurrozi'::varchar, null::bigint);</v>
       </c>
       <c r="I253" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="G254" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kholik', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kholik'::varchar, null::bigint);</v>
       </c>
       <c r="I254" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="G255" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kiki Mustikawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kiki Mustikawati'::varchar, null::bigint);</v>
       </c>
       <c r="I255" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10150,7 +10150,7 @@
       </c>
       <c r="G256" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kornelius Sakan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kornelius Sakan'::varchar, null::bigint);</v>
       </c>
       <c r="I256" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="G257" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kosasih', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kosasih'::varchar, null::bigint);</v>
       </c>
       <c r="I257" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="G258" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Krisnawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Krisnawan'::varchar, null::bigint);</v>
       </c>
       <c r="I258" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="G259" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kurniadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kurniadi'::varchar, null::bigint);</v>
       </c>
       <c r="I259" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="G260" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Kurniawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Kurniawan'::varchar, null::bigint);</v>
       </c>
       <c r="I260" s="1" t="str">
         <f t="shared" si="11"/>
@@ -10254,8 +10254,8 @@
         <v>25000000000258</v>
       </c>
       <c r="G261" s="24" t="str">
-        <f t="shared" ref="G261:G324" si="13">IF(EXACT(B261, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B261, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Laode', null);</v>
+        <f t="shared" ref="G261:G324" si="13">IF(EXACT(B261, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B261, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Laode'::varchar, null::bigint);</v>
       </c>
       <c r="I261" s="1" t="str">
         <f t="shared" ref="I261:I324" si="14">B261</f>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="G262" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Leo Nababan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Leo Nababan'::varchar, null::bigint);</v>
       </c>
       <c r="I262" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="G263" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Liani Atmaningrum', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Liani Atmaningrum'::varchar, null::bigint);</v>
       </c>
       <c r="I263" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="G264" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Liaseptriani Liaseptriani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Liaseptriani Liaseptriani'::varchar, null::bigint);</v>
       </c>
       <c r="I264" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="G265" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Lisma Natalia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Lisma Natalia'::varchar, null::bigint);</v>
       </c>
       <c r="I265" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="G266" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Listyo Hartanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Listyo Hartanto'::varchar, null::bigint);</v>
       </c>
       <c r="I266" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="G267" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Ari Ardizah Nasution', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'M. Ari Ardizah Nasution'::varchar, null::bigint);</v>
       </c>
       <c r="I267" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="G268" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Denny  Micrazudin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'M. Denny  Micrazudin'::varchar, null::bigint);</v>
       </c>
       <c r="I268" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="G269" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Ridho Pramudia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'M. Ridho Pramudia'::varchar, null::bigint);</v>
       </c>
       <c r="I269" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="G270" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Rusdi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'M. Rusdi'::varchar, null::bigint);</v>
       </c>
       <c r="I270" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="G271" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'M. Ervan Isyawal Akbar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'M. Ervan Isyawal Akbar'::varchar, null::bigint);</v>
       </c>
       <c r="I271" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="G272" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Maharani Tanjungsari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Maharani Tanjungsari'::varchar, null::bigint);</v>
       </c>
       <c r="I272" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="G273" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Maharani Uthmaniah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Maharani Uthmaniah'::varchar, null::bigint);</v>
       </c>
       <c r="I273" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="G274" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Manotar Tamba', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Manotar Tamba'::varchar, null::bigint);</v>
       </c>
       <c r="I274" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="G275" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Maradona Manurung', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Maradona Manurung'::varchar, null::bigint);</v>
       </c>
       <c r="I275" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="G276" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pantas Banjarnahor Marbun', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Pantas Banjarnahor Marbun'::varchar, null::bigint);</v>
       </c>
       <c r="I276" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="G277" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marcella Avia Ramadhinaningrum', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Marcella Avia Ramadhinaningrum'::varchar, null::bigint);</v>
       </c>
       <c r="I277" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="G278" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marissa Watak', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Marissa Watak'::varchar, null::bigint);</v>
       </c>
       <c r="I278" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="G279" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marten Tabun', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Marten Tabun'::varchar, null::bigint);</v>
       </c>
       <c r="I279" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="G280" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Martimbul Rahman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Martimbul Rahman'::varchar, null::bigint);</v>
       </c>
       <c r="I280" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="G281" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'T. Marungkil U. S. Sagala', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'T. Marungkil U. S. Sagala'::varchar, null::bigint);</v>
       </c>
       <c r="I281" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="G282" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Marzuki', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Marzuki'::varchar, null::bigint);</v>
       </c>
       <c r="I282" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G283" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mashuri Mashuri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mashuri Mashuri'::varchar, null::bigint);</v>
       </c>
       <c r="I283" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="G284" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mat Soleh', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mat Soleh'::varchar, null::bigint);</v>
       </c>
       <c r="I284" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="G285" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mhd Syahputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mhd Syahputra'::varchar, null::bigint);</v>
       </c>
       <c r="I285" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="G286" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mia Puspitasari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mia Puspitasari'::varchar, null::bigint);</v>
       </c>
       <c r="I286" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="G287" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Midin Ena', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Midin Ena'::varchar, null::bigint);</v>
       </c>
       <c r="I287" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="G288" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Miftakhul Muzakky', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Miftakhul Muzakky'::varchar, null::bigint);</v>
       </c>
       <c r="I288" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="G289" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mista', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mista'::varchar, null::bigint);</v>
       </c>
       <c r="I289" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="G290" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mochamad Samman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mochamad Samman'::varchar, null::bigint);</v>
       </c>
       <c r="I290" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="G291" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Moh. Afif', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Moh. Afif'::varchar, null::bigint);</v>
       </c>
       <c r="I291" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="G292" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mohammad Arman Tompo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mohammad Arman Tompo'::varchar, null::bigint);</v>
       </c>
       <c r="I292" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="G293" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mohd. Elfan Pratama', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mohd. Elfan Pratama'::varchar, null::bigint);</v>
       </c>
       <c r="I293" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="G294" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Monang Simarmata', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Monang Simarmata'::varchar, null::bigint);</v>
       </c>
       <c r="I294" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="G295" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Moritz Thomsen Marbun', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Moritz Thomsen Marbun'::varchar, null::bigint);</v>
       </c>
       <c r="I295" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="G296" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhamad Hamdan Rifai', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhamad Hamdan Rifai'::varchar, null::bigint);</v>
       </c>
       <c r="I296" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G297" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhamad Ikhsan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhamad Ikhsan'::varchar, null::bigint);</v>
       </c>
       <c r="I297" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="G298" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhamad Nurhamsach', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhamad Nurhamsach'::varchar, null::bigint);</v>
       </c>
       <c r="I298" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="G299" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Ardiansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Ardiansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I299" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G300" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Khadafy', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Khadafy'::varchar, null::bigint);</v>
       </c>
       <c r="I300" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="G301" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Taufan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Taufan'::varchar, null::bigint);</v>
       </c>
       <c r="I301" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="G302" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muklis', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muklis'::varchar, null::bigint);</v>
       </c>
       <c r="I302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="G303" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mulia Rohanson Harahap', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mulia Rohanson Harahap'::varchar, null::bigint);</v>
       </c>
       <c r="I303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="G304" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mullan Tresna', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mullan Tresna'::varchar, null::bigint);</v>
       </c>
       <c r="I304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="G305" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mulyadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mulyadi'::varchar, null::bigint);</v>
       </c>
       <c r="I305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="G306" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mulyono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mulyono'::varchar, null::bigint);</v>
       </c>
       <c r="I306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="G307" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Murdiansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Murdiansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="G308" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Mursalim', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Mursalim'::varchar, null::bigint);</v>
       </c>
       <c r="I308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="G309" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nancy Meriana Sinaga', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nancy Meriana Sinaga'::varchar, null::bigint);</v>
       </c>
       <c r="I309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="G310" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nandang Effendi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nandang Effendi'::varchar, null::bigint);</v>
       </c>
       <c r="I310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="G311" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Narno', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Narno'::varchar, null::bigint);</v>
       </c>
       <c r="I311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="G312" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nasrul Anwar P.', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nasrul Anwar P.'::varchar, null::bigint);</v>
       </c>
       <c r="I312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="G313" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nawal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nawal'::varchar, null::bigint);</v>
       </c>
       <c r="I313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="G314" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nawir Lahamutu', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nawir Lahamutu'::varchar, null::bigint);</v>
       </c>
       <c r="I314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="G315" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nicky Kurnia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nicky Kurnia'::varchar, null::bigint);</v>
       </c>
       <c r="I315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="G316" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Noercholis Firmansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Noercholis Firmansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="G317" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nopitasari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nopitasari'::varchar, null::bigint);</v>
       </c>
       <c r="I317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="G318" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nora Meilissa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nora Meilissa'::varchar, null::bigint);</v>
       </c>
       <c r="I318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="G319" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novalia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Novalia'::varchar, null::bigint);</v>
       </c>
       <c r="I319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G320" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novan Nugraha', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Novan Nugraha'::varchar, null::bigint);</v>
       </c>
       <c r="I320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="G321" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nugraha', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nugraha'::varchar, null::bigint);</v>
       </c>
       <c r="I321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="G322" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nugroho Putranto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nugroho Putranto'::varchar, null::bigint);</v>
       </c>
       <c r="I322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="G323" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nur Indra Sri Melati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nur Indra Sri Melati'::varchar, null::bigint);</v>
       </c>
       <c r="I323" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="G324" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nur Kusumowati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nur Kusumowati'::varchar, null::bigint);</v>
       </c>
       <c r="I324" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11598,8 +11598,8 @@
         <v>25000000000322</v>
       </c>
       <c r="G325" s="24" t="str">
-        <f t="shared" ref="G325:G388" si="16">IF(EXACT(B325, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B325, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nurhidayat', null);</v>
+        <f t="shared" ref="G325:G388" si="16">IF(EXACT(B325, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B325, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nurhidayat'::varchar, null::bigint);</v>
       </c>
       <c r="I325" s="1" t="str">
         <f t="shared" ref="I325:I388" si="17">B325</f>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="G326" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Otong Bustori', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Otong Bustori'::varchar, null::bigint);</v>
       </c>
       <c r="I326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="G327" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Paino Suprayinto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Paino Suprayinto'::varchar, null::bigint);</v>
       </c>
       <c r="I327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="G328" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Panca Yudi Baskoro', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Panca Yudi Baskoro'::varchar, null::bigint);</v>
       </c>
       <c r="I328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="G329" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Panji Bima Santri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Panji Bima Santri'::varchar, null::bigint);</v>
       </c>
       <c r="I329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="G330" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Parulian Napitupulu', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Parulian Napitupulu'::varchar, null::bigint);</v>
       </c>
       <c r="I330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="G331" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Paryanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Paryanto'::varchar, null::bigint);</v>
       </c>
       <c r="I331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="G332" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pikri Hidayat', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Pikri Hidayat'::varchar, null::bigint);</v>
       </c>
       <c r="I332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="G333" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Prayanti Dewi Anggraini', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Prayanti Dewi Anggraini'::varchar, null::bigint);</v>
       </c>
       <c r="I333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="G334" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Prayati Zai', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Prayati Zai'::varchar, null::bigint);</v>
       </c>
       <c r="I334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="G335" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Pristu Andonoto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Pristu Andonoto'::varchar, null::bigint);</v>
       </c>
       <c r="I335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="G336" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Putra Perdana Tirtomoyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Putra Perdana Tirtomoyo'::varchar, null::bigint);</v>
       </c>
       <c r="I336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="G337" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'R. Lar Kumalaning Tresno', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'R. Lar Kumalaning Tresno'::varchar, null::bigint);</v>
       </c>
       <c r="I337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="G338" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rachmad', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rachmad'::varchar, null::bigint);</v>
       </c>
       <c r="I338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="G339" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Radjiman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Radjiman'::varchar, null::bigint);</v>
       </c>
       <c r="I339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="G340" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rafi Firman Saputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rafi Firman Saputra'::varchar, null::bigint);</v>
       </c>
       <c r="I340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="G341" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmat Riyadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rahmat Riyadi'::varchar, null::bigint);</v>
       </c>
       <c r="I341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="G342" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmat Sirfano', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rahmat Sirfano'::varchar, null::bigint);</v>
       </c>
       <c r="I342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="G343" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rais Indra Noor', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rais Indra Noor'::varchar, null::bigint);</v>
       </c>
       <c r="I343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="G344" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rakman A. Hadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rakman A. Hadi'::varchar, null::bigint);</v>
       </c>
       <c r="I344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="G345" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ramaizon', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ramaizon'::varchar, null::bigint);</v>
       </c>
       <c r="I345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="G346" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rangga Darmawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rangga Darmawan'::varchar, null::bigint);</v>
       </c>
       <c r="I346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="G347" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Raoli Nainggolan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Raoli Nainggolan'::varchar, null::bigint);</v>
       </c>
       <c r="I347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="G348" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rayan Suryadikara', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rayan Suryadikara'::varchar, null::bigint);</v>
       </c>
       <c r="I348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="G349" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Redi Setiadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Redi Setiadi'::varchar, null::bigint);</v>
       </c>
       <c r="I349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="G350" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Redi Subekti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Redi Subekti'::varchar, null::bigint);</v>
       </c>
       <c r="I350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="G351" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rendy Prananta Purba', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rendy Prananta Purba'::varchar, null::bigint);</v>
       </c>
       <c r="I351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="G352" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Reni Septiana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Reni Septiana'::varchar, null::bigint);</v>
       </c>
       <c r="I352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="G353" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rere Ronggolawe', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rere Ronggolawe'::varchar, null::bigint);</v>
       </c>
       <c r="I353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="G354" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Retnasha Gameswari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Retnasha Gameswari'::varchar, null::bigint);</v>
       </c>
       <c r="I354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="G355" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rhino Priawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rhino Priawan'::varchar, null::bigint);</v>
       </c>
       <c r="I355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="G356" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rian Yushak', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rian Yushak'::varchar, null::bigint);</v>
       </c>
       <c r="I356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="G357" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Riandi'::varchar, null::bigint);</v>
       </c>
       <c r="I357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="G358" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ricky Samuel', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ricky Samuel'::varchar, null::bigint);</v>
       </c>
       <c r="I358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="G359" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ridwan Nurhadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ridwan Nurhadi'::varchar, null::bigint);</v>
       </c>
       <c r="I359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12334,7 +12334,7 @@
       </c>
       <c r="G360" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rifki', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rifki'::varchar, null::bigint);</v>
       </c>
       <c r="I360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="G361" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rika Ginting', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rika Ginting'::varchar, null::bigint);</v>
       </c>
       <c r="I361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="G362" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riki Chairul Anwar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Riki Chairul Anwar'::varchar, null::bigint);</v>
       </c>
       <c r="I362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="G363" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riki Evindra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Riki Evindra'::varchar, null::bigint);</v>
       </c>
       <c r="I363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="G364" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rinaldi Asrin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rinaldi Asrin'::varchar, null::bigint);</v>
       </c>
       <c r="I364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="G365" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rio Hakim', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rio Hakim'::varchar, null::bigint);</v>
       </c>
       <c r="I365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="G366" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rio Martha', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rio Martha'::varchar, null::bigint);</v>
       </c>
       <c r="I366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="G367" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Risdyanto Risdyanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Risdyanto Risdyanto'::varchar, null::bigint);</v>
       </c>
       <c r="I367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12502,7 +12502,7 @@
       </c>
       <c r="G368" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizak Tri Septian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rizak Tri Septian'::varchar, null::bigint);</v>
       </c>
       <c r="I368" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="G369" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizki Akbar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rizki Akbar'::varchar, null::bigint);</v>
       </c>
       <c r="I369" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="G370" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizky Fauzy', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rizky Fauzy'::varchar, null::bigint);</v>
       </c>
       <c r="I370" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="G371" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizky Reza Pradipta', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rizky Reza Pradipta'::varchar, null::bigint);</v>
       </c>
       <c r="I371" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="G372" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rohendi Rohendi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rohendi Rohendi'::varchar, null::bigint);</v>
       </c>
       <c r="I372" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="G373" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rohmani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rohmani'::varchar, null::bigint);</v>
       </c>
       <c r="I373" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="G374" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rommel Hutapea', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rommel Hutapea'::varchar, null::bigint);</v>
       </c>
       <c r="I374" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="G375" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Roy Aditya', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Roy Aditya'::varchar, null::bigint);</v>
       </c>
       <c r="I375" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="G376" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rubah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rubah'::varchar, null::bigint);</v>
       </c>
       <c r="I376" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="G377" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rudi Junaedi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rudi Junaedi'::varchar, null::bigint);</v>
       </c>
       <c r="I377" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="G378" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ruswandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ruswandi'::varchar, null::bigint);</v>
       </c>
       <c r="I378" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="G379" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ryan Bagus Sasminta', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ryan Bagus Sasminta'::varchar, null::bigint);</v>
       </c>
       <c r="I379" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="G380" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saarah Andriani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Saarah Andriani'::varchar, null::bigint);</v>
       </c>
       <c r="I380" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="G381" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Safira Nurbaiti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Safira Nurbaiti'::varchar, null::bigint);</v>
       </c>
       <c r="I381" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="G382" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saifulloh', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Saifulloh'::varchar, null::bigint);</v>
       </c>
       <c r="I382" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="G383" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saifuloh', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Saifuloh'::varchar, null::bigint);</v>
       </c>
       <c r="I383" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="G384" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sakinah Tantriani Lubis', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sakinah Tantriani Lubis'::varchar, null::bigint);</v>
       </c>
       <c r="I384" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="G385" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Samad', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdul Samad'::varchar, null::bigint);</v>
       </c>
       <c r="I385" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="G386" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Samsul Hadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Samsul Hadi'::varchar, null::bigint);</v>
       </c>
       <c r="I386" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="G387" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sandika', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sandika'::varchar, null::bigint);</v>
       </c>
       <c r="I387" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="G388" s="24" t="str">
         <f t="shared" si="16"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sang Toga Sitompul', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sang Toga Sitompul'::varchar, null::bigint);</v>
       </c>
       <c r="I388" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12942,8 +12942,8 @@
         <v>25000000000386</v>
       </c>
       <c r="G389" s="24" t="str">
-        <f t="shared" ref="G389:G452" si="19">IF(EXACT(B389, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B389, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Santi Dewi R. W.', null);</v>
+        <f t="shared" ref="G389:G452" si="19">IF(EXACT(B389, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B389, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Santi Dewi R. W.'::varchar, null::bigint);</v>
       </c>
       <c r="I389" s="1" t="str">
         <f t="shared" ref="I389:I452" si="20">B389</f>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="G390" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sarah Sibarani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sarah Sibarani'::varchar, null::bigint);</v>
       </c>
       <c r="I390" s="1" t="str">
         <f t="shared" si="20"/>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="G391" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sarif Hidayatul Umah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sarif Hidayatul Umah'::varchar, null::bigint);</v>
       </c>
       <c r="I391" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="G392" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Satria Budi Raharja', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Satria Budi Raharja'::varchar, null::bigint);</v>
       </c>
       <c r="I392" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="G393" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Saut M. P. L. Tobing', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Saut M. P. L. Tobing'::varchar, null::bigint);</v>
       </c>
       <c r="I393" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="G394" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Seftiyan Hadi Maulana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Seftiyan Hadi Maulana'::varchar, null::bigint);</v>
       </c>
       <c r="I394" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="G395" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sena Andi Satria', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sena Andi Satria'::varchar, null::bigint);</v>
       </c>
       <c r="I395" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="G396" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Setiadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Setiadi'::varchar, null::bigint);</v>
       </c>
       <c r="I396" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="G397" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sherly Tamira', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sherly Tamira'::varchar, null::bigint);</v>
       </c>
       <c r="I397" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="G398" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Shihab', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Shihab'::varchar, null::bigint);</v>
       </c>
       <c r="I398" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="G399" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Shobarin Jabar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Shobarin Jabar'::varchar, null::bigint);</v>
       </c>
       <c r="I399" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="G400" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sholehah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sholehah'::varchar, null::bigint);</v>
       </c>
       <c r="I400" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13195,7 +13195,7 @@
       </c>
       <c r="G401" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sigit Rudiantono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sigit Rudiantono'::varchar, null::bigint);</v>
       </c>
       <c r="I401" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="G402" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Silvia Putri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Silvia Putri'::varchar, null::bigint);</v>
       </c>
       <c r="I402" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="G403" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Simron Ronaldi Nasution', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Simron Ronaldi Nasution'::varchar, null::bigint);</v>
       </c>
       <c r="I403" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="G404" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sinta Vera Trikawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sinta Vera Trikawati'::varchar, null::bigint);</v>
       </c>
       <c r="I404" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="G405" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sir Muhammad Zafrulloh Khan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sir Muhammad Zafrulloh Khan'::varchar, null::bigint);</v>
       </c>
       <c r="I405" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13300,7 +13300,7 @@
       </c>
       <c r="G406" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Siska Marlina', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Siska Marlina'::varchar, null::bigint);</v>
       </c>
       <c r="I406" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="G407" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Siswanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Siswanto'::varchar, null::bigint);</v>
       </c>
       <c r="I407" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="G408" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Siti Mulyani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Siti Mulyani'::varchar, null::bigint);</v>
       </c>
       <c r="I408" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="G409" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sjanti Devi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sjanti Devi'::varchar, null::bigint);</v>
       </c>
       <c r="I409" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="G410" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Slamet Budi Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Slamet Budi Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I410" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="G411" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sofyan Maulana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sofyan Maulana'::varchar, null::bigint);</v>
       </c>
       <c r="I411" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="G412" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Subagio', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Subagio'::varchar, null::bigint);</v>
       </c>
       <c r="I412" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="G413" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suci Mardiana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suci Mardiana'::varchar, null::bigint);</v>
       </c>
       <c r="I413" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="G414" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suci Rachma Sari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suci Rachma Sari'::varchar, null::bigint);</v>
       </c>
       <c r="I414" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="G415" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudarlan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sudarlan'::varchar, null::bigint);</v>
       </c>
       <c r="I415" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="G416" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sufie Amalia', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sufie Amalia'::varchar, null::bigint);</v>
       </c>
       <c r="I416" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="G417" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sugeng Ismanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sugeng Ismanto'::varchar, null::bigint);</v>
       </c>
       <c r="I417" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="G418" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sugiarto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sugiarto'::varchar, null::bigint);</v>
       </c>
       <c r="I418" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="G419" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sulih', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sulih'::varchar, null::bigint);</v>
       </c>
       <c r="I419" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="G420" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sumadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sumadi'::varchar, null::bigint);</v>
       </c>
       <c r="I420" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="G421" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sumirat', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sumirat'::varchar, null::bigint);</v>
       </c>
       <c r="I421" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="G422" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sunaryati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sunaryati'::varchar, null::bigint);</v>
       </c>
       <c r="I422" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="G423" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Supriyadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Supriyadi'::varchar, null::bigint);</v>
       </c>
       <c r="I423" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="G424" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suriono Suriono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suriono Suriono'::varchar, null::bigint);</v>
       </c>
       <c r="I424" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="G425" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Surono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Surono'::varchar, null::bigint);</v>
       </c>
       <c r="I425" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="G426" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Surtoyo Syukri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Surtoyo Syukri'::varchar, null::bigint);</v>
       </c>
       <c r="I426" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="G427" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suryadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suryadi'::varchar, null::bigint);</v>
       </c>
       <c r="I427" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="G428" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Susilawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Susilawati'::varchar, null::bigint);</v>
       </c>
       <c r="I428" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="G429" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sutarno', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sutarno'::varchar, null::bigint);</v>
       </c>
       <c r="I429" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="G430" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sutra Riandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sutra Riandi'::varchar, null::bigint);</v>
       </c>
       <c r="I430" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="G431" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suyanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suyanto'::varchar, null::bigint);</v>
       </c>
       <c r="I431" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="G432" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Swar Jono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Swar Jono'::varchar, null::bigint);</v>
       </c>
       <c r="I432" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="G433" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syafruddin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Syafruddin'::varchar, null::bigint);</v>
       </c>
       <c r="I433" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="G434" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syafrudin Machmud', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Syafrudin Machmud'::varchar, null::bigint);</v>
       </c>
       <c r="I434" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="G435" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syahrizal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Syahrizal'::varchar, null::bigint);</v>
       </c>
       <c r="I435" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="G436" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Syaiful Idjam', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Syaiful Idjam'::varchar, null::bigint);</v>
       </c>
       <c r="I436" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="G437" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tajuddin Assubki Ismail', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tajuddin Assubki Ismail'::varchar, null::bigint);</v>
       </c>
       <c r="I437" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="G438" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taslim', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Taslim'::varchar, null::bigint);</v>
       </c>
       <c r="I438" s="1" t="str">
         <f t="shared" si="20"/>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="G439" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taufik Mulia Pane', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Taufik Mulia Pane'::varchar, null::bigint);</v>
       </c>
       <c r="I439" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14014,7 +14014,7 @@
       </c>
       <c r="G440" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tedy Harseno', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tedy Harseno'::varchar, null::bigint);</v>
       </c>
       <c r="I440" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="G441" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teguh Joko Pamuji', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Teguh Joko Pamuji'::varchar, null::bigint);</v>
       </c>
       <c r="I441" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="G442" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teguh Pratama Januzir Sukin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Teguh Pratama Januzir Sukin'::varchar, null::bigint);</v>
       </c>
       <c r="I442" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14079,7 +14079,7 @@
       </c>
       <c r="G443" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teguh Susanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Teguh Susanto'::varchar, null::bigint);</v>
       </c>
       <c r="I443" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="G444" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tenri Sumange', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tenri Sumange'::varchar, null::bigint);</v>
       </c>
       <c r="I444" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="G445" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Teuku Zulkifli', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Teuku Zulkifli'::varchar, null::bigint);</v>
       </c>
       <c r="I445" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="G446" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tiara Kemalasari', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tiara Kemalasari'::varchar, null::bigint);</v>
       </c>
       <c r="I446" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="G447" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tjhang Linawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tjhang Linawati'::varchar, null::bigint);</v>
       </c>
       <c r="I447" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="G448" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Totok Kristianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Totok Kristianto'::varchar, null::bigint);</v>
       </c>
       <c r="I448" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="G449" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tri Aji', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tri Aji'::varchar, null::bigint);</v>
       </c>
       <c r="I449" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14226,7 +14226,7 @@
       </c>
       <c r="G450" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tri M. Saputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tri M. Saputra'::varchar, null::bigint);</v>
       </c>
       <c r="I450" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="G451" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Triani Irma', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Triani Irma'::varchar, null::bigint);</v>
       </c>
       <c r="I451" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="G452" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Trisyanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Trisyanto'::varchar, null::bigint);</v>
       </c>
       <c r="I452" s="1" t="str">
         <f t="shared" si="20"/>
@@ -14288,8 +14288,8 @@
         <v>25000000000450</v>
       </c>
       <c r="G453" s="24" t="str">
-        <f t="shared" ref="G453:G516" si="22">IF(EXACT(B453, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B453, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Triwiarti Dibya', null);</v>
+        <f t="shared" ref="G453:G516" si="22">IF(EXACT(B453, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B453, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Triwiarti Dibya'::varchar, null::bigint);</v>
       </c>
       <c r="I453" s="1" t="str">
         <f t="shared" ref="I453:I516" si="23">B453</f>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="G454" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Triyono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Triyono'::varchar, null::bigint);</v>
       </c>
       <c r="I454" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="G455" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Turita Pramuning Marantina', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Turita Pramuning Marantina'::varchar, null::bigint);</v>
       </c>
       <c r="I455" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="G456" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tutus Ary', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tutus Ary'::varchar, null::bigint);</v>
       </c>
       <c r="I456" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="G457" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ubaidillah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ubaidillah'::varchar, null::bigint);</v>
       </c>
       <c r="I457" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="G458" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ujang Barma', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ujang Barma'::varchar, null::bigint);</v>
       </c>
       <c r="I458" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="G459" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ujang Suryana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ujang Suryana'::varchar, null::bigint);</v>
       </c>
       <c r="I459" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14436,7 +14436,7 @@
       </c>
       <c r="G460" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ulman Juanda', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ulman Juanda'::varchar, null::bigint);</v>
       </c>
       <c r="I460" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="G461" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Urbanus', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Urbanus'::varchar, null::bigint);</v>
       </c>
       <c r="I461" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="G462" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Uswatun Hasamah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Uswatun Hasamah'::varchar, null::bigint);</v>
       </c>
       <c r="I462" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="G463" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Uswatun Khasanah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Uswatun Khasanah'::varchar, null::bigint);</v>
       </c>
       <c r="I463" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14520,7 +14520,7 @@
       </c>
       <c r="G464" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Utami Dewi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Utami Dewi'::varchar, null::bigint);</v>
       </c>
       <c r="I464" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14541,7 +14541,7 @@
       </c>
       <c r="G465" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Utanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Utanto'::varchar, null::bigint);</v>
       </c>
       <c r="I465" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="G466" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Veradita Yulanda', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Veradita Yulanda'::varchar, null::bigint);</v>
       </c>
       <c r="I466" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="G467" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vidhy Kartika Putri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Vidhy Kartika Putri'::varchar, null::bigint);</v>
       </c>
       <c r="I467" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="G468" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vonny Agram', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Vonny Agram'::varchar, null::bigint);</v>
       </c>
       <c r="I468" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="G469" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wahyu'::varchar, null::bigint);</v>
       </c>
       <c r="I469" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="G470" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Ramadhani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wahyu Ramadhani'::varchar, null::bigint);</v>
       </c>
       <c r="I470" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="G471" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Widodo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wahyu Widodo'::varchar, null::bigint);</v>
       </c>
       <c r="I471" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="G472" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Warsito Edy Saputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Warsito Edy Saputra'::varchar, null::bigint);</v>
       </c>
       <c r="I472" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="G473" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Weldi Wimar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Weldi Wimar'::varchar, null::bigint);</v>
       </c>
       <c r="I473" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="G474" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wendy Septiyan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wendy Septiyan'::varchar, null::bigint);</v>
       </c>
       <c r="I474" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="G475" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Willy Indarto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Willy Indarto'::varchar, null::bigint);</v>
       </c>
       <c r="I475" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="G476" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Winda Suherman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Winda Suherman'::varchar, null::bigint);</v>
       </c>
       <c r="I476" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="G477" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Ardian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wisnu Ardian'::varchar, null::bigint);</v>
       </c>
       <c r="I477" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="G478" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisudanto C. Suntoyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wisudanto C. Suntoyo'::varchar, null::bigint);</v>
       </c>
       <c r="I478" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="G479" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yahya Adyasa Febriansyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yahya Adyasa Febriansyah'::varchar, null::bigint);</v>
       </c>
       <c r="I479" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="G480" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yakup Sunaryo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yakup Sunaryo'::varchar, null::bigint);</v>
       </c>
       <c r="I480" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="G481" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yanuar Tri Ananda', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yanuar Tri Ananda'::varchar, null::bigint);</v>
       </c>
       <c r="I481" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="G482" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yasir Liem', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yasir Liem'::varchar, null::bigint);</v>
       </c>
       <c r="I482" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="G483" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yefri Hendrayani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yefri Hendrayani'::varchar, null::bigint);</v>
       </c>
       <c r="I483" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="G484" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yessi Setiarini', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yessi Setiarini'::varchar, null::bigint);</v>
       </c>
       <c r="I484" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="G485" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yorid Fae', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yorid Fae'::varchar, null::bigint);</v>
       </c>
       <c r="I485" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="G486" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yosef Hang Wan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yosef Hang Wan'::varchar, null::bigint);</v>
       </c>
       <c r="I486" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="G487" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yossie Deliana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yossie Deliana'::varchar, null::bigint);</v>
       </c>
       <c r="I487" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15024,7 +15024,7 @@
       </c>
       <c r="G488" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yudi Rahmadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yudi Rahmadi'::varchar, null::bigint);</v>
       </c>
       <c r="I488" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="G489" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yudo Jati Rahmat Satrio', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yudo Jati Rahmat Satrio'::varchar, null::bigint);</v>
       </c>
       <c r="I489" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="G490" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yuliandaru Suryoatmodjo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yuliandaru Suryoatmodjo'::varchar, null::bigint);</v>
       </c>
       <c r="I490" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="G491" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yulianta', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yulianta'::varchar, null::bigint);</v>
       </c>
       <c r="I491" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="G492" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yulianti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yulianti'::varchar, null::bigint);</v>
       </c>
       <c r="I492" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="G493" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yulius', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yulius'::varchar, null::bigint);</v>
       </c>
       <c r="I493" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="G494" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yunni Sazili', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yunni Sazili'::varchar, null::bigint);</v>
       </c>
       <c r="I494" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="G495" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yusman'::varchar, null::bigint);</v>
       </c>
       <c r="I495" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="G496" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusri Azhar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yusri Azhar'::varchar, null::bigint);</v>
       </c>
       <c r="I496" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="G497" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zafrizal', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zafrizal'::varchar, null::bigint);</v>
       </c>
       <c r="I497" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15234,7 +15234,7 @@
       </c>
       <c r="G498" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zafrizal Rifla (Ucok)', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zafrizal Rifla (Ucok)'::varchar, null::bigint);</v>
       </c>
       <c r="I498" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="G499" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainuddin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zainuddin'::varchar, null::bigint);</v>
       </c>
       <c r="I499" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15276,7 +15276,7 @@
       </c>
       <c r="G500" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainudin Anwar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zainudin Anwar'::varchar, null::bigint);</v>
       </c>
       <c r="I500" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="G501" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zaire Dite Biscaya', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zaire Dite Biscaya'::varchar, null::bigint);</v>
       </c>
       <c r="I501" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="G502" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zalfi Yandri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zalfi Yandri'::varchar, null::bigint);</v>
       </c>
       <c r="I502" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15339,7 +15339,7 @@
       </c>
       <c r="G503" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zam Roji', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zam Roji'::varchar, null::bigint);</v>
       </c>
       <c r="I503" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="G504" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zulfikar Siregar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zulfikar Siregar'::varchar, null::bigint);</v>
       </c>
       <c r="I504" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="G505" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adythia Adikara', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Adythia Adikara'::varchar, null::bigint);</v>
       </c>
       <c r="I505" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15405,7 +15405,7 @@
       </c>
       <c r="G506" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Sopyan Hadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agus Sopyan Hadi'::varchar, null::bigint);</v>
       </c>
       <c r="I506" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="G507" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Azis Purwandana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Azis Purwandana'::varchar, null::bigint);</v>
       </c>
       <c r="I507" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="G508" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Heryanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Heryanto'::varchar, null::bigint);</v>
       </c>
       <c r="I508" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="G509" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Imran', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Imran'::varchar, null::bigint);</v>
       </c>
       <c r="I509" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="G510" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khamim Taryono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Khamim Taryono'::varchar, null::bigint);</v>
       </c>
       <c r="I510" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="G511" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rafi Artman Siddiq', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rafi Artman Siddiq'::varchar, null::bigint);</v>
       </c>
       <c r="I511" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="G512" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Riza Emir Subekti', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Riza Emir Subekti'::varchar, null::bigint);</v>
       </c>
       <c r="I512" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15552,7 +15552,7 @@
       </c>
       <c r="G513" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Slamet Riadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Slamet Riadi'::varchar, null::bigint);</v>
       </c>
       <c r="I513" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="G514" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Andra Isdianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wisnu Andra Isdianto'::varchar, null::bigint);</v>
       </c>
       <c r="I514" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15597,7 +15597,7 @@
       </c>
       <c r="G515" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Budi Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agus Budi Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I515" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="G516" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Choerul', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Choerul'::varchar, null::bigint);</v>
       </c>
       <c r="I516" s="1" t="str">
         <f t="shared" si="23"/>
@@ -15638,8 +15638,8 @@
         <v>25000000000514</v>
       </c>
       <c r="G517" s="24" t="str">
-        <f t="shared" ref="G517:G580" si="25">IF(EXACT(B517, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B517, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Achmad Yunadi', null);</v>
+        <f t="shared" ref="G517:G580" si="25">IF(EXACT(B517, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B517, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Achmad Yunadi'::varchar, null::bigint);</v>
       </c>
       <c r="I517" s="1" t="str">
         <f t="shared" ref="I517:I555" si="26">B517</f>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="G518" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Asep mulyana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Asep mulyana'::varchar, null::bigint);</v>
       </c>
       <c r="I518" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="G519" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Bagus Isdiantara', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Bagus Isdiantara'::varchar, null::bigint);</v>
       </c>
       <c r="I519" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G520" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Cahyana', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Cahyana'::varchar, null::bigint);</v>
       </c>
       <c r="I520" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="G521" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dede Hartanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dede Hartanto'::varchar, null::bigint);</v>
       </c>
       <c r="I521" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="G522" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Denny Achmad Ferlando', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Denny Achmad Ferlando'::varchar, null::bigint);</v>
       </c>
       <c r="I522" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="G523" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dian Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I523" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15786,7 +15786,7 @@
       </c>
       <c r="G524" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fabrian Danang Destiyara', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fabrian Danang Destiyara'::varchar, null::bigint);</v>
       </c>
       <c r="I524" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15807,7 +15807,7 @@
       </c>
       <c r="G525" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ferdian Kriswantoro', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ferdian Kriswantoro'::varchar, null::bigint);</v>
       </c>
       <c r="I525" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="G526" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Fuzi Mafrozi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fuzi Mafrozi'::varchar, null::bigint);</v>
       </c>
       <c r="I526" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15849,7 +15849,7 @@
       </c>
       <c r="G527" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Gilang Setiawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gilang Setiawan'::varchar, null::bigint);</v>
       </c>
       <c r="I527" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="G528" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Idris Affandi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Idris Affandi'::varchar, null::bigint);</v>
       </c>
       <c r="I528" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="G529" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Indra Wijaya', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Indra Wijaya'::varchar, null::bigint);</v>
       </c>
       <c r="I529" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15912,7 +15912,7 @@
       </c>
       <c r="G530" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irma Maulidawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Irma Maulidawati'::varchar, null::bigint);</v>
       </c>
       <c r="I530" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="G531" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Istikaro Fauziah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Istikaro Fauziah'::varchar, null::bigint);</v>
       </c>
       <c r="I531" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15954,7 +15954,7 @@
       </c>
       <c r="G532" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Lukbani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Lukbani'::varchar, null::bigint);</v>
       </c>
       <c r="I532" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="G533" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Sholikhun', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Sholikhun'::varchar, null::bigint);</v>
       </c>
       <c r="I533" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="G534" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Syarifudin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Syarifudin'::varchar, null::bigint);</v>
       </c>
       <c r="I534" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16017,7 +16017,7 @@
       </c>
       <c r="G535" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nadia Rizkiah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nadia Rizkiah'::varchar, null::bigint);</v>
       </c>
       <c r="I535" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16038,7 +16038,7 @@
       </c>
       <c r="G536" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nikko Septian', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nikko Septian'::varchar, null::bigint);</v>
       </c>
       <c r="I536" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="G537" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Novizan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Novizan'::varchar, null::bigint);</v>
       </c>
       <c r="I537" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="G538" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Oqi Suhaqi Yunus', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Oqi Suhaqi Yunus'::varchar, null::bigint);</v>
       </c>
       <c r="I538" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="G539" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Restu Dwi Anjayani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Restu Dwi Anjayani'::varchar, null::bigint);</v>
       </c>
       <c r="I539" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="G540" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rizal Amri', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rizal Amri'::varchar, null::bigint);</v>
       </c>
       <c r="I540" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="G541" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ronny Anindika Arnold', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ronny Anindika Arnold'::varchar, null::bigint);</v>
       </c>
       <c r="I541" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16164,7 +16164,7 @@
       </c>
       <c r="G542" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Samta Harahap', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Samta Harahap'::varchar, null::bigint);</v>
       </c>
       <c r="I542" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="G543" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Vingky Hendriek Yomerlin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Vingky Hendriek Yomerlin'::varchar, null::bigint);</v>
       </c>
       <c r="I543" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G544" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wahyu Teluk Naga', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wahyu Teluk Naga'::varchar, null::bigint);</v>
       </c>
       <c r="I544" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="G545" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wardah Laily Khoiriyah', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wardah Laily Khoiriyah'::varchar, null::bigint);</v>
       </c>
       <c r="I545" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16248,7 +16248,7 @@
       </c>
       <c r="G546" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wawan Kusworo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wawan Kusworo'::varchar, null::bigint);</v>
       </c>
       <c r="I546" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="G547" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wulanraniasih', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wulanraniasih'::varchar, null::bigint);</v>
       </c>
       <c r="I547" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="G548" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogi Perbangkara', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yogi Perbangkara'::varchar, null::bigint);</v>
       </c>
       <c r="I548" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="G549" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusuf Fathurahman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yusuf Fathurahman'::varchar, null::bigint);</v>
       </c>
       <c r="I549" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="G550" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zeinurani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zeinurani'::varchar, null::bigint);</v>
       </c>
       <c r="I550" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="G551" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sulaeman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sulaeman'::varchar, null::bigint);</v>
       </c>
       <c r="I551" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="G552" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Agus Nuryadi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Agus Nuryadi'::varchar, null::bigint);</v>
       </c>
       <c r="I552" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="G553" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Dian Tri Rahmawati', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Dian Tri Rahmawati'::varchar, null::bigint);</v>
       </c>
       <c r="I553" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="G554" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Langgeng Eko Dwiantoro', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Langgeng Eko Dwiantoro'::varchar, null::bigint);</v>
       </c>
       <c r="I554" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="G555" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aldi Rizaldi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Aldi Rizaldi'::varchar, null::bigint);</v>
       </c>
       <c r="I555" s="1" t="str">
         <f t="shared" si="26"/>
@@ -16456,7 +16456,7 @@
       </c>
       <c r="G556" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Masimin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Masimin'::varchar, null::bigint);</v>
       </c>
       <c r="I556" s="1" t="str">
         <f t="shared" ref="I556:I569" si="27">B556</f>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="G557" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Santoso Dwi Cahyo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Santoso Dwi Cahyo'::varchar, null::bigint);</v>
       </c>
       <c r="I557" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="G558" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wartono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wartono'::varchar, null::bigint);</v>
       </c>
       <c r="I558" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="G559" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yusarman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yusarman'::varchar, null::bigint);</v>
       </c>
       <c r="I559" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="G560" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Abdul Rachman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Abdul Rachman'::varchar, null::bigint);</v>
       </c>
       <c r="I560" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="G561" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Aden Bagus', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Aden Bagus'::varchar, null::bigint);</v>
       </c>
       <c r="I561" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="G562" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Adhe Kurniawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Adhe Kurniawan'::varchar, null::bigint);</v>
       </c>
       <c r="I562" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16600,7 +16600,7 @@
       </c>
       <c r="G563" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Fauzi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Fauzi'::varchar, null::bigint);</v>
       </c>
       <c r="I563" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="G564" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Ahmad Gunawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Ahmad Gunawan'::varchar, null::bigint);</v>
       </c>
       <c r="I564" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="G565" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Andri Andriyan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Andri Andriyan'::varchar, null::bigint);</v>
       </c>
       <c r="I565" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16663,7 +16663,7 @@
       </c>
       <c r="G566" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Budi Sulistianto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Budi Sulistianto'::varchar, null::bigint);</v>
       </c>
       <c r="I566" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16684,7 +16684,7 @@
       </c>
       <c r="G567" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Budi', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eka Budi'::varchar, null::bigint);</v>
       </c>
       <c r="I567" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="G568" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Eka Kurniawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Eka Kurniawan'::varchar, null::bigint);</v>
       </c>
       <c r="I568" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="G569" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Haerul Gunawan', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Haerul Gunawan'::varchar, null::bigint);</v>
       </c>
       <c r="I569" s="1" t="str">
         <f t="shared" si="27"/>
@@ -16747,7 +16747,7 @@
       </c>
       <c r="G570" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Irvan Agus', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Irvan Agus'::varchar, null::bigint);</v>
       </c>
       <c r="I570" s="1" t="str">
         <f t="shared" ref="I570:I588" si="28">B570</f>
@@ -16768,7 +16768,7 @@
       </c>
       <c r="G571" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Joshika Pradirga', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Joshika Pradirga'::varchar, null::bigint);</v>
       </c>
       <c r="I571" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16789,7 +16789,7 @@
       </c>
       <c r="G572" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Khaidir', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Khaidir'::varchar, null::bigint);</v>
       </c>
       <c r="I572" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="G573" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Latip Muhlanto', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Latip Muhlanto'::varchar, null::bigint);</v>
       </c>
       <c r="I573" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="G574" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Leonardo Putra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Leonardo Putra'::varchar, null::bigint);</v>
       </c>
       <c r="I574" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="G575" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Muhammad Ramadani', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Ramadani'::varchar, null::bigint);</v>
       </c>
       <c r="I575" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="G576" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Musdalipa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Musdalipa'::varchar, null::bigint);</v>
       </c>
       <c r="I576" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="G577" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Nico Melky', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Nico Melky'::varchar, null::bigint);</v>
       </c>
       <c r="I577" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="G578" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Rahmata Novanisa', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Rahmata Novanisa'::varchar, null::bigint);</v>
       </c>
       <c r="I578" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="G579" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Satrio Dhiaputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Satrio Dhiaputra'::varchar, null::bigint);</v>
       </c>
       <c r="I579" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="G580" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Sudirman', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sudirman'::varchar, null::bigint);</v>
       </c>
       <c r="I580" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16977,8 +16977,8 @@
         <v>25000000000578</v>
       </c>
       <c r="G581" s="24" t="str">
-        <f t="shared" ref="G581:G588" si="30">IF(EXACT(B581, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B581, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Suparji', null);</v>
+        <f t="shared" ref="G581:G588" si="30">IF(EXACT(B581, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B581, "'::varchar, null::bigint);"))</f>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suparji'::varchar, null::bigint);</v>
       </c>
       <c r="I581" s="1" t="str">
         <f t="shared" si="28"/>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="G582" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Taufik Iskandar', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Taufik Iskandar'::varchar, null::bigint);</v>
       </c>
       <c r="I582" s="1" t="str">
         <f t="shared" si="28"/>
@@ -17020,7 +17020,7 @@
       </c>
       <c r="G583" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Tegar Hersaputra', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Tegar Hersaputra'::varchar, null::bigint);</v>
       </c>
       <c r="I583" s="1" t="str">
         <f t="shared" si="28"/>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="G584" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Togar Sihombing', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Togar Sihombing'::varchar, null::bigint);</v>
       </c>
       <c r="I584" s="1" t="str">
         <f t="shared" si="28"/>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="G585" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Wisnu Trenggono', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Wisnu Trenggono'::varchar, null::bigint);</v>
       </c>
       <c r="I585" s="1" t="str">
         <f t="shared" si="28"/>
@@ -17083,7 +17083,7 @@
       </c>
       <c r="G586" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yogo', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yogo'::varchar, null::bigint);</v>
       </c>
       <c r="I586" s="1" t="str">
         <f t="shared" si="28"/>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="G587" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Yustiana Firda', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Yustiana Firda'::varchar, null::bigint);</v>
       </c>
       <c r="I587" s="1" t="str">
         <f t="shared" si="28"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="G588" s="24" t="str">
         <f t="shared" si="30"/>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 'Zainal Abidin', null);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Zainal Abidin'::varchar, null::bigint);</v>
       </c>
       <c r="I588" s="1" t="str">
         <f t="shared" si="28"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4798,12 +4797,12 @@
   </sheetPr>
   <dimension ref="A1:I589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C577" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C434" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4:G588"/>
+      <selection pane="bottomRight" activeCell="F442" sqref="F442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17165,13 +17164,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:G620"/>
+  <dimension ref="B1:C620"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17182,8 +17181,8 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1360</v>
       </c>
@@ -17191,11 +17190,11 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="28">
         <f>IF(EXACT(MAIN!$F4, ""), "", MAIN!$F4)</f>
         <v>25000000000001</v>
@@ -17204,12 +17203,8 @@
         <f>IF(EXACT(MAIN!B4, ""), "", MAIN!B4)</f>
         <v>Abdollah Syani Siregar</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, '", B4, "', null);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, '25000000000001', null);</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="29">
         <f>IF(EXACT(MAIN!$F5, ""), "", MAIN!$F5)</f>
         <v>25000000000002</v>
@@ -17219,7 +17214,7 @@
         <v>Abdul Karim</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="29">
         <f>IF(EXACT(MAIN!$F6, ""), "", MAIN!$F6)</f>
         <v>25000000000003</v>
@@ -17229,7 +17224,7 @@
         <v>Abdul Rahman Sitompul</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="29">
         <f>IF(EXACT(MAIN!$F7, ""), "", MAIN!$F7)</f>
         <v>25000000000004</v>
@@ -17239,7 +17234,7 @@
         <v>Abdul Risan</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="29">
         <f>IF(EXACT(MAIN!$F8, ""), "", MAIN!$F8)</f>
         <v>25000000000005</v>
@@ -17249,7 +17244,7 @@
         <v>Abdullah Nabil</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="29">
         <f>IF(EXACT(MAIN!$F9, ""), "", MAIN!$F9)</f>
         <v>25000000000006</v>
@@ -17259,7 +17254,7 @@
         <v>Adhitya Danar</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="29">
         <f>IF(EXACT(MAIN!$F10, ""), "", MAIN!$F10)</f>
         <v>25000000000007</v>
@@ -17269,7 +17264,7 @@
         <v>Adi Ruswandi</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="29">
         <f>IF(EXACT(MAIN!$F11, ""), "", MAIN!$F11)</f>
         <v>25000000000008</v>
@@ -17279,7 +17274,7 @@
         <v>Adietya Dharmawan</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="29">
         <f>IF(EXACT(MAIN!$F12, ""), "", MAIN!$F12)</f>
         <v>25000000000009</v>
@@ -17289,7 +17284,7 @@
         <v>Aditya Yudha Prawira</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="29">
         <f>IF(EXACT(MAIN!$F13, ""), "", MAIN!$F13)</f>
         <v>25000000000010</v>
@@ -17299,7 +17294,7 @@
         <v>Adli Margie</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="29">
         <f>IF(EXACT(MAIN!$F14, ""), "", MAIN!$F14)</f>
         <v>25000000000011</v>
@@ -17309,7 +17304,7 @@
         <v>Afrida Eka Putri</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="29">
         <f>IF(EXACT(MAIN!$F15, ""), "", MAIN!$F15)</f>
         <v>25000000000012</v>
@@ -17319,7 +17314,7 @@
         <v>Agnes Sutedja</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="29">
         <f>IF(EXACT(MAIN!$F16, ""), "", MAIN!$F16)</f>
         <v>25000000000013</v>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="1373">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -4101,6 +4101,42 @@
   </si>
   <si>
     <t>Sys_PID</t>
+  </si>
+  <si>
+    <t>Firmansyah Awaludin</t>
+  </si>
+  <si>
+    <t>Syafri Johansah</t>
+  </si>
+  <si>
+    <t>Iman Faisal Abdurahman</t>
+  </si>
+  <si>
+    <t>Budi Sandika</t>
+  </si>
+  <si>
+    <t>Fachri Azhar</t>
+  </si>
+  <si>
+    <t>Muhammad Irfan Alfikri</t>
+  </si>
+  <si>
+    <t>firmansyah.awaludin</t>
+  </si>
+  <si>
+    <t>syafri.johansah</t>
+  </si>
+  <si>
+    <t>budi.sandika</t>
+  </si>
+  <si>
+    <t>fachri.azhar</t>
+  </si>
+  <si>
+    <t>Iman.faisal</t>
+  </si>
+  <si>
+    <t>muhammad.irfan</t>
   </si>
 </sst>
 </file>
@@ -4461,7 +4497,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4795,14 +4859,14 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C434" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C583" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="F442" sqref="F442"/>
+      <selection pane="bottomRight" activeCell="A590" sqref="A590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16880,7 +16944,7 @@
         <v>Musdalipa</v>
       </c>
     </row>
-    <row r="577" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B577" s="10" t="s">
         <v>1346</v>
       </c>
@@ -16901,7 +16965,7 @@
         <v>Nico Melky</v>
       </c>
     </row>
-    <row r="578" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B578" s="10" t="s">
         <v>1338</v>
       </c>
@@ -16922,7 +16986,7 @@
         <v>Rahmata Novanisa</v>
       </c>
     </row>
-    <row r="579" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B579" s="10" t="s">
         <v>1352</v>
       </c>
@@ -16943,7 +17007,7 @@
         <v>Satrio Dhiaputra</v>
       </c>
     </row>
-    <row r="580" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B580" s="10" t="s">
         <v>1308</v>
       </c>
@@ -16964,7 +17028,7 @@
         <v>Sudirman</v>
       </c>
     </row>
-    <row r="581" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B581" s="10" t="s">
         <v>1340</v>
       </c>
@@ -16973,11 +17037,11 @@
       </c>
       <c r="D581" s="21"/>
       <c r="F581" s="23">
-        <f t="shared" ref="F581:F588" si="29" xml:space="preserve"> F580 + IF(EXACT(G581, ""), 0, 1)</f>
+        <f t="shared" ref="F581:F594" si="29" xml:space="preserve"> F580 + IF(EXACT(G581, ""), 0, 1)</f>
         <v>25000000000578</v>
       </c>
       <c r="G581" s="24" t="str">
-        <f t="shared" ref="G581:G588" si="30">IF(EXACT(B581, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B581, "'::varchar, null::bigint);"))</f>
+        <f t="shared" ref="G581:G594" si="30">IF(EXACT(B581, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B581, "'::varchar, null::bigint);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Suparji'::varchar, null::bigint);</v>
       </c>
       <c r="I581" s="1" t="str">
@@ -16985,7 +17049,7 @@
         <v>Suparji</v>
       </c>
     </row>
-    <row r="582" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B582" s="10" t="s">
         <v>1342</v>
       </c>
@@ -17006,7 +17070,7 @@
         <v>Taufik Iskandar</v>
       </c>
     </row>
-    <row r="583" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B583" s="10" t="s">
         <v>1329</v>
       </c>
@@ -17027,7 +17091,7 @@
         <v>Tegar Hersaputra</v>
       </c>
     </row>
-    <row r="584" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B584" s="10" t="s">
         <v>1301</v>
       </c>
@@ -17048,7 +17112,7 @@
         <v>Togar Sihombing</v>
       </c>
     </row>
-    <row r="585" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B585" s="10" t="s">
         <v>1348</v>
       </c>
@@ -17069,7 +17133,7 @@
         <v>Wisnu Trenggono</v>
       </c>
     </row>
-    <row r="586" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B586" s="10" t="s">
         <v>1339</v>
       </c>
@@ -17090,7 +17154,7 @@
         <v>Yogo</v>
       </c>
     </row>
-    <row r="587" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B587" s="10" t="s">
         <v>1345</v>
       </c>
@@ -17111,14 +17175,14 @@
         <v>Yustiana Firda</v>
       </c>
     </row>
-    <row r="588" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B588" s="10" t="s">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B588" s="11" t="s">
         <v>1299</v>
       </c>
-      <c r="C588" s="10" t="s">
+      <c r="C588" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="D588" s="21"/>
+      <c r="D588" s="22"/>
       <c r="F588" s="23">
         <f t="shared" si="29"/>
         <v>25000000000585</v>
@@ -17132,22 +17196,127 @@
         <v>Zainal Abidin</v>
       </c>
     </row>
-    <row r="589" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B589" s="11" t="str">
-        <f>IF(EXACT(MAIN!$F589, ""), "", MAIN!$F589)</f>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A589" s="4">
+        <v>45721</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D589" s="21"/>
+      <c r="F589" s="23">
+        <f t="shared" si="29"/>
+        <v>25000000000586</v>
+      </c>
+      <c r="G589" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Budi Sandika'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B590" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D590" s="21"/>
+      <c r="F590" s="23">
+        <f t="shared" si="29"/>
+        <v>25000000000587</v>
+      </c>
+      <c r="G590" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Fachri Azhar'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B591" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D591" s="21"/>
+      <c r="F591" s="23">
+        <f t="shared" si="29"/>
+        <v>25000000000588</v>
+      </c>
+      <c r="G591" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Firmansyah Awaludin'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B592" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D592" s="21"/>
+      <c r="F592" s="23">
+        <f t="shared" si="29"/>
+        <v>25000000000589</v>
+      </c>
+      <c r="G592" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Iman Faisal Abdurahman'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B593" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D593" s="21"/>
+      <c r="F593" s="23">
+        <f t="shared" si="29"/>
+        <v>25000000000590</v>
+      </c>
+      <c r="G593" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Muhammad Irfan Alfikri'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B594" s="10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D594" s="21"/>
+      <c r="F594" s="23">
+        <f t="shared" si="29"/>
+        <v>25000000000591</v>
+      </c>
+      <c r="G594" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Syafri Johansah'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B595" s="11" t="str">
+        <f>IF(EXACT(MAIN!$F595, ""), "", MAIN!$F595)</f>
         <v/>
       </c>
-      <c r="C589" s="11"/>
-      <c r="D589" s="22"/>
-      <c r="F589" s="25"/>
-      <c r="G589" s="11"/>
+      <c r="C595" s="11"/>
+      <c r="D595" s="22"/>
+      <c r="F595" s="25"/>
+      <c r="G595" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="B558:C586">
-    <sortCondition ref="B558:B586"/>
+  <sortState ref="B589:D594">
+    <sortCondition ref="B589"/>
   </sortState>
-  <conditionalFormatting sqref="F4:F588">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="F4:F594">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>EXACT(F3, F4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17166,11 +17335,11 @@
   </sheetPr>
   <dimension ref="B1:C620"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C584" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="I598" sqref="I598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23045,70 +23214,105 @@
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B589" s="30" t="str">
+      <c r="B589" s="29">
         <f>IF(EXACT(MAIN!$F589, ""), "", MAIN!$F589)</f>
-        <v/>
-      </c>
-      <c r="C589" s="33" t="str">
+        <v>25000000000586</v>
+      </c>
+      <c r="C589" s="32" t="str">
+        <f>IF(EXACT(MAIN!B589, ""), "", MAIN!B589)</f>
+        <v>Budi Sandika</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B590" s="29">
+        <f>IF(EXACT(MAIN!$F590, ""), "", MAIN!$F590)</f>
+        <v>25000000000587</v>
+      </c>
+      <c r="C590" s="32" t="str">
         <f>IF(EXACT(MAIN!B590, ""), "", MAIN!B590)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B590" s="2"/>
+        <v>Fachri Azhar</v>
+      </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B591" s="2"/>
+      <c r="B591" s="29">
+        <f>IF(EXACT(MAIN!$F591, ""), "", MAIN!$F591)</f>
+        <v>25000000000588</v>
+      </c>
+      <c r="C591" s="32" t="str">
+        <f>IF(EXACT(MAIN!B591, ""), "", MAIN!B591)</f>
+        <v>Firmansyah Awaludin</v>
+      </c>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B592" s="2"/>
-    </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B593" s="2"/>
-    </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B594" s="2"/>
-    </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B592" s="29">
+        <f>IF(EXACT(MAIN!$F592, ""), "", MAIN!$F592)</f>
+        <v>25000000000589</v>
+      </c>
+      <c r="C592" s="32" t="str">
+        <f>IF(EXACT(MAIN!B592, ""), "", MAIN!B592)</f>
+        <v>Iman Faisal Abdurahman</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B593" s="29">
+        <f>IF(EXACT(MAIN!$F593, ""), "", MAIN!$F593)</f>
+        <v>25000000000590</v>
+      </c>
+      <c r="C593" s="32" t="str">
+        <f>IF(EXACT(MAIN!B593, ""), "", MAIN!B593)</f>
+        <v>Muhammad Irfan Alfikri</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594" s="30">
+        <f>IF(EXACT(MAIN!$F594, ""), "", MAIN!$F594)</f>
+        <v>25000000000591</v>
+      </c>
+      <c r="C594" s="33" t="str">
+        <f>IF(EXACT(MAIN!B594, ""), "", MAIN!B594)</f>
+        <v>Syafri Johansah</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B608" s="2"/>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.2">
@@ -23156,7 +23360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B588"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="H557" sqref="H557"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4153,7 +4153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -4504,22 +4504,22 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -5203,17 +5203,17 @@
   </sheetPr>
   <dimension ref="A1:I619"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C518" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="B526" sqref="B526"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
@@ -15870,11 +15870,11 @@
   </sheetPr>
   <dimension ref="B1:D644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C495" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomRight" activeCell="B504" sqref="B504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="1489">
   <si>
     <t>Abd Samad</t>
   </si>
@@ -4473,6 +4473,18 @@
   </si>
   <si>
     <t>Adi</t>
+  </si>
+  <si>
+    <t>Andrean Fahrizi</t>
+  </si>
+  <si>
+    <t>andrean.fahrizi</t>
+  </si>
+  <si>
+    <t>Amar Abdilah</t>
+  </si>
+  <si>
+    <t>amar.abdilah</t>
   </si>
 </sst>
 </file>
@@ -4867,7 +4879,21 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5201,14 +5227,14 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I619"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C607" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C12" sqref="C12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="J618" sqref="J618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15145,7 +15171,7 @@
         <v>25000000000576</v>
       </c>
       <c r="I579" s="22" t="str">
-        <f t="shared" ref="I579:I618" si="18">IF(EXACT(B579, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B579, "'::varchar, null::bigint);"))</f>
+        <f t="shared" ref="I579:I620" si="18">IF(EXACT(B579, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPerson_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B579, "'::varchar, null::bigint);"))</f>
         <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Sudirman'::varchar, null::bigint);</v>
       </c>
     </row>
@@ -15175,7 +15201,7 @@
       </c>
       <c r="D581" s="19"/>
       <c r="H581" s="21">
-        <f t="shared" ref="H581:H618" si="19" xml:space="preserve"> H580 + IF(EXACT(I581, ""), 0, 1)</f>
+        <f t="shared" ref="H581:H620" si="19" xml:space="preserve"> H580 + IF(EXACT(I581, ""), 0, 1)</f>
         <v>25000000000578</v>
       </c>
       <c r="I581" s="22" t="str">
@@ -15837,21 +15863,55 @@
       </c>
     </row>
     <row r="619" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B619" s="11" t="str">
-        <f>IF(EXACT(MAIN!$H619, ""), "", MAIN!$H619)</f>
-        <v/>
-      </c>
-      <c r="C619" s="11"/>
-      <c r="D619" s="20"/>
-      <c r="H619" s="23"/>
-      <c r="I619" s="11"/>
+      <c r="B619" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D619" s="19"/>
+      <c r="H619" s="21">
+        <f t="shared" si="19"/>
+        <v>25000000000616</v>
+      </c>
+      <c r="I619" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Andrean Fahrizi'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="620" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B620" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D620" s="19"/>
+      <c r="H620" s="21">
+        <f t="shared" si="19"/>
+        <v>25000000000617</v>
+      </c>
+      <c r="I620" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPerson_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Amar Abdilah'::varchar, null::bigint);</v>
+      </c>
+    </row>
+    <row r="621" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B621" s="11" t="str">
+        <f>IF(EXACT(MAIN!$H621, ""), "", MAIN!$H621)</f>
+        <v/>
+      </c>
+      <c r="C621" s="11"/>
+      <c r="D621" s="20"/>
+      <c r="H621" s="23"/>
+      <c r="I621" s="11"/>
     </row>
   </sheetData>
   <sortState ref="K595:K613">
     <sortCondition ref="K595:K613"/>
   </sortState>
-  <conditionalFormatting sqref="H4:H618">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="H4:H620">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>EXACT(H3, H4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15868,13 +15928,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:D644"/>
+  <dimension ref="B1:D646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C495" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C617" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B504" sqref="B504"/>
+      <selection pane="bottomRight" activeCell="G620" sqref="G620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24514,15 +24574,37 @@
       </c>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B619" s="28"/>
-      <c r="C619" s="31"/>
-      <c r="D619" s="31"/>
+      <c r="B619" s="27">
+        <f>IF(EXACT(MAIN!$H619, ""), "", MAIN!$H619)</f>
+        <v>25000000000616</v>
+      </c>
+      <c r="C619" s="30" t="str">
+        <f>IF(EXACT(MAIN!$B619, ""), "", MAIN!$B619)</f>
+        <v>Andrean Fahrizi</v>
+      </c>
+      <c r="D619" s="30" t="str">
+        <f>IF(EXACT($B619, ""), "", IF(EXACT(MAIN!$D619, ""), "", MAIN!$D619))</f>
+        <v/>
+      </c>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B620" s="2"/>
+      <c r="B620" s="27">
+        <f>IF(EXACT(MAIN!$H620, ""), "", MAIN!$H620)</f>
+        <v>25000000000617</v>
+      </c>
+      <c r="C620" s="30" t="str">
+        <f>IF(EXACT(MAIN!$B620, ""), "", MAIN!$B620)</f>
+        <v>Amar Abdilah</v>
+      </c>
+      <c r="D620" s="30" t="str">
+        <f>IF(EXACT($B620, ""), "", IF(EXACT(MAIN!$D620, ""), "", MAIN!$D620))</f>
+        <v/>
+      </c>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B621" s="2"/>
+      <c r="B621" s="28"/>
+      <c r="C621" s="31"/>
+      <c r="D621" s="31"/>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B622" s="2"/>
@@ -24592,6 +24674,12 @@
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B644" s="2"/>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B645" s="2"/>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B646" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
